--- a/results_metrics/all_outliers.xlsx
+++ b/results_metrics/all_outliers.xlsx
@@ -483,68 +483,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
+          <t>&lt;正&gt;立德树人作为高等院校的立身之本与根本性教育方针,是提升高等教育办学质量、培育堪当民族复兴大任的时代人才的关键落脚点,能为课程思政育人格局的系统性构建提供有力的支撑。新时期,高校化工化学类专业要想更好地服务于社会经济发展大局,为食品、新能源、高分子、新材料等化工相关行业输入源源不断的优秀人才,</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Element perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification perspective: Selecting the objects of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of conditions for chemical reactions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particulate perspective: Matter is composed of microscopic particles;</t>
+          <t>&lt;Zheng&gt; Cultivating virtue and fostering individuals is the foundation and fundamental educational guideline for higher education institutions. It is the key focus for improving the quality of higher education and cultivating talents capable of taking on the great task of national rejuvenation, providing strong support for the systematic construction of ideological education patterns in courses. In the new era, if chemical engineering and chemistry majors in colleges and universities want to better serve the overall economic and social development, and continuously supply excellent talents to chemical-related industries such as food, new energy, polymers, and new materials,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>元素觀點：物質由元素組成；元素可以分成不同類別，不同元素具有不同的性質，同類別的元素具有相似的性質；物質的性質與元素組成有關，物質可以根據元素組成進行分類；元素種類在化學反應前後保持不變…… 分類觀點：選擇分類的對象和分類的視角（特徵），元素的分類，物質的分類，變化的分類，化學反應的分類，化學反應條件的分類，物質性質的分類，物質結構的分類，實驗探究中影響變量的分類，實驗原理的分類，實驗儀器，和實驗操作…… 微粒觀點：物質由微觀粒子構成；</t>
+          <t>&lt;郑&gt; 培育道德与培养个人是高等教育机构的基础和根本教育指导方针。这是提高高等教育质量和培养能够承担民族复兴伟大任务的人才的关键焦点，为课程中意识形态教育模式的系统构建提供强有力的支持。在新时代，如果高校化学工程和化学专业想要更好地服务于整体经济和社会发展，并持续为食品、新能源、聚合物和新材料等化学相关行业提供优秀人才，</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.2123292888921015</v>
+        <v>0.2741460467184158</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1105964743265619</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.05992996822422367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;正&gt;公共场所是人们经常集聚的、供大众使用的综合性社会场所。公共场所主要为公众提供包括住宿、休闲、娱乐、公共交通等生活需求，近年来，伴随着经济社会的快速发展，公共场所类型和数量显著增加。同时，伴随着人们环保意识的增强，人们对于室内空气质量关注度持续提高。旅游酒店作为重要的公共场所，一般人员流动性较高，室内空气质量也会对住客和从业人员健康产生重要的影响。旅游酒店通常空间较为封闭狭小，易受装修材料、装饰装潢中的化学物质的影响，甲醛、氨等污染物可能在空气中累积，进而会对人体健康造成危害。因此，开展旅游酒店公共场所室内空气化学污染物的健康风险评估与治理至关重要。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.2760598596896769</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04347826086956521</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -627,35 +631,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on Chinese cabbage downy mildew was investigated.</t>
+          <t>Element perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification perspective: Selecting the objects of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of conditions for chemical reactions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particulate perspective: Matter is composed of microscopic particles;</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>元素觀點：物質由元素組成；元素可以分成不同類別，不同元素具有不同的性質，同類別的元素具有相似的性質；物質的性質與元素組成有關，物質可以根據元素組成進行分類；元素種類在化學反應前後保持不變…… 分類觀點：選擇分類的對象和分類的視角（特徵），元素的分類，物質的分類，變化的分類，化學反應的分類，化學反應條件的分類，物質性質的分類，物質結構的分類，實驗探究中影響變量的分類，實驗原理的分類，實驗儀器，和實驗操作…… 微粒觀點：物質由微觀粒子構成；</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9309493362512627</v>
+        <v>0.2123292888921015</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -664,35 +668,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>&lt;正&gt;公共场所是人们经常集聚的、供大众使用的综合性社会场所。公共场所主要为公众提供包括住宿、休闲、娱乐、公共交通等生活需求，近年来，伴随着经济社会的快速发展，公共场所类型和数量显著增加。同时，伴随着人们环保意识的增强，人们对于室内空气质量关注度持续提高。旅游酒店作为重要的公共场所，一般人员流动性较高，室内空气质量也会对住客和从业人员健康产生重要的影响。旅游酒店通常空间较为封闭狭小，易受装修材料、装饰装潢中的化学物质的影响，甲醛、氨等污染物可能在空气中累积，进而会对人体健康造成危害。因此，开展旅游酒店公共场所室内空气化学污染物的健康风险评估与治理至关重要。</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9309493362512627</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9310344827586207</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.04347826086956521</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -701,35 +701,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The control effect of a combination of amino-oligosaccharins and chemical fungicides against Chinese cabbage downy mildew was investigated.</t>
+          <t>The field of chemical engineering is broad and complex, involving numerous calculation steps. Calculations in this field often relate to curve fitting of nonlinear equations, partial differential equations, solving linear or nonlinear programming problems, which are extremely challenging. Manual computation alone struggles to achieve precise and quick results. However, with the aid of computer programming, quantitative calculations can be conducted, enhancing the efficiency and effectiveness of chemical dosage calculations, thereby offering significant practical value and real-world significance.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
+          <t>化工领域宽广而复杂，涉及众多计算步骤。这类计算常常涉及非线性方程的曲线拟合、偏微分方程、解决线性或非线性的规划问题，这些都极具挑战性。单靠手工计算难以实现精确且快速的结果。然而，借助计算机编程，可以进行定量计算，提高化工配方计算的效率和效果，从而提供显著的实际价值和现实意义。</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Grok-Beta</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8251983888449983</v>
+        <v>0.222730700102315</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -746,27 +746,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The field of chemical engineering is broad and complex, involving numerous calculation steps. Calculations in this field often relate to curve fitting of nonlinear equations, partial differential equations, solving linear or nonlinear programming problems, which are extremely challenging. Manual computation alone struggles to achieve precise and quick results. However, with the aid of computer programming, quantitative calculations can be conducted, enhancing the efficiency and effectiveness of chemical dosage calculations, thereby offering significant practical value and real-world significance.</t>
+          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on Chinese cabbage downy mildew was investigated.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>化工领域宽广而复杂，涉及众多计算步骤。这类计算常常涉及非线性方程的曲线拟合、偏微分方程、解决线性或非线性的规划问题，这些都极具挑战性。单靠手工计算难以实现精确且快速的结果。然而，借助计算机编程，可以进行定量计算，提高化工配方计算的效率和效果，从而提供显著的实际价值和现实意义。</t>
+          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Grok-Beta</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.222730700102315</v>
+        <v>0.9309493362512627</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08000000000000002</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -775,38 +775,38 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;正&gt;立德树人作为高等院校的立身之本与根本性教育方针,是提升高等教育办学质量、培育堪当民族复兴大任的时代人才的关键落脚点,能为课程思政育人格局的系统性构建提供有力的支撑。新时期,高校化工化学类专业要想更好地服务于社会经济发展大局,为食品、新能源、高分子、新材料等化工相关行业输入源源不断的优秀人才,</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;Zheng&gt; Cultivating virtue and fostering individuals is the foundation and fundamental educational guideline for higher education institutions. It is the key focus for improving the quality of higher education and cultivating talents capable of taking on the great task of national rejuvenation, providing strong support for the systematic construction of ideological education patterns in courses. In the new era, if chemical engineering and chemistry majors in colleges and universities want to better serve the overall economic and social development, and continuously supply excellent talents to chemical-related industries such as food, new energy, polymers, and new materials,</t>
+          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;郑&gt; 培育道德与培养个人是高等教育机构的基础和根本教育指导方针。这是提高高等教育质量和培养能够承担民族复兴伟大任务的人才的关键焦点，为课程中意识形态教育模式的系统构建提供强有力的支持。在新时代，如果高校化学工程和化学专业想要更好地服务于整体经济和社会发展，并持续为食品、新能源、聚合物和新材料等化学相关行业提供优秀人才，</t>
+          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.2741460467184158</v>
+        <v>0.9309493362512627</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7281553398058253</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1105964743265619</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05992996822422367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
+          <t>The control effect of a combination of amino-oligosaccharins and chemical fungicides against Chinese cabbage downy mildew was investigated.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
+          <t>研究了氨基寡糖素与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.2760598596896769</v>
+        <v>0.8251983888449983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -857,27 +857,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The field of chemical engineering is broad in scope, and the entire process is complex, involving many calculation stages. Calculations in chemical engineering are often related to solving problems such as curve fitting, nonlinear equations, partial differential equations, and linear or nonlinear programming. These calculations are extremely difficult, making accurate and efficient manual calculation challenging. However, with the aid of computer-assisted programming to perform quantitative calculations, the practical application of chemical calculation amounts can be achieved to improve quality and efficiency, which holds extremely high application value and real-world significance.</t>
+          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>化学工程领域范围广泛，整个过程复杂，涉及许多计算环节。化学工程中的计算常常与解决诸如曲线拟合、非线性方程、偏微分方程以及线性或非线性规划等问题有关。这些计算极其困难，使得准确且高效的手动计算充满挑战。然而，借助计算机辅助编程进行定量计算，化学计算量的实际应用得以实现，从而提高质量和效率，这具有极高的应用价值和现实意义。</t>
+          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.3423200516847171</v>
+        <v>0.2760598596896769</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07692307692307696</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -890,31 +890,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Main Text: Chemical engineering has a broad scope and complex processes, involving numerous calculation steps. Calculations in chemical engineering are often related to solving curve fitting nonlinear equations, partial differential equations, and linear or nonlinear programming. These calculations are extremely difficult and hard to perform accurately and quickly by hand alone. However, with computer-aided programming for quantitative calculations, the quality and efficiency of chemical dosage calculations can be practically improved, which has extremely high application value and practical significance.</t>
+          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems, which are extremely challenging. Achieving precise and efficient calculations manually is difficult; however, by utilizing computer-aided programming for computational tasks, the quality and efficiency of chemical dosage calculations can be significantly improved, offering high application value and practical significance.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>化学工程涉及领域广泛，工艺流程复杂，包含大量的计算步骤。化学工程中的计算常常涉及求解曲线拟合非线性方程、偏微分方程以及线性或非线性规划。这些计算极其困难，单靠手工难以准确快速地完成。然而，借助计算机辅助编程进行定量计算，化学计量计算的质量和效率可以得到实际提高，这具有极高的应用价值和实践意义。</t>
+          <t>化学工程领域涵盖广泛，涉及复杂工艺与众多计算步骤。其计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，极具挑战性。人工实现精确高效计算颇为困难；然而，借助计算机辅助编程进行运算，可大幅提升化工计算的质量与效率，具有较高的应用价值和现实意义。</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.3320273240699305</v>
+        <v>0.2769824849377372</v>
       </c>
       <c r="G13" t="n">
         <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08695652173913046</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -923,57 +923,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学专业英语是英语与化学专业知识结合的一门科技英语,专门用来阐述化学领域相关的理论、技术、实验、过程及现象,是提升高校化学类相关专业学生从事化工领域岗位的基础性课程。化学化工行业使用的众多设备都是从国外引进的,设备使用说明书、结构参数等都是英文版的。这使得化学化工行业需要大量既懂专业知识又掌握专业英语技能的优秀人才。高职院校是培养生产一线高素质技术型人才的主阵地,项目化教学的优势符合高职院校化工技术类专业英语课程教学的需要,提高教学的针对性与实效性,提高学生化工专业英语的掌握程度,帮助他们顺利融入工作岗位。</t>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chemical Professional English is a branch of technical English that integrates English with specialized chemical knowledge. It is specifically used to describe theories, technologies, experiments, processes, and phenomena related to the field of chemistry and serves as a foundational course for students in chemistry-related majors in higher education to prepare them for positions in the chemical industry.  Many pieces of equipment used in the chemical and chemical engineering industries are imported from overseas. Equipment manuals, structural parameters, and the like are all in English. This necessitates a large number of highly skilled personnel in the chemical and chemical engineering industry who possess both professional knowledge and proficient professional English skills. Vocational colleges are the primary institutions for cultivating high-quality, technically skilled personnel for front-line production. The advantages of project-based teaching align with the needs of professional English language courses for chemical technology-related majors in vocational colleges, enhancing the relevance and effectiveness of teaching. This approach aims to improve students' proficiency in chemical professional English and help them seamlessly integrate into their professional roles.</t>
+          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems. These calculations are extremely challenging and difficult to achieve accurately and quickly by manual methods alone. However, by utilizing computer-assisted programming for computational calculations, it is possible to enhance the quality and efficiency of chemical dosage calculations, offering significant practical value and real-world significance.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>化学专业英语是科技英语的一个分支，它将英语与专门的化学知识相结合。它专门用于描述与化学领域相关的理论、技术、实验、过程和现象，是高等教育中化学相关专业学生的基础课程，为他们将来在化工行业任职做好准备。化工和化学工程行业中使用的许多设备都是从海外进口的。设备手册、结构参数等都是英文的。这就需要在化工和化学工程行业中拥有大量既具备专业知识又精通专业英语技能的高素质人才。职业院校是为一线生产培养高素质技术技能人才的主要机构。项目式教学的优势与职业院校化学技术相关专业专业英语课程的需求相契合，提升了教学的相关性和有效性。这种方法旨在提高学生的化学专业英语水平，帮助他们无缝衔接到职业角色中。</t>
+          <t>化学工程领域涵盖广泛，涉及复杂过程与众多计算步骤。化工计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，这些计算极为复杂，仅凭手工方法难以准确且迅速地完成。然而，借助计算机辅助编程进行计算，可提升化工配比计算的质效，具有重要的实用价值与现实意义。</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.343453182678216</v>
+        <v>0.2769824849377372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06216045522255425</v>
+        <v>0.08695652173913046</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06759317166168627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Element perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification perspective: Selecting the objects of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of conditions for chemical reactions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particulate perspective: Matter is composed of microscopic particles;</t>
+          <t>The field of chemical engineering is broad in scope, and the entire process is complex, involving many calculation stages. Calculations in chemical engineering are often related to solving problems such as curve fitting, nonlinear equations, partial differential equations, and linear or nonlinear programming. These calculations are extremely difficult, making accurate and efficient manual calculation challenging. However, with the aid of computer-assisted programming to perform quantitative calculations, the practical application of chemical calculation amounts can be achieved to improve quality and efficiency, which holds extremely high application value and real-world significance.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>元素觀點：物質由元素組成；元素可以分成不同類別，不同元素具有不同的性質，同類別的元素具有相似的性質；物質的性質與元素組成有關，物質可以根據元素組成進行分類；元素種類在化學反應前後保持不變…… 分類觀點：選擇分類的對象和分類的視角（特徵），元素的分類，物質的分類，變化的分類，化學反應的分類，化學反應條件的分類，物質性質的分類，物質結構的分類，實驗探究中影響變量的分類，實驗原理的分類，實驗儀器，和實驗操作…… 微粒觀點：物質由微觀粒子構成；</t>
+          <t>化学工程领域范围广泛，整个过程复杂，涉及许多计算环节。化学工程中的计算常常与解决诸如曲线拟合、非线性方程、偏微分方程以及线性或非线性规划等问题有关。这些计算极其困难，使得准确且高效的手动计算充满挑战。然而，借助计算机辅助编程进行定量计算，化学计算量的实际应用得以实现，从而提高质量和效率，这具有极高的应用价值和现实意义。</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.2123292888921015</v>
+        <v>0.3423200516847171</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.07692307692307696</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>在传统的初中化学复习教学活动中，教师很难将碎片化的知识进行充分整理，学生学习能力和综合素质的提高均受到较大影响。然而，游戏式教学法能够以鲜明的教学主题为核心，有效整合初中化学知识，从而形成更具系统性与结构性的知识框架，避免教学内容始终停留在浅层阶段。本文简要阐述初中化学复习教学中存在的问题，提出以游戏教学法对化学符号的知识进行复习教学的策略。</t>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>In traditional junior high school chemistry review teaching, teachers find it hard to thoroughly organize fragmented knowledge, and the improvement of students' learning abilities and overall quality are significantly impacted. However, game-based pedagogy, centered around a distinct teaching theme, can effectively integrate junior high chemistry knowledge, thereby creating a more systematic and structured knowledge framework, and preventing teaching content from remaining at a superficial level. This paper briefly outlines the issues in junior high chemistry review teaching and proposes strategies for using game-based pedagogy to review the knowledge of chemical symbols in teaching.</t>
+          <t>Main Text: Chemical engineering has a broad scope and complex processes, involving numerous calculation steps. Calculations in chemical engineering are often related to solving curve fitting nonlinear equations, partial differential equations, and linear or nonlinear programming. These calculations are extremely difficult and hard to perform accurately and quickly by hand alone. However, with computer-aided programming for quantitative calculations, the quality and efficiency of chemical dosage calculations can be practically improved, which has extremely high application value and practical significance.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>传统初中化学复习教学中，教师难以系统地整理零散的知识，学生的学习能力和综合素质的提升也因此受到显著影响。然而，围绕明确教学主题的、基于游戏的教学法能够有效地整合初中化学知识，从而构建更系统化、结构化的知识体系，并避免教学内容停留在浅层层面。本文简要概述了初中化学复习教学中存在的问题，并提出了在教学中运用游戏化教学法复习化学符号知识的策略。</t>
+          <t>化学工程涉及领域广泛，工艺流程复杂，包含大量的计算步骤。化学工程中的计算常常涉及求解曲线拟合非线性方程、偏微分方程以及线性或非线性规划。这些计算极其困难，单靠手工难以准确快速地完成。然而，借助计算机辅助编程进行定量计算，化学计量计算的质量和效率可以得到实际提高，这具有极高的应用价值和实践意义。</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1019,22 +1019,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5235762970740585</v>
+        <v>0.3320273240699305</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6831683168316832</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09493439123549045</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05065608764509524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>&lt;正&gt;化学专业英语是英语与化学专业知识结合的一门科技英语,专门用来阐述化学领域相关的理论、技术、实验、过程及现象,是提升高校化学类相关专业学生从事化工领域岗位的基础性课程。化学化工行业使用的众多设备都是从国外引进的,设备使用说明书、结构参数等都是英文版的。这使得化学化工行业需要大量既懂专业知识又掌握专业英语技能的优秀人才。高职院校是培养生产一线高素质技术型人才的主阵地,项目化教学的优势符合高职院校化工技术类专业英语课程教学的需要,提高教学的针对性与实效性,提高学生化工专业英语的掌握程度,帮助他们顺利融入工作岗位。</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+          <t>Chemical Professional English is a branch of technical English that integrates English with specialized chemical knowledge. It is specifically used to describe theories, technologies, experiments, processes, and phenomena related to the field of chemistry and serves as a foundational course for students in chemistry-related majors in higher education to prepare them for positions in the chemical industry.  Many pieces of equipment used in the chemical and chemical engineering industries are imported from overseas. Equipment manuals, structural parameters, and the like are all in English. This necessitates a large number of highly skilled personnel in the chemical and chemical engineering industry who possess both professional knowledge and proficient professional English skills. Vocational colleges are the primary institutions for cultivating high-quality, technically skilled personnel for front-line production. The advantages of project-based teaching align with the needs of professional English language courses for chemical technology-related majors in vocational colleges, enhancing the relevance and effectiveness of teaching. This approach aims to improve students' proficiency in chemical professional English and help them seamlessly integrate into their professional roles.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>壳寡糖结合化学杀菌剂对大白菜霜霉病的控制效果进行了研究。</t>
+          <t>化学专业英语是科技英语的一个分支，它将英语与专门的化学知识相结合。它专门用于描述与化学领域相关的理论、技术、实验、过程和现象，是高等教育中化学相关专业学生的基础课程，为他们将来在化工行业任职做好准备。化工和化学工程行业中使用的许多设备都是从海外进口的。设备手册、结构参数等都是英文的。这就需要在化工和化学工程行业中拥有大量既具备专业知识又精通专业英语技能的高素质人才。职业院校是为一线生产培养高素质技术技能人才的主要机构。项目式教学的优势与职业院校化学技术相关专业专业英语课程的需求相契合，提升了教学的相关性和有效性。这种方法旨在提高学生的化学专业英语水平，帮助他们无缝衔接到职业角色中。</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.4140393356054125</v>
+        <v>0.343453182678216</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.06216045522255425</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.06759317166168627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
+          <t>Element perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification perspective: Selecting the objects of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of conditions for chemical reactions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particulate perspective: Matter is composed of microscopic particles;</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
+          <t>元素觀點：物質由元素組成；元素可以分成不同類別，不同元素具有不同的性質，同類別的元素具有相似的性質；物質的性質與元素組成有關，物質可以根據元素組成進行分類；元素種類在化學反應前後保持不變…… 分類觀點：選擇分類的對象和分類的視角（特徵），元素的分類，物質的分類，變化的分類，化學反應的分類，化學反應條件的分類，物質性質的分類，物質結構的分類，實驗探究中影響變量的分類，實驗原理的分類，實驗儀器，和實驗操作…… 微粒觀點：物質由微觀粒子構成；</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.4140897895345154</v>
+        <v>0.2123292888921015</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1108,20 +1108,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&lt;正&gt;立足“新工科”专业教育场域,物理化学实验能力是化学、材料、生物、环保等专业人才的一项基本素养,在学科设置上,具备一定的前置条件,通常应在系统学习分析化学实验的基本原理与操作规范的基础上,以及熟悉常规实验工具、仪器、方法之后,再进入的物理化学实验领域。基于教学主体视角,物理化学实验的基本内涵是运用物理学知识、技术、经验及规律去解决化学问题,这意味着单个物理化学实验项目有着复合属性,所涉及的教学理论与实践过程也更为丰富、复杂。</t>
+          <t>在传统的初中化学复习教学活动中，教师很难将碎片化的知识进行充分整理，学生学习能力和综合素质的提高均受到较大影响。然而，游戏式教学法能够以鲜明的教学主题为核心，有效整合初中化学知识，从而形成更具系统性与结构性的知识框架，避免教学内容始终停留在浅层阶段。本文简要阐述初中化学复习教学中存在的问题，提出以游戏教学法对化学符号的知识进行复习教学的策略。</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Grounded in the professional education field of "New Engineering Disciplines," physical chemistry experimental skills are a fundamental competency for professionals in fields such as chemistry, materials, biology, and environmental protection. In curriculum setup, it requires certain prerequisites. Typically, one should enter the realm of physical chemistry experiments after systematically learning the fundamental principles and operational standards of analytical chemistry experiments, and after becoming familiar with conventional experimental tools, instruments, and methodologies. From a teaching perspective, the fundamental essence of physical chemistry experiments is to utilize physics knowledge, techniques, experience, and principles to solve chemical problems. This implies that individual physical chemistry experiment projects possess a composite nature, and the teaching theories and practical procedures involved are also more extensive and intricate.</t>
+          <t>In traditional junior high school chemistry review teaching, teachers find it hard to thoroughly organize fragmented knowledge, and the improvement of students' learning abilities and overall quality are significantly impacted. However, game-based pedagogy, centered around a distinct teaching theme, can effectively integrate junior high chemistry knowledge, thereby creating a more systematic and structured knowledge framework, and preventing teaching content from remaining at a superficial level. This paper briefly outlines the issues in junior high chemistry review teaching and proposes strategies for using game-based pedagogy to review the knowledge of chemical symbols in teaching.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>立足于“新工科”的专业教育领域，物理化学实验技能是化学、材料、生物和环境保护等领域专业人员的一项基本能力。在课程设置上，这需要一定的先修知识。通常，应该在系统学习分析化学实验的基本原理和操作规范，并熟悉常规实验工具、仪器和方法后，再进入物理化学实验的领域。从教学的角度来看，物理化学实验的本质是利用物理学的知识、技术、经验和原理来解决化学问题。这意味着物理化学实验项目具有综合性，并且其教学理论和实践环节也更加广泛和深入。</t>
+          <t>传统初中化学复习教学中，教师难以系统地整理零散的知识，学生的学习能力和综合素质的提升也因此受到显著影响。然而，围绕明确教学主题的、基于游戏的教学法能够有效地整合初中化学知识，从而构建更系统化、结构化的知识体系，并避免教学内容停留在浅层层面。本文简要概述了初中化学复习教学中存在的问题，并提出了在教学中运用游戏化教学法复习化学符号知识的策略。</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1130,31 +1130,35 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.4410318560003901</v>
+        <v>0.5235762970740585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04961457249049949</v>
+        <v>0.09493439123549045</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0821304089257596</v>
+        <v>0.05065608764509524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&lt;正&gt;公共场所是人们经常集聚的、供大众使用的综合性社会场所。公共场所主要为公众提供包括住宿、休闲、娱乐、公共交通等生活需求，近年来，伴随着经济社会的快速发展，公共场所类型和数量显著增加。同时，伴随着人们环保意识的增强，人们对于室内空气质量关注度持续提高。旅游酒店作为重要的公共场所，一般人员流动性较高，室内空气质量也会对住客和从业人员健康产生重要的影响。旅游酒店通常空间较为封闭狭小，易受装修材料、装饰装潢中的化学物质的影响，甲醛、氨等污染物可能在空气中累积，进而会对人体健康造成危害。因此，开展旅游酒店公共场所室内空气化学污染物的健康风险评估与治理至关重要。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>壳寡糖结合化学杀菌剂对大白菜霜霉病的控制效果进行了研究。</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1163,13 +1167,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.4140393356054125</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04347826086956521</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1178,20 +1182,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学作为一门自然科学，是人们认识世界和改造世界的重要途径。在历史长河中，化学是经由无数的实验探究逐渐总结发展起来的。从化学的发展历史来看，化学的主要研究形式是分析，在化学科学的发展过程中，无论是实践分析，还是理论分析，都对化学科学的形成和发展产生了重要作用。聚焦于化学历史的发展历程，把握化学事物的基本规律和本质特点，能够更好地拓展化学的发展进程，也能够拓宽化学研究的理论基础。尤其在近代，伴随着化学学科的深入发展，对于化学历史发展情况开展深入的哲学思考尤为必要。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chemistry, as a natural science, is an important way for people to understand and transform the world. Throughout history, chemistry has gradually developed and been summarized through numerous experimental studies. Historically, the main form of chemical research has been analysis. In the development of chemical science, both practical and theoretical analysis have been crucial for its formation and development. Focusing on the historical development of chemistry and understanding the basic laws and essential features of chemical phenomena can better promote the development of chemistry and broaden the theoretical foundation of chemical research. Especially in modern times, with the deepening development of chemistry as a discipline, it is particularly important to conduct in-depth philosophical reflection on the historical development of chemistry.</t>
+          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>化学作为一门自然科学，是人们认识和改造世界的重要途径。纵观历史，化学通过大量的实验研究逐渐发展和总结起来。历史上，化学研究的主要形式一直是分析。在化学科学的发展过程中，实践分析和理论分析对于化学的形成和发展都至关重要。关注化学的历史发展，认识化学现象的基本规律和本质特征，能够更好地促进化学的发展，拓宽化学研究的理论基础。尤其在现代，随着化学作为一门学科的不断深入发展，对化学的历史发展进行深入的哲学反思就显得尤为重要。</t>
+          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1200,22 +1204,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5055140150306473</v>
+        <v>0.4140897895345154</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06216045522255425</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06759317166168625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+          <t>&lt;正&gt;立足“新工科”专业教育场域,物理化学实验能力是化学、材料、生物、环保等专业人才的一项基本素养,在学科设置上,具备一定的前置条件,通常应在系统学习分析化学实验的基本原理与操作规范的基础上,以及熟悉常规实验工具、仪器、方法之后,再进入的物理化学实验领域。基于教学主体视角,物理化学实验的基本内涵是运用物理学知识、技术、经验及规律去解决化学问题,这意味着单个物理化学实验项目有着复合属性,所涉及的教学理论与实践过程也更为丰富、复杂。</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1223,64 +1227,60 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems, which are extremely challenging. Achieving precise and efficient calculations manually is difficult; however, by utilizing computer-aided programming for computational tasks, the quality and efficiency of chemical dosage calculations can be significantly improved, offering high application value and practical significance.</t>
+          <t>Grounded in the professional education field of "New Engineering Disciplines," physical chemistry experimental skills are a fundamental competency for professionals in fields such as chemistry, materials, biology, and environmental protection. In curriculum setup, it requires certain prerequisites. Typically, one should enter the realm of physical chemistry experiments after systematically learning the fundamental principles and operational standards of analytical chemistry experiments, and after becoming familiar with conventional experimental tools, instruments, and methodologies. From a teaching perspective, the fundamental essence of physical chemistry experiments is to utilize physics knowledge, techniques, experience, and principles to solve chemical problems. This implies that individual physical chemistry experiment projects possess a composite nature, and the teaching theories and practical procedures involved are also more extensive and intricate.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>化学工程领域涵盖广泛，涉及复杂工艺与众多计算步骤。其计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，极具挑战性。人工实现精确高效计算颇为困难；然而，借助计算机辅助编程进行运算，可大幅提升化工计算的质量与效率，具有较高的应用价值和现实意义。</t>
+          <t>立足于“新工科”的专业教育领域，物理化学实验技能是化学、材料、生物和环境保护等领域专业人员的一项基本能力。在课程设置上，这需要一定的先修知识。通常，应该在系统学习分析化学实验的基本原理和操作规范，并熟悉常规实验工具、仪器和方法后，再进入物理化学实验的领域。从教学的角度来看，物理化学实验的本质是利用物理学的知识、技术、经验和原理来解决化学问题。这意味着物理化学实验项目具有综合性，并且其教学理论和实践环节也更加广泛和深入。</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DeepSeek-V3</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.2769824849377372</v>
+        <v>0.4410318560003901</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08695652173913046</v>
+        <v>0.04961457249049949</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.0821304089257596</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+          <t>&lt;正&gt;公共场所是人们经常集聚的、供大众使用的综合性社会场所。公共场所主要为公众提供包括住宿、休闲、娱乐、公共交通等生活需求，近年来，伴随着经济社会的快速发展，公共场所类型和数量显著增加。同时，伴随着人们环保意识的增强，人们对于室内空气质量关注度持续提高。旅游酒店作为重要的公共场所，一般人员流动性较高，室内空气质量也会对住客和从业人员健康产生重要的影响。旅游酒店通常空间较为封闭狭小，易受装修材料、装饰装潢中的化学物质的影响，甲醛、氨等污染物可能在空气中累积，进而会对人体健康造成危害。因此，开展旅游酒店公共场所室内空气化学污染物的健康风险评估与治理至关重要。</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems. These calculations are extremely challenging and difficult to achieve accurately and quickly by manual methods alone. However, by utilizing computer-assisted programming for computational calculations, it is possible to enhance the quality and efficiency of chemical dosage calculations, offering significant practical value and real-world significance.</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>化学工程领域涵盖广泛，涉及复杂过程与众多计算步骤。化工计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，这些计算极为复杂，仅凭手工方法难以准确且迅速地完成。然而，借助计算机辅助编程进行计算，可提升化工配比计算的质效，具有重要的实用价值与现实意义。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DeepSeek-V3</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.2769824849377372</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6888888888888889</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08695652173913046</v>
+        <v>0.04347826086956521</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1289,196 +1289,196 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>&lt;正&gt;化学作为一门自然科学，是人们认识世界和改造世界的重要途径。在历史长河中，化学是经由无数的实验探究逐渐总结发展起来的。从化学的发展历史来看，化学的主要研究形式是分析，在化学科学的发展过程中，无论是实践分析，还是理论分析，都对化学科学的形成和发展产生了重要作用。聚焦于化学历史的发展历程，把握化学事物的基本规律和本质特点，能够更好地拓展化学的发展进程，也能够拓宽化学研究的理论基础。尤其在近代，伴随着化学学科的深入发展，对于化学历史发展情况开展深入的哲学思考尤为必要。</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chemistry, as a natural science, is an important way for people to understand and transform the world. Throughout history, chemistry has gradually developed and been summarized through numerous experimental studies. Historically, the main form of chemical research has been analysis. In the development of chemical science, both practical and theoretical analysis have been crucial for its formation and development. Focusing on the historical development of chemistry and understanding the basic laws and essential features of chemical phenomena can better promote the development of chemistry and broaden the theoretical foundation of chemical research. Especially in modern times, with the deepening development of chemistry as a discipline, it is particularly important to conduct in-depth philosophical reflection on the historical development of chemistry.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>化学作为一门自然科学，是人们认识和改造世界的重要途径。纵观历史，化学通过大量的实验研究逐渐发展和总结起来。历史上，化学研究的主要形式一直是分析。在化学科学的发展过程中，实践分析和理论分析对于化学的形成和发展都至关重要。关注化学的历史发展，认识化学现象的基本规律和本质特征，能够更好地促进化学的发展，拓宽化学研究的理论基础。尤其在现代，随着化学作为一门学科的不断深入发展，对化学的历史发展进行深入的哲学反思就显得尤为重要。</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5055140150306473</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.06216045522255425</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.06759317166168625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The field of chemical engineering is broad and complex, involving numerous calculation steps. Calculations in this field often relate to curve fitting of nonlinear equations, partial differential equations, solving linear or nonlinear programming problems, which are extremely challenging. Manual computation alone struggles to achieve precise and quick results. However, with the aid of computer programming, quantitative calculations can be conducted, enhancing the efficiency and effectiveness of chemical dosage calculations, thereby offering significant practical value and real-world significance.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>化工领域宽广而复杂，涉及众多计算步骤。这类计算常常涉及非线性方程的曲线拟合、偏微分方程、解决线性或非线性的规划问题，这些都极具挑战性。单靠手工计算难以实现精确且快速的结果。然而，借助计算机编程，可以进行定量计算，提高化工配方计算的效率和效果，从而提供显著的实际价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.222730700102315</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>在传统的初中化学复习教学活动中，教师很难将碎片化的知识进行充分整理，学生学习能力和综合素质的提高均受到较大影响。然而，游戏式教学法能够以鲜明的教学主题为核心，有效整合初中化学知识，从而形成更具系统性与结构性的知识框架，避免教学内容始终停留在浅层阶段。本文简要阐述初中化学复习教学中存在的问题，提出以游戏教学法对化学符号的知识进行复习教学的策略。</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>In traditional junior high school chemistry review classes, teachers find it challenging to thoroughly organize fragmented knowledge, which significantly affects students' learning abilities and overall quality. However, game-based teaching methods can focus on a clear teaching theme, effectively integrating junior high school chemistry knowledge to form a more systematic and structured knowledge framework, preventing the teaching content from remaining superficial. This article briefly discusses the issues in junior high school chemistry review teaching and proposes strategies for reviewing chemical symbols using game-based teaching methods.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>在传统的初中化学复习课中，教师发现很难全面整理零散的知识，这显著影响了学生的学习能力和整体素质。然而，基于游戏的教学方法可以集中在一个明确的教学主题上，有效地整合初中化学的知识，形成更系统、结构化的知识框架，避免教学内容流于表面。本文简要讨论了初中化学复习教学中的问题，并提出利用游戏化教学方法复习化学符号的策略。</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4586209405205928</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6237623762376238</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.09493439123549045</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05065608764509524</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>&lt;正&gt;1前言2024年，对于中国科学技术大学（以下简称中国科大）辐射化学学科是一个极其特殊的年份。这一年安全运行了四十年的钴源辐照装置到达退役年限，即将完成它的历史使命。在四十年的岁月中，钴源辐照装置对中国科大辐射化学学科乃至中国辐射技术产业化的发展起到了至关重要的作用，也为中国科大辐射化学学科开启下一个新时代打下了良好的坚实基础，未来可期。为此，特撰写此文，以示纪念。</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>1 Introduction
 The year 2024 is an exceptionally significant one for the discipline of radiation chemistry at the University of Science and Technology of China (USTC). This year marks the retirement of the cobalt-60 irradiation facility after 40 years of safe operation, as it completes its historical mission. Over these four decades, the cobalt-60 irradiation facility has played an essential role in advancing radiation chemistry at USTC, as well as promoting the industrialization of radiation technology in China. It has also provided a solid foundation, paving the way for a promising new era in radiation chemistry at USTC. This article has been specially prepared to commemorate this milestone.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1 引言
 对于中国科学技术大学辐射化学学科而言，2024年具有非凡的意义。今年，服役40年并安全运行的钴-60辐照装置完成其历史使命，正式退役。在过去的四十年中，该钴-60辐照装置在推动中国科学技术大学辐射化学学科的发展、促进我国辐射技术产业化方面发挥了重要作用，并为该校辐射化学的崭新时代奠定了坚实的基础。特撰此文，以纪念这一里程碑时刻。</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F27" t="n">
         <v>0.3193846943309346</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G27" t="n">
         <v>0.6415094339622641</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>0.07407407407407411</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>&lt;正&gt;1前言2024年，对于中国科学技术大学（以下简称中国科大）辐射化学学科是一个极其特殊的年份。这一年安全运行了四十年的钴源辐照装置到达退役年限，即将完成它的历史使命。在四十年的岁月中，钴源辐照装置对中国科大辐射化学学科乃至中国辐射技术产业化的发展起到了至关重要的作用，也为中国科大辐射化学学科开启下一个新时代打下了良好的坚实基础，未来可期。为此，特撰写此文，以示纪念。</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>3</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>1 Foreword
 The year 2024 marks an exceptionally significant milestone for the discipline of radiation chemistry at the University of Science and Technology of China (USTC). This year, the cobalt-source irradiation facility, which has operated safely for forty years, will reach its retirement, completing its historical mission. Over the past forty years, this cobalt-source irradiation device has played a crucial role in the development of radiation chemistry at USTC and in promoting industrialization of radiation technology in China. Furthermore, it has laid a strong foundation for opening a new era in radiation chemistry at USTC, ensuring a bright future ahead. In commemoration, this article has been specially written.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>1 前言
 2024年对中国科学技术大学辐射化学学科来说意义非凡。今年是已安全运行四十年的钴源辐照装置光荣退役之年，它即将完成其历史使命。在过去的四十年中，该钴源辐照装置为中科大辐射化学学科的发展和我国辐射技术的产业化进程发挥了重要作用，也为开创中科大辐射化学学科的新纪元奠定了坚实基础，前景非常广阔。值此纪念之际，特撰此文。</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F28" t="n">
         <v>0.4018149164801282</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G28" t="n">
         <v>0.660377358490566</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>0.08695652173913046</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;化学作为一门自然科学，是人们认识世界和改造世界的重要途径。在历史长河中，化学是经由无数的实验探究逐渐总结发展起来的。从化学的发展历史来看，化学的主要研究形式是分析，在化学科学的发展过程中，无论是实践分析，还是理论分析，都对化学科学的形成和发展产生了重要作用。聚焦于化学历史的发展历程，把握化学事物的基本规律和本质特点，能够更好地拓展化学的发展进程，也能够拓宽化学研究的理论基础。尤其在近代，伴随着化学学科的深入发展，对于化学历史发展情况开展深入的哲学思考尤为必要。</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Chemistry, as a natural science, is an important avenue for people to understand and transform the world. Throughout history, chemistry has gradually evolved and been summarized through countless experiments and explorations. From the historical perspective, chemistry primarily involves analysis, and both empirical and theoretical analyses have significantly contributed to the formation and development of chemical science. By focusing on the historical progression of chemistry and grasping the fundamental laws and intrinsic characteristics of chemical phenomena, we can further accelerate the development of chemistry and expand its theoretical foundation. Particularly in modern times, with the deepening development of chemical disciplines, it is especially important to engage in philosophical reflection upon chemistry's historical evolution.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>化学作为一门自然科学，是人类认识世界和改造世界的重要途径。纵观历史，化学通过无数次实验与探索逐渐形成并不断总结。从历史的角度看，化学主要涉及分析，无论是经验分析还是理论分析，都极大地推动了化学科学的形成与发展。通过关注化学的历史进程，掌握化学现象的基本规律与内在特征，我们可以进一步促进化学学科的发展并扩展其理论基础。尤其在现代，随着化学学科发展的不断深入，对化学历史演进进行哲学反思显得尤为重要。</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>OpenAI-GPT-4.5</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.351353716994112</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.6607142857142857</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.06440630892622776</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.03390536610658386</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>The field of chemical engineering is broad and complex, involving numerous calculation steps. Calculations in this field often relate to curve fitting of nonlinear equations, partial differential equations, solving linear or nonlinear programming problems, which are extremely challenging. Manual computation alone struggles to achieve precise and quick results. However, with the aid of computer programming, quantitative calculations can be conducted, enhancing the efficiency and effectiveness of chemical dosage calculations, thereby offering significant practical value and real-world significance.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>化工领域宽广而复杂，涉及众多计算步骤。这类计算常常涉及非线性方程的曲线拟合、偏微分方程、解决线性或非线性的规划问题，这些都极具挑战性。单靠手工计算难以实现精确且快速的结果。然而，借助计算机编程，可以进行定量计算，提高化工配方计算的效率和效果，从而提供显著的实际价值和现实意义。</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.222730700102315</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.08000000000000002</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>在传统的初中化学复习教学活动中，教师很难将碎片化的知识进行充分整理，学生学习能力和综合素质的提高均受到较大影响。然而，游戏式教学法能够以鲜明的教学主题为核心，有效整合初中化学知识，从而形成更具系统性与结构性的知识框架，避免教学内容始终停留在浅层阶段。本文简要阐述初中化学复习教学中存在的问题，提出以游戏教学法对化学符号的知识进行复习教学的策略。</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>In traditional junior high school chemistry review classes, teachers find it challenging to thoroughly organize fragmented knowledge, which significantly affects students' learning abilities and overall quality. However, game-based teaching methods can focus on a clear teaching theme, effectively integrating junior high school chemistry knowledge to form a more systematic and structured knowledge framework, preventing the teaching content from remaining superficial. This article briefly discusses the issues in junior high school chemistry review teaching and proposes strategies for reviewing chemical symbols using game-based teaching methods.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>在传统的初中化学复习课中，教师发现很难全面整理零散的知识，这显著影响了学生的学习能力和整体素质。然而，基于游戏的教学方法可以集中在一个明确的教学主题上，有效地整合初中化学的知识，形成更系统、结构化的知识框架，避免教学内容流于表面。本文简要讨论了初中化学复习教学中的问题，并提出利用游戏化教学方法复习化学符号的策略。</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.4586209405205928</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.6237623762376238</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.09493439123549045</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.05065608764509524</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>&lt;正&gt;化学作为一门自然科学，是人们认识世界和改造世界的重要途径。在历史长河中，化学是经由无数的实验探究逐渐总结发展起来的。从化学的发展历史来看，化学的主要研究形式是分析，在化学科学的发展过程中，无论是实践分析，还是理论分析，都对化学科学的形成和发展产生了重要作用。聚焦于化学历史的发展历程，把握化学事物的基本规律和本质特点，能够更好地拓展化学的发展进程，也能够拓宽化学研究的理论基础。尤其在近代，伴随着化学学科的深入发展，对于化学历史发展情况开展深入的哲学思考尤为必要。</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1486,30 +1486,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
+          <t>Chemistry, as a natural science, is an important avenue for people to understand and transform the world. Throughout history, chemistry has gradually evolved and been summarized through countless experiments and explorations. From the historical perspective, chemistry primarily involves analysis, and both empirical and theoretical analyses have significantly contributed to the formation and development of chemical science. By focusing on the historical progression of chemistry and grasping the fundamental laws and intrinsic characteristics of chemical phenomena, we can further accelerate the development of chemistry and expand its theoretical foundation. Particularly in modern times, with the deepening development of chemical disciplines, it is especially important to engage in philosophical reflection upon chemistry's historical evolution.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
+          <t>化学作为一门自然科学，是人类认识世界和改造世界的重要途径。纵观历史，化学通过无数次实验与探索逐渐形成并不断总结。从历史的角度看，化学主要涉及分析，无论是经验分析还是理论分析，都极大地推动了化学科学的形成与发展。通过关注化学的历史进程，掌握化学现象的基本规律与内在特征，我们可以进一步促进化学学科的发展并扩展其理论基础。尤其在现代，随着化学学科发展的不断深入，对化学历史演进进行哲学反思显得尤为重要。</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.2760598596896769</v>
+        <v>0.351353716994112</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.06440630892622776</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.03390536610658386</v>
       </c>
     </row>
     <row r="30">
@@ -1523,30 +1523,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for applied chemistry. Then, it discusses the development of the production internship course for applied chemistry majors in the context of engineering education professional certification, including course objectives and positioning, the setting and arrangement of course content, and evaluation methods and standards for the attainment of course objectives. Finally, it summarizes the effectiveness and challenges faced in the development of the production internship course for applied chemistry majors in the context of engineering education professional certification.</t>
+          <t>The article first expounds on the connection between engineering education professional certification and production internship courses in applied chemistry programs. It then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and challenges in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系。接着，探讨了在工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排，以及课程目标达成评价方法与标准。最后，总结了在工程教育专业认证背景下应用化学专业生产实习课程建设中的成效与面临的挑战。</t>
+          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系。然后讨论了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标和定位、课程内容设置和安排、课程目标达成的评价方法和标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成就和挑战。</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6938886664887109</v>
+        <v>0.7438505142568383</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1417315994683161</v>
+        <v>0.1538461538461538</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07874460345594508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1556,28 +1556,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The article first elucidates the relationship between engineering education professional accreditation and the production practice course for applied chemistry. Then it discusses the development of the production practice course for applied chemistry in the context of engineering education professional accreditation, including course objectives and positioning, course content setting and arrangement, and evaluation methods and criteria for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the development of the production practice course for applied chemistry in the context of engineering education professional accreditation.</t>
+          <t>The article first expounds on the relationship between engineering education professional certification and production internship courses in applied chemistry majors, then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for course objective achievement. Finally, it summarizes the achievements and challenges in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>文章首先阐述工程教育专业认证与应用化学生产实习课程的关系。然后探讨工程教育专业认证背景下应用化学生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、以及课程目标达成的评价方法与标准。最后，总结工程教育专业认证背景下应用化学生产实习课程建设的成效与面临的挑战。</t>
+          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的关系，然后讨论了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、课程目标达成评价方法与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成果与挑战。</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.69825100671025</v>
+        <v>0.7787445652377704</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="H31" t="n">
         <v>0.1482851060686158</v>
@@ -1589,38 +1589,38 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+          <t>The article first expounds on the relationship between engineering education professional certification and production internship courses for applied chemistry majors, then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and problems in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>壳寡糖结合化学杀菌剂对大白菜霜霉病的控制效果进行了研究。</t>
+          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的关系，然后探讨了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方法与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效与问题。</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.4140393356054125</v>
+        <v>0.8271584130959582</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.1482851060686158</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.1844319166226131</v>
       </c>
     </row>
     <row r="33">
@@ -1630,28 +1630,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
+          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
+          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.4140897895345154</v>
+        <v>0.2760598596896769</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1667,28 +1667,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Investigated the control effect of the combination of chitosan oligosaccharide and chemical fungicides on downy mildew of Chinese cabbage.</t>
+          <t>The control effects of amino oligosaccharides combined with chemical fungicides on downy mildew of Chinese cabbage were investigated.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>研究了壳寡糖与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
+          <t>氨基寡糖与化学杀菌剂联合使用对白菜霜霉病的防治效果进行了研究。</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6056038593913453</v>
+        <v>0.4787135538781691</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1700,38 +1700,38 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The article first elucidates the connection between engineering education accreditation and the production internship course for the applied chemistry major. It then discusses the construction of the production internship course for the applied chemistry major under the context of engineering education accreditation, including the course objectives and positioning, the design and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for the applied chemistry major under the context of engineering education accreditation.</t>
+          <t>Discussed the effect of combining amino oligosaccharides with chemical fungicides on controlling downy mildew in Chinese cabbage.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的联系，随后探讨了在工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设计与安排、课程目标达成的评价方式与标准。最后，总结了在工程教育认证背景下应用化学专业生产实习课程建设取得的成效及面临的挑战。</t>
+          <t>讨论了氨基寡糖与化学杀菌剂结合使用对控制大白菜霜霉病的影响。</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DeepSeek-V3</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7245334605627619</v>
+        <v>0.5244044240850758</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H35" t="n">
-        <v>0.152570023199755</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0845798608014702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1741,16 +1741,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for applied chemistry majors. It then discusses the construction of the production internship course for applied chemistry majors under the context of engineering education professional certification, including the course objectives and positioning, the setting and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for applied chemistry majors under the context of engineering education professional certification.</t>
+          <t>The article first elucidates the connection between engineering education accreditation and the production internship course for the applied chemistry major. It then discusses the construction of the production internship course for the applied chemistry major under the context of engineering education accreditation, including the course objectives and positioning, the design and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for the applied chemistry major under the context of engineering education accreditation.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系，随后探讨了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排、课程目标达成的评价方式与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效与面临的挑战。</t>
+          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的联系，随后探讨了在工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设计与安排、课程目标达成的评价方式与标准。最后，总结了在工程教育认证背景下应用化学专业生产实习课程建设取得的成效及面临的挑战。</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8007173817014662</v>
+        <v>0.7245334605627619</v>
       </c>
       <c r="G36" t="n">
         <v>0.9090909090909091</v>
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for the applied chemistry major. It then discusses the construction of the production internship course for the applied chemistry major under the context of engineering education professional certification, including the course objectives and positioning, the setting and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for the applied chemistry major under the context of engineering education professional certification.</t>
+          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for applied chemistry majors. It then discusses the construction of the production internship course for applied chemistry majors under the context of engineering education professional certification, including the course objectives and positioning, the setting and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for applied chemistry majors under the context of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系，随后探讨了在工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排、课程目标达成的评价方式与标准。最后，总结了在工程教育专业认证背景下应用化学专业生产实习课程建设取得的成效及面临的挑战。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系，随后探讨了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排、课程目标达成的评价方式与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效与面临的挑战。</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.7692672824829704</v>
+        <v>0.8007173817014662</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="H37" t="n">
         <v>0.152570023199755</v>
@@ -1811,20 +1811,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The study explored the control efficacy of a combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
+          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for the applied chemistry major. It then discusses the construction of the production internship course for the applied chemistry major under the context of engineering education professional certification, including the course objectives and positioning, the setting and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for the applied chemistry major under the context of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>该研究探讨了氨基寡糖素与化学杀菌剂组合对白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系，随后探讨了在工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排、课程目标达成的评价方式与标准。最后，总结了在工程教育专业认证背景下应用化学专业生产实习课程建设取得的成效及面临的挑战。</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1833,16 +1833,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6913328984437151</v>
+        <v>0.7692672824829704</v>
       </c>
       <c r="G38" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.152570023199755</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.0845798608014702</v>
       </c>
     </row>
     <row r="39">
@@ -1852,16 +1852,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The study explored the control efficacy of the combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
+          <t>The study explored the control efficacy of a combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>该研究探讨了氨基寡糖素与化学杀菌剂复配对白菜霜霉病的防治效果。</t>
+          <t>该研究探讨了氨基寡糖素与化学杀菌剂组合对白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.7859052479933757</v>
+        <v>0.6913328984437151</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1889,11 +1889,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The study explored the control efficacy of a combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
+          <t>The study explored the control efficacy of the combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,38 +1922,38 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The article first elaborates on the relationship between the engineering education accreditation and the industrial practice course in applied chemistry, then discusses the construction of the industrial practice course for applied chemistry under the background of engineering education accreditation, including course objectives and positioning, curriculum content design and arrangement, as well as methods and criteria for evaluating course goal attainment. Finally, it summarizes the effectiveness and existing issues in the development of the industrial practice course for applied chemistry under the background of engineering education accreditation.</t>
+          <t>The study explored the control efficacy of a combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的关系，然后探讨了工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设计与安排，以及课程目标达成情况的评价方法与标准，最后总结了工程教育认证背景下应用化学专业生产实习课程建设的成效与存在的问题。</t>
+          <t>该研究探讨了氨基寡糖素与化学杀菌剂复配对白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7575364893954893</v>
+        <v>0.7859052479933757</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1651018215016762</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.09193998174078082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1963,34 +1963,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The article first elaborates on the relationship between engineering education accreditation and the Applied Chemistry program's production internship course, then discusses the construction of the production internship course in Applied Chemistry under the context of engineering education accreditation, including course objectives and positioning, content structuring and arrangement, methods and standards for assessing achievement of course objectives, and finally summarizes the outcomes and issues encountered in constructing the production internship course in Applied Chemistry against the background of engineering education accreditation.</t>
+          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for applied chemistry. Then, it discusses the development of the production internship course for applied chemistry majors in the context of engineering education professional certification, including course objectives and positioning, the setting and arrangement of course content, and evaluation methods and standards for the attainment of course objectives. Finally, it summarizes the effectiveness and challenges faced in the development of the production internship course for applied chemistry majors in the context of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的关系，随后探讨了工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、内容结构与安排、课程目标达成评价的方法与标准，最后总结了在工程教育认证背景下应用化学专业生产实习课程建设取得的成效及存在的问题。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系。接着，探讨了在工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排，以及课程目标达成评价方法与标准。最后，总结了在工程教育专业认证背景下应用化学专业生产实习课程建设中的成效与面临的挑战。</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.7422311442232916</v>
+        <v>0.6938886664887109</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1651018215016762</v>
+        <v>0.1417315994683161</v>
       </c>
       <c r="I42" t="n">
-        <v>0.09193998174078082</v>
+        <v>0.07874460345594508</v>
       </c>
     </row>
     <row r="43">
@@ -2004,30 +2004,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The article first elaborates on the connection between engineering education accreditation and the industrial internship curriculum of the applied chemistry program. It then discusses the development of the industrial internship curriculum for the applied chemistry program under the background of engineering education accreditation, covering aspects such as course objectives and positioning, curriculum content design and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and challenges faced in building the industrial internship curriculum for the applied chemistry program within the context of engineering education accreditation.</t>
+          <t>The article first elucidates the relationship between engineering education professional accreditation and the production practice course for applied chemistry. Then it discusses the development of the production practice course for applied chemistry in the context of engineering education professional accreditation, including course objectives and positioning, course content setting and arrangement, and evaluation methods and criteria for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the development of the production practice course for applied chemistry in the context of engineering education professional accreditation.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育认证与应用化学专业工业实习课程之间的联系，然后讨论了工程教育认证背景下应用化学专业工业实习课程的建设，包括课程目标与定位、课程内容设计与安排、课程目标达成的评价方法与标准等方面。最后，总结了在工程教育认证背景下应用化学专业工业实习课程建设取得的成果及面临的挑战。</t>
+          <t>文章首先阐述工程教育专业认证与应用化学生产实习课程的关系。然后探讨工程教育专业认证背景下应用化学生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、以及课程目标达成的评价方法与标准。最后，总结工程教育专业认证背景下应用化学生产实习课程建设的成效与面临的挑战。</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.6483587776683762</v>
+        <v>0.69825100671025</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="H43" t="n">
-        <v>0.152570023199755</v>
+        <v>0.1482851060686158</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0845798608014702</v>
+        <v>0.1844319166226131</v>
       </c>
     </row>
     <row r="44">
@@ -2041,24 +2041,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on Chinese cabbage downy mildew was investigated.</t>
+          <t>The control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>壳寡糖结合化学杀菌剂对大白菜霜霉病的控制效果进行了研究。</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9309493362512627</v>
+        <v>0.4140393356054125</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2078,24 +2078,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9309493362512627</v>
+        <v>0.4140897895345154</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2115,24 +2115,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The control effect of a combination of amino-oligosaccharins and chemical fungicides against Chinese cabbage downy mildew was investigated.</t>
+          <t>Investigated the control effect of the combination of chitosan oligosaccharide and chemical fungicides on downy mildew of Chinese cabbage.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
+          <t>研究了壳寡糖与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Gemini-2FTE</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8251983888449983</v>
+        <v>0.6056038593913453</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2300,30 +2300,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The article first expounds on the connection between engineering education professional certification and production internship courses in applied chemistry programs. It then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and challenges in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
+          <t>The article first elaborates on the relationship between the engineering education accreditation and the industrial practice course in applied chemistry, then discusses the construction of the industrial practice course for applied chemistry under the background of engineering education accreditation, including course objectives and positioning, curriculum content design and arrangement, as well as methods and criteria for evaluating course goal attainment. Finally, it summarizes the effectiveness and existing issues in the development of the industrial practice course for applied chemistry under the background of engineering education accreditation.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系。然后讨论了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标和定位、课程内容设置和安排、课程目标达成的评价方法和标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成就和挑战。</t>
+          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的关系，然后探讨了工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设计与安排，以及课程目标达成情况的评价方法与标准，最后总结了工程教育认证背景下应用化学专业生产实习课程建设的成效与存在的问题。</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.7438505142568383</v>
+        <v>0.7575364893954893</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.1651018215016762</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.09193998174078082</v>
       </c>
     </row>
     <row r="52">
@@ -2337,30 +2337,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The article first expounds on the relationship between engineering education professional certification and production internship courses in applied chemistry majors, then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for course objective achievement. Finally, it summarizes the achievements and challenges in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
+          <t>The article first elaborates on the relationship between engineering education accreditation and the Applied Chemistry program's production internship course, then discusses the construction of the production internship course in Applied Chemistry under the context of engineering education accreditation, including course objectives and positioning, content structuring and arrangement, methods and standards for assessing achievement of course objectives, and finally summarizes the outcomes and issues encountered in constructing the production internship course in Applied Chemistry against the background of engineering education accreditation.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的关系，然后讨论了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、课程目标达成评价方法与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成果与挑战。</t>
+          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的关系，随后探讨了工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、内容结构与安排、课程目标达成评价的方法与标准，最后总结了在工程教育认证背景下应用化学专业生产实习课程建设取得的成效及存在的问题。</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.7787445652377704</v>
+        <v>0.7422311442232916</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1482851060686158</v>
+        <v>0.1651018215016762</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1844319166226131</v>
+        <v>0.09193998174078082</v>
       </c>
     </row>
     <row r="53">
@@ -2374,30 +2374,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The article first expounds on the relationship between engineering education professional certification and production internship courses for applied chemistry majors, then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and problems in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
+          <t>The article first elaborates on the connection between engineering education accreditation and the industrial internship curriculum of the applied chemistry program. It then discusses the development of the industrial internship curriculum for the applied chemistry program under the background of engineering education accreditation, covering aspects such as course objectives and positioning, curriculum content design and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and challenges faced in building the industrial internship curriculum for the applied chemistry program within the context of engineering education accreditation.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的关系，然后探讨了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方法与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效与问题。</t>
+          <t>文章首先阐述了工程教育认证与应用化学专业工业实习课程之间的联系，然后讨论了工程教育认证背景下应用化学专业工业实习课程的建设，包括课程目标与定位、课程内容设计与安排、课程目标达成的评价方法与标准等方面。最后，总结了在工程教育认证背景下应用化学专业工业实习课程建设取得的成果及面临的挑战。</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8271584130959582</v>
+        <v>0.6483587776683762</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1482851060686158</v>
+        <v>0.152570023199755</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1844319166226131</v>
+        <v>0.0845798608014702</v>
       </c>
     </row>
     <row r="54">
@@ -2411,24 +2411,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
+          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on Chinese cabbage downy mildew was investigated.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
+          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.2760598596896769</v>
+        <v>0.9309493362512627</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2448,24 +2448,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The control effects of amino oligosaccharides combined with chemical fungicides on downy mildew of Chinese cabbage were investigated.</t>
+          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>氨基寡糖与化学杀菌剂联合使用对白菜霜霉病的防治效果进行了研究。</t>
+          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.4787135538781691</v>
+        <v>0.9309493362512627</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2485,24 +2485,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Discussed the effect of combining amino oligosaccharides with chemical fungicides on controlling downy mildew in Chinese cabbage.</t>
+          <t>The control effect of a combination of amino-oligosaccharins and chemical fungicides against Chinese cabbage downy mildew was investigated.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>讨论了氨基寡糖与化学杀菌剂结合使用对控制大白菜霜霉病的影响。</t>
+          <t>研究了氨基寡糖素与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.5244044240850758</v>
+        <v>0.8251983888449983</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2514,7 +2514,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>“天然药物化学”是高等学校药学及相关专业的必修课程。课程章节内容多、理论性强,学生学习面临较多难题。因此,基于超星学习通,建立线上和线下深度融合的天然药物化学混合教学模式,通过任务驱动、线上自主学习、小组讨论、课后巩固、延伸拓展知识等方式,全面激发学生的积极性和主动性,提升教学效果。</t>
+          <t>&lt;正&gt;1 “玩转520化学桌游”资源利用与课程目标的设定1.1 资源利用：游戏教具与配套资源“玩转520化学桌游”是由钱扬义等自主开发的一套破解初中化学用语学习难题的教学用具，狭义指其中的5副牌(元素牌、物质牌、反应牌、实验牌、科学家牌)、1对骰子(阴离子骰子和阳离子骰子)、1副飞行棋(化合物飞行棋)等3类教具，6款游戏规则，以及配套的学生手册与教师用书，囊括初中化学22种元素符号、</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2522,36 +2522,40 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Natural Medicinal Chemistry" is a required course for pharmacy and related majors in higher education institutions. The content of course chapters is extensive and highly theoretical, and students face many difficulties in learning. Therefore, based on the Chaoxing Learning Platform, a deeply blended online and offline blended teaching mode of Natural Medicinal Chemistry was established. Through task-driven approaches, online self-directed learning, group discussions, post-class reinforcement, knowledge extension and expansion, and other methods, it comprehensively stimulates students' initiative and enthusiasm and enhances teaching effectiveness.</t>
+          <t>&lt;Correct&gt;1 "Play with 520 Chemistry Board Games": Resource Utilization and Curriculum Goal Setting
+1.1 Resource Utilization: Game Teaching Aids and Supporting Resources
+"Play with 520 Chemistry Board Games" is a set of teaching tools independently developed by Qian Yangyi and others to solve the difficulties in learning junior high school chemistry terminology. In the narrow sense, it refers to 3 types of teaching aids: 5 decks of cards (element cards, substance cards, reaction cards, experiment cards, scientist cards), 1 pair of dice (anion dice and cation dice), 1 set of flying chess (compound flying chess), as well as 6 game rules, and supporting student manuals and teacher books, encompassing 22 element symbols in junior high school chemistry.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>“天然药物化学”是高等院校药学及相关专业的一门必修课程。课程章节内容广泛且高度理论化，学生在学习中面临诸多困难。因此，基于超星学习平台，构建了“天然药物化学”深度融合线上线下的混合式教学模式。通过任务驱动、线上自主学习、小组讨论、课后巩固、知识拓展延伸等多种方法，全面激发学生的积极性和主动性，提升教学效果。</t>
+          <t>&lt;正确&gt;1 "玩转520化学桌游"：资源利用与课程目标设定
+1.1 资源利用：游戏教具和配套资源
+"玩转520化学桌游"是钱扬毅等人独立研发的一套解决初中化学术语学习难题的教学工具。狭义上，它指的是3类教具：5副牌（元素牌、物质牌、反应牌、实验牌、科学家牌），1对骰子（阴离子骰子和阳离子骰子），1套飞行棋（化合物飞行棋），以及6种游戏规则，配套学生手册和教师用书，囊括了初中化学中的22个元素符号。</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.5641352711653373</v>
+        <v>0.534049152462826</v>
       </c>
       <c r="G57" t="n">
-        <v>0.945054945054945</v>
+        <v>0.8921568627450981</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05576238733756375</v>
+        <v>0.04015799326004501</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3866137392867989</v>
+        <v>0.3976301010993248</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>为实现“立德树人”的教育目标，各高校开始大力发展将“课程思政”融入专业课程的举措。分析化学实验作为一门基础性极强、学科地位较高的实验课程，蕴含着非常丰富的思政元素。本文通过分析该课程目前的教学现状，在课程的前中后期深入挖掘和糅合思政元素，以达到培养学生实事求是的科学精神、大胆创新的意识以及“绿水青山就是金山银山”的可持续发展理念等思政目标，在学习知识的同时，帮助学生树立正确的世界观、人生观、价值观，为国家培养更多的高素质、高质量的化学人才。</t>
+          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2559,30 +2563,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>To achieve the educational goal of "cultivating virtue and nurturing talent," universities have begun to vigorously develop measures to integrate "curriculum ideology and politics" into professional courses. Analytical chemistry experiment, as a highly fundamental and academically important experimental course, contains very rich ideological and political elements. This article, by analyzing the current teaching situation of this course, deeply explores and integrates ideological and political elements in the pre-course, mid-course, and post-course stages, in order to achieve ideological and political goals such as cultivating students' scientific spirit of seeking truth from facts, a bold sense of innovation, and the sustainable development concept of "lucid waters and lush mountains are invaluable assets." While learning knowledge, it helps students establish correct worldviews, perspectives on life, and values, and cultivates more high-caliber and high-quality chemistry talents for the country.</t>
+          <t>&lt;Main&gt;Element View: Matter is composed of elements; elements can be classified into different categories, different elements have different properties, and elements of the same type have similar properties; the properties of matter are related to its elemental composition, and matter can be classified according to its elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification View: Selection of classification objects and perspectives (characteristics), classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of material properties, classification of material structures, classification of influencing variables in experimental investigations, classification of experimental principles, experimental equipment, experimental operations... Particle View: Matter is composed of microscopic particles;</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>为实现“立德树人”的教育目标，高校开始大力开展将“课程思政”融入专业课程的举措。分析化学实验作为一门高度基础且学术性重要的实验课程，蕴含着非常丰富的思政元素。本文通过分析该课程目前的教学现状，深入挖掘和融入课前、课中和课后环节的思政元素，旨在实现诸如培养学生实事求是的科学精神、勇于创新的胆识以及“绿水青山就是金山银山”的可持续发展理念等思政目标。在学习知识的同时，帮助学生树立正确的世界观、人生观和价值观，为国家培养更多高素质、高水平的化学人才。</t>
+          <t>&lt;主题&gt;元素观：物质由元素组成；元素可以分为不同类别，不同元素具有不同性质，同类元素具有相似性质；物质的性质与其元素组成有关，物质可以按照元素组成进行分类；化学反应前后元素种类保持不变...分类观：分类对象和视角（特征）的选择，元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理的分类，实验仪器、实验操作的分类...微粒观：物质由微观粒子组成；</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.7739373576288943</v>
+        <v>0.7325101263247498</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>0.8961038961038961</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04201619773779906</v>
+        <v>0.03375318893726088</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3697570339330143</v>
+        <v>0.3924425991293043</v>
       </c>
     </row>
     <row r="59">
@@ -2592,200 +2596,1374 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
+        <is>
+          <t>&lt;Elements View: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, similar elements have similar properties; the properties of matter are related to its elemental composition, and matter can be classified according to its elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification View: Select objects for classification and perspectives (characteristics) for classification, classification of elements, classification of substances, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of properties of matter, classification of structures of matter, classification of variables in experimental investigation, classification of experimental principles, experimental equipment, experimental operations... Particle View: Matter is composed of microscopic particles;&gt;</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>元素观：物质由元素组成；元素可分为不同类别，不同元素具有不同的性质，相似元素具有相似的性质；物质的性质与其元素组成有关，物质可按其元素组成进行分类；化学反应前后元素种类保持不变... 分类观：选择分类对象和分类角度（特征），元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究变量的分类，实验原理的分类，实验仪器的分类，实验操作的分类... 微粒观：物质由微观粒子组成；</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6813708831233667</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.7792207792207793</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.03575253359008941</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.3743306621734355</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>"Chemistry of Life" was founded in 1980 and is sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal in biology that is publicly distributed both domestically and internationally. It is a core Chinese scientific and technological journal that has been included in international and domestic databases such as Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Scientific and Technical Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net. In 2015, it was selected as a premium journal by the China Association for Science and Technology. It features sections including research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>《生命的化学》创立于1980年，由中国生物化学与分子生物学会主办，是一本国内外公开发行的生物学综合性学术期刊。它是被Chemical Abstracts (CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)和中国期刊网等国内外数据库收录的中文核心科技期刊。2015年，它被中国科学技术协会评选为精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法以及中药生化学等栏目。</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6924180424409746</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.04143968134792317</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.3576849391071911</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>"Chemistry of Life" was founded in 1980 and is a comprehensive academic journal in biology sponsored by the Chinese Society of Biochemistry and Molecular Biology, distributed publicly both domestically and internationally. It is a core Chinese scientific journal that has been indexed by international and domestic databases including American Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Scientific and Technical Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net. In 2015, it was selected as a premium journal by the China Association for Science and Technology. The journal features sections including research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>《生命的化学》创立于1980年，是中国生物化学与分子生物学会主办的生物学综合性学术期刊，面向国内外公开发行。该期刊是中国核心科技期刊，已被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等国内外数据库收录。2015年，该期刊被中国科学技术协会评选为精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法以及中药生物化学等栏目。</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.6259604796644526</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.03980118606840261</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.4029822089739611</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>&lt;Name&gt; Chemical Reagent Journal
+1. Free reading and downloading of "Chemical Reagent" electronic journal through WeChat official account, convenient and fast;
+2. Learn about chemical reagent industry information and hot reports, obtain popular science knowledge in the reagent field;
+3. Timely view of domestic chemical field conference information and content. "Chemical Reagent" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>&lt;Name&gt;化学试剂期刊
+1. 通过微信公众号免费阅读和下载《化学试剂》电子期刊，方便快捷；
+2. 了解化学试剂行业信息和热点报道，获取试剂领域科普知识；
+3. 及时查看国内化学领域会议信息和内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6211640273377456</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.06840941148865846</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.384315296602074</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>&lt;Title&gt; Name: Chemical Reagents Journal
+1. Free to read and download "Chemical Reagents" e-journal on WeChat official account, convenient and fast;
+2. Learn about chemical reagent industry information and hot topics, acquire popular science knowledge in the reagent field;
+3. Timely check domestic chemical field conference information and content.
+"Chemical Reagents" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>&lt;Title&gt; 名称：《化学试剂》期刊
+1. 在微信公众号上免费阅读和下载《化学试剂》电子期刊，方便快捷；
+2. 了解化学试剂行业信息和热点话题，获取试剂领域科普知识；
+3. 及时查看国内化学领域会议信息和内容。
+《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5299662230094143</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8589743589743589</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.05846947542325447</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.4737747211907098</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t># Objective
+This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, especially its application effectiveness in early tumor screening.
+# Methods
+1,246 serum samples from the physical examination center of Hospital A during March to June 2024 were selected to analyze the chemiluminescence detection results of tumor markers including AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, their sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. Data were statistically analyzed using SPSS 26.0 software, with methods such as chi-square test and t-test for intergroup comparisons.
+# Results
+The chemiluminescence detection results showed that CA-125 had the highest sensitivity (89.5%), followed by AFP and CA-199 with sensitivities of 80.3% and 85.7% respectively, while CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity performance of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P&lt;0.05).
+# Conclusion
+Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies across different tumor types. Clinicians should select appropriate markers for combined detection based on tumor type to improve the accuracy of early diagnosis.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t># 目标
+本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，尤其是其在早期肿瘤筛查中的应用效果。
+# 方法
+选取2024年3月至6月A医院体检中心的1,246份血清样本，分析肿瘤标志物AFP、CEA、CA-125和CA-199的化学发光检测结果。通过与临床诊断结果比较，评估其敏感性、特异性和预测值(PPV和NPV)。使用SPSS 26.0软件进行统计分析，采用卡方检验和t检验等方法进行组间比较。
+# 结果
+化学发光检测结果显示，CA-125具有最高的敏感性(89.5%)，其次是AFP和CA-199，敏感性分别为80.3%和85.7%，而CEA的敏感性最低(68.5%)。在特异性方面，CEA表现最佳(95.8%)，AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性表现存在显著差异(P&lt;0.05)。
+# 结论
+化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同肿瘤类型中的表现各异。临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.650894936583473</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.01596240653081778</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.4173721616251504</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t># Objective
+This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in clinical tumor marker detection, especially its application effectiveness in early tumor screening.
+# Methods
+1,246 serum samples from Hospital A's physical examination center during March to June 2024 were selected to analyze the chemiluminescence detection results of tumor markers including AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. Data were statistically analyzed using SPSS 26.0 software, with chi-square tests, t-tests and other methods for inter-group comparisons.
+# Results
+The chemiluminescence detection results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7% respectively, with CEA having the lowest sensitivity (68.5%). Regarding specificity, CEA performed best (95.8%), while AFP, CA-199, and CA-125 had specificities of 92.4%, 90.3%, and 88.2% respectively. There were significant differences in sensitivity performance of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P&lt;0.05).
+# Conclusion
+Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection, providing important support for early tumor diagnosis. Different markers perform differently across various tumor types; clinicians should select appropriate markers for combined testing based on tumor type to improve early diagnostic accuracy.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t># 目标
+本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用效果。
+# 方法
+选取2024年3月至6月期间A医院体检中心的1,246份血清样本，分析肿瘤标志物包括AFP、CEA、CA-125和CA-199的化学发光检测结果。通过与临床诊断结果比较，评估敏感性、特异性和预测值(PPV和NPV)。数据使用SPSS 26.0软件进行统计分析，采用卡方检验、t检验等方法进行组间比较。
+# 结果
+化学发光检测结果显示，CA-125敏感性最高(89.5%)，而AFP和CA-199的敏感性分别为80.3%和85.7%，CEA敏感性最低(68.5%)。在特异性方面，CEA表现最佳(95.8%)，而AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性表现存在显著差异(P&lt;0.05)。
+# 结论
+化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供重要支持。不同标志物在各种肿瘤类型中表现不同；临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断准确性。</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.6531620202566111</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.01619503360046616</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.400783756782752</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Objective
+This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, especially its application effectiveness in early tumor screening.
+Methods
+1,246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected to analyze the chemiluminescence detection results of tumor markers including AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. SPSS 26.0 software was used for statistical analysis, with chi-square test, t-test and other methods for intergroup comparisons.
+Results
+The chemiluminescence detection results showed that CA-125 had the highest sensitivity (89.5%), while the sensitivity of AFP and CA-199 was 80.3% and 85.7% respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), while the specificity of AFP, CA-199, and CA-125 was 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity performance of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt;0.05).
+Conclusion
+Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. Different markers show varying performance across different tumor types. Clinicians should select appropriate markers for combined detection according to tumor type to improve the accuracy of early diagnosis.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>目标
+本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，尤其是其在早期肿瘤筛查中的应用效果。
+方法
+选取2024年3月至6月A医院体检中心的1,246份血清样本，分析包括AFP、CEA、CA-125和CA-199在内的肿瘤标志物的化学发光检测结果。通过与临床诊断结果比较，评估其敏感性、特异性和预测值(PPV和NPV)。使用SPSS 26.0软件进行统计分析，采用卡方检验、t检验等方法进行组间比较。
+结果
+化学发光检测结果显示，CA-125具有最高的敏感性(89.5%)，而AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低(68.5%)。在特异性方面，CEA表现最佳(95.8%)，而AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。在肝癌、卵巢癌、胃癌和结直肠癌中，不同肿瘤标志物的敏感性表现存在显著差异(P&lt;0.05)。
+结论
+化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供重要支持。不同标志物在不同肿瘤类型中表现各异。临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.664424453203371</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.01610500748442579</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3960622193340329</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学产品在工业设计领域具有十分广泛的应用,涵盖了从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计提供了可能,有效改善了产品的物理强度、耐久性、可塑性、透明度等特性,从而满足不同场景的应用需求。因此,深入研究化学产品的特性、应用和创新有助于拓宽工业设计领域的发展空间并满足不断变化的市场需求,为工业领域的发展注入新的活力。</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>&lt;Title&gt; Chemical products have a very wide range of applications in the field of industrial design, covering various aspects from material selection to product manufacturing. The application of chemical products enables the optimized design of adhesives, coatings, plastics, rubber, cellulosic materials, and surface treatment agents, effectively improving the physical strength, durability, plasticity, transparency, and other characteristics of products to meet the application requirements of different scenarios. Therefore, in-depth research on the characteristics, applications, and innovations of chemical products helps to expand the development space of industrial design and meet the ever-changing market demands, injecting new vitality into the development of the industrial field.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>&lt;标题&gt; 化学产品在工业设计领域有着非常广泛的应用范围，涵盖了从材料选择到产品制造的各个方面。化学产品的应用使得粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计成为可能，有效提高了产品的物理强度、耐久性、可塑性、透明度等特性，以满足不同场景的应用需求。因此，深入研究化学产品的特性、应用和创新有助于拓展工业设计的发展空间，满足不断变化的市场需求，为工业领域的发展注入新的活力。</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.7908745952947442</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.04823867572265036</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.4211358913281958</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学产品在工业设计领域具有十分广泛的应用,涵盖了从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计提供了可能,有效改善了产品的物理强度、耐久性、可塑性、透明度等特性,从而满足不同场景的应用需求。因此,深入研究化学产品的特性、应用和创新有助于拓宽工业设计领域的发展空间并满足不断变化的市场需求,为工业领域的发展注入新的活力。</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>&lt;Article&gt; Chemical products have a wide range of applications in the field of industrial design, covering various aspects from material selection to product manufacturing. The application of chemical products enables the optimized design of adhesives, coatings, plastics, rubber, cellulose materials, and surface treatment agents, effectively improving product characteristics such as physical strength, durability, plasticity, and transparency, thereby meeting application requirements in different scenarios. Therefore, in-depth research on the characteristics, applications, and innovations of chemical products helps to expand the development space in the field of industrial design and meet constantly changing market demands, injecting new vitality into the development of the industrial sector.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>&lt;Article&gt; 化学产品在工业设计领域有着广泛的应用，涵盖了从材料选择到产品制造的各个方面。化学产品的应用使得粘合剂、涂料、塑料、橡胶、纤维素材料以及表面处理剂等设计得到优化，有效提高产品的物理强度、耐久性、可塑性和透明度等特性，从而满足不同场景的应用需求。因此，深入研究化学产品的特性、应用和创新，有助于拓展工业设计领域的发展空间，满足不断变化的市场需求，为工业领域的发展注入新的活力。</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.7528637258301598</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.05087834853176271</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3640206433529664</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>"Chemistry of Life" was established in 1980 and is an academic journal in the field of biological sciences, sponsored by the Chinese Society of Biochemistry and Molecular Biology, and publicly distributed both domestically and internationally. It is a core journal of Chinese science and technology and has been included in databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>《生命的化学》创刊于1980年，是中国生物化学与分子生物学会主办的生物科学类学术期刊，国内外公开发行，是中国科技核心期刊，并被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等收录。2015年被中国科协评为精品期刊。该刊设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.6724705768590268</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.03783812115063663</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.4513472433157689</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>"Chemistry of Life" was established in 1980 and is a comprehensive academic journal in the field of biology, sponsored by the Chinese Society of Biochemistry and Molecular Biology, and publicly distributed both domestically and internationally. It is a core journal of Chinese science and technology and has been included in various domestic and international databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry in traditional Chinese medicine.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>《生命的化学》创刊于1980年，是由中国生物化学与分子生物学会主办的生物学领域综合性学术期刊，国内外公开发行，是中国科技核心期刊，并被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外多个数据库收录。2015年入选中国科协精品期刊。该刊设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.705771356423006</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.03549267054177634</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.5031026124151314</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>"Chemistry of Life" was established in 1980 and is an academic journal in the field of biological sciences, publicly distributed both domestically and internationally, sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a core journal of Chinese science and technology and has been included in various domestic and international databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>《生命的化学》创刊于1980年，是中国生物科学领域的学术期刊，国内外公开发行，由中国生物化学与分子生物学会主办。该刊是中国科技核心期刊，被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外多种数据库收录。2015年入选中国科协精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法、中药生物化学等栏目。</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.693827485104605</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.8686868686868687</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.03543835415856143</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.4861438647008596</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>&lt;Positive&gt; Name: Chemical Reagents Journal  
+1. Free access to read and download the electronic version of "Chemical Reagents" on the WeChat official account, convenient and fast;  
+2. Stay updated on industry news and hot topics in the chemical reagents field, and gain popular science knowledge about reagents;  
+3. Timely access to domestic chemical conference information and content.  
+"Chemical Reagents" journal is your window to understanding the reagents industry and a platform for mastering knowledge!</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>&lt;正面&gt; 名称：化学试剂期刊  
+1. 免费在微信公众号上阅读和下载《化学试剂》电子版，方便快捷；  
+2. 及时了解行业动态和化学试剂领域的热点话题，获取试剂科普知识；  
+3. 第一时间获取国内化学会议信息及内容。  
+《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.4428074427700476</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.06668283457073523</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3665130715780152</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>人教版《义务教育教科书化学九年级上册》为落实《义务教育化学课程标准(2022年版)》要求,完善课题结构,更新教材内容,改进呈现方式,聚焦核心素养培育,发挥课程育人功能。介绍了教材各单元在以上方面的具体做法,并提出相关教学建议。</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The People's Education Press "Compulsory Education Textbook Chemistry Grade 9 Volume 1" aims to implement the requirements of the "Compulsory Education Chemistry Curriculum Standards (2022 Edition)," improve the topic structure, update the textbook content, enhance the presentation methods, focus on cultivating core competencies, and leverage the educational function of the curriculum. It introduces specific practices of each unit in the textbook regarding the above aspects and provides relevant teaching suggestions.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>人民教育出版社《义务教育教科书 化学 九年级 上册》旨在落实《义务教育化学课程标准（2022年版）》要求，完善课题结构，更新教材内容，改进呈现方式，注重核心素养培养，发挥课程育人功能，介绍教材各单元在上述方面的具体做法并提供相关教学建议。</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.5697281491504753</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.06308391994464982</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.3376188405811771</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>人教版《义务教育教科书化学九年级上册》为落实《义务教育化学课程标准(2022年版)》要求,完善课题结构,更新教材内容,改进呈现方式,聚焦核心素养培育,发挥课程育人功能。介绍了教材各单元在以上方面的具体做法,并提出相关教学建议。</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>The People's Education Press edition of "Compulsory Education Textbook Chemistry Grade 9 Volume 1" aims to implement the requirements of the "Compulsory Education Chemistry Curriculum Standards (2022 Edition)," improve the topic structure, update the textbook content, enhance the presentation methods, focus on cultivating core competencies, and leverage the educational function of the curriculum. It details the specific approaches taken by each unit of the textbook in these aspects and provides relevant teaching suggestions.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>人民教育出版社版《义务教育教科书化学九年级上册》旨在落实《义务教育化学课程标准（2022年版）》要求，完善课题结构，更新教材内容，改进呈现方式，注重核心素养培养，发挥课程育人功能。详细阐述了教材各单元在这些方面的具体做法，并提供了相关教学建议。</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6071767407189163</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.8875</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0613876814214067</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.44751086720734</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above designated size nationwide was 75.1%, a decrease of 0.5 percentage points compared to the same period last year, but an increase of 0.2 percentage points from the second quarter. By major categories, the capacity utilization rate for mining was 74.6%; for manufacturing, it was 75.2%; and for the production and supply of electricity, heat, gas, and water, it was 74.3%. By key industries, the capacity utilization rate for coal mining and washing was 72.7%, for food manufacturing it was 70.7%, for the textile industry it was 77.9%, for non-metallic mineral products it was 61.7%, for ferrous metal smelting and rolling processing it was 77.4%, for non-ferrous metal smelting and rolling processing it was 78.4%, for general equipment manufacturing it was 78.7%, for special equipment manufacturing it was 75.8%, for automobile manufacturing it was 73.2%, and for electrical machinery and equipment manufacturing it was 75.6%.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，比上年同期下降0.5个百分点，比二季度上升0.2个百分点。分三大门类看，采矿业产能利用率为74.6%；制造业产能利用率为75.2%；电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.713330723323117</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.02731503225680207</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.6585620967899739</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above the designated size nationwide was 75.1%, a decrease of 0.5 percentage points compared to the same period last year, but an increase of 0.2 percentage points from the second quarter. By major sectors, the capacity utilization rate in the mining industry was 74.6%; in the manufacturing sector, it was 75.2%; and in the production and supply of electricity, heat, gas, and water, it was 74.3%. By key industries, the capacity utilization rate in coal mining and washing was 72.7%, in food manufacturing 70.7%, in the textile industry 77.9%, in non-metallic mineral products 61.7%, in ferrous metal smelting and rolling 77.4%, in non-ferrous metal smelting and rolling 78.4%, in general equipment manufacturing 78.7%, in special equipment manufacturing 75.8%, in automobile manufacturing 73.2%, and in electrical machinery and equipment manufacturing 75.6%.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，同比下降0.5个百分点，但环比第二季度上升0.2个百分点。分三大门类看，采矿业产能利用率为74.6%；制造业为75.2%；电力、热力、燃气及水生产和供应业为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.6236535256554326</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9313725490196079</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.03630224706673</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.4736174175324145</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above designated size nationwide was 75.1%, a decrease of 0.5 percentage points from the same period last year and an increase of 0.2 percentage points from the second quarter. By major categories, the capacity utilization rate in the mining industry was 74.6%; in the manufacturing industry, it was 75.2%; and in the production and supply of electricity, heat, gas, and water, it was 74.3%. By major sectors, the capacity utilization rate in coal mining and washing was 72.7%, in food manufacturing it was 70.7%, in the textile industry it was 77.9%, in non-metallic mineral products it was 61.7%, in ferrous metal smelting and rolling processing it was 77.4%, in non-ferrous metal smelting and rolling processing it was 78.4%, in general equipment manufacturing it was 78.7%, in special equipment manufacturing it was 75.8%, in automobile manufacturing it was 73.2%, and in electrical machinery and equipment manufacturing it was 75.6%.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，比上年同期下降0.5个百分点，比二季度上升0.2个百分点。分大类看，采矿业产能利用率为74.6%；制造业产能利用率为75.2%；电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6946915278533565</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9313725490196079</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.03014937682370795</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.6080581012917967</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>"Chemical Engineering and Equipment" is an academic journal in the field of chemical engineering approved for publication by the National Press and Publication Administration and publicly distributed. It has been included in the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Group Co., Ltd. and sponsored by the Fujian Institute of Chemical Industry Science and Technology. It was established in 1972, is published monthly, and is released on the 25th of each month.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>《化学工程与装备》是国家新闻出版总署批准公开发行的化工类学术期刊，已被中国学术期刊综合评价数据库（CAJCED）、中国期刊全文数据库（CJFD）收录。本刊由福建石油化工集团有限责任公司主管，福建省化工科学技术研究所主办，创刊于1972年，月刊，每月25日出版。</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.6344227351197625</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9222222222222223</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.06182431831262534</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.4744932943426848</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>"Chemical Engineering and Equipment" is a publicly available academic journal in the field of chemical engineering, approved for publication by the National Press and Publication Administration. It has been included in the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Group Co., Ltd. and sponsored by the Fujian Institute of Chemical Industry Science and Technology. It was established in 1972, is published monthly, and is released on the 25th of each month.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>《化学工程与装备》是经国家新闻出版总署批准公开发行的化学工程类学术期刊，已被中国学术期刊综合评价数据库（CAJCED）、中国期刊全文数据库（CJFD）收录。该刊由福建省石油化工集团有限责任公司主管，福建省化工科学技术研究所主办，创刊于1972年，月刊，每月25日出版。</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5511756994656354</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.06750637787452177</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.3924425991293043</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>The School of Chemistry and Chemical Engineering at Southeast University traces its origins to one of the key departments of the former Central University. The Department of Chemistry was first established in 1920, followed by the Department of Chemical Engineering in 1928. The Department of Chemistry and Chemical Engineering was re-established in 1988, and the School of Chemistry and Chemical Engineering was formally established in 2006. The school currently offers doctoral programs in "Chemical Engineering and Technology" and "Chemistry," as well as master's programs in "Chemistry" and "Chemical Engineering and Technology." Additionally, it has secondary doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are recognized as key disciplines in Jiangsu Province. The school also hosts a postdoctoral research station in "Chemical Engineering and Technology." The school comprises three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Chemical Biology and Pharmaceutical Engineering. It has established research institutes for Fine Chemical Engineering and Pharmaceutical Engineering. The school is home to several key laboratories, including the Jiangsu Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Key Laboratory of High-Tech Research for Biopharmaceuticals, the Jiangsu Engineering Laboratory for Optoelectronic Functional Materials, and the Jiangsu Engineering Laboratory for Carbon-Rich Materials and Devices. The school also operates a teaching experiment center and shares university-level analytical testing center resources within the building, providing excellent experimental conditions for teaching and research. The school currently has 136 faculty and staff members (including full-time postdoctoral researchers and dedicated research personnel), with 103 full-time faculty members, 98% of whom hold doctoral degrees.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>东南大学化学化工学院起源于原中央大学重要的院系之一。1920年，化学系成立；1928年，化工系成立。1988年，化学化工系重新建立；2006年，化学化工学院正式成立。学院现拥有“化学工程与技术”一级学科博士点和“化学”一级学科博士点，以及“化学”和“化学工程与技术”两个一级学科硕士点，另有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”为江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院下设化学系、化工系、化学生物与制药工程系三个系，设有精细化工研究所和制药工程研究所。学院拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等多个重点实验室。学院设有教学实验中心，并共享校级分析测试中心资源，为教学科研提供了良好的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，98%具有博士学位。</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.7253707953162123</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.8592592592592593</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.02073212555373681</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.3365719822804217</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>The School of Chemistry and Chemical Engineering at Southeast University traces its origins to one of the key departments of the former Central University. The Department of Chemistry was first established in 1920, followed by the Department of Chemical Engineering in 1928. The Department of Chemistry and Chemical Engineering was reinstated in 1988, and the School of Chemistry and Chemical Engineering was formally established in 2006. The school currently offers doctoral programs in "Chemical Engineering and Technology" and "Chemistry," as well as master's programs in "Chemistry" and "Chemical Engineering and Technology." Additionally, it has secondary doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are recognized as key disciplines in Jiangsu Province. The school also hosts a postdoctoral research station in "Chemical Engineering and Technology." The school comprises three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Chemical Biology and Pharmaceutical Engineering. It has established research institutes for fine chemicals and pharmaceutical engineering, and houses key laboratories such as the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High-Tech Research in Biopharmaceuticals, the Jiangsu Provincial Engineering Laboratory for Optoelectronic Functional Materials, and the Jiangsu Provincial Engineering Laboratory for Carbon-Rich Materials and Devices. The school operates a teaching and experimental center and shares university-level analytical testing equipment resources, providing excellent experimental conditions for teaching and research. The school currently has 136 faculty and staff members (including full-time postdoctoral researchers and dedicated research personnel), of whom 103 are full-time faculty, with 98% holding advanced degrees.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>东南大学化学化工学院起源于原中央大学重要的院系之一，最早于1920年成立化学系，1928年成立化学工程系，1988年恢复化学化工系，2006年正式成立化学化工学院。学院现拥有“化学工程与技术”一级学科博士点和“化学”一级学科博士点，以及“化学”和“化学工程与技术”两个一级学科硕士点，另有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”为江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院下设三个系：化学系、化学工程系、化学生物与制药工程系；建有精细化工研究所和制药工程研究所；拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等科研基地。学院设有教学实验中心，共享校级分析测试中心的大型仪器设备资源，为教学科研提供了良好的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，具有高级职称的教师占专任教师比例98%。</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.7595545253127499</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.02150169768303846</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.354949069508846</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected to analyze the results of CLIA for tumor markers such as AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. Significant differences (P &lt; 0.05) were observed in the sensitivity of different tumor markers for liver cancer, ovarian cancer, gastric cancer, and colorectal cancer. Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for the early diagnosis of tumors. The performance of different markers varies across tumor types, and clinical practice should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在肿瘤早期筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，分析CLIA对AFP、CEA、CA-125和CA-199等肿瘤标志物的检测结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物对肝癌、卵巢癌、胃癌和结直肠癌的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为肿瘤的早期诊断提供了重要支持。不同标志物在肿瘤类型中的表现存在差异，临床实践中应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.7645937175535713</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.01490425732695388</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.5007073795470449</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the health examination center of Hospital A between March and June 2024 were selected to analyze the results of tumor markers such as AFP, CEA, CA-125, and CA-199 using CLIA. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. Significant differences in sensitivity were observed among different tumor markers for liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt; 0.05). Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. The performance of different markers varies across tumor types, and clinicians should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，采用CLIA分析AFP、CEA、CA-125和CA-199等肿瘤标志物的结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在肿瘤类型中的表现各异，临床医生应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.7628553098891114</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.01454335612096523</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.5200692480081476</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected to analyze the CLIA results of tumor markers such as AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. There were significant differences in the sensitivity of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt; 0.05). Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. The performance of different markers varies across tumor types, and clinical practice should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，分析AFP、CEA、CA-125和CA-199等肿瘤标志物的CLIA检测结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA检测结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，而CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在肿瘤类型中的表现各异，临床实践中应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7629002631653615</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.01415601153895482</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.5399296249839686</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>On September 21st, the "Future of Chemistry: 2024 Youth Forum of Acta Chimica Sinica" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was hosted by the School of Chemistry and Environment of Yunnan Minzu University, the Key Laboratory of Chiral Functional Substance Research and Utilization of Yunnan Province, the National-Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences. The Yunnan Chemical and Chemical Industry Association provided support for the event. Nearly 180 experts and scholars from 87 universities and research institutions across the country attended the conference. Academician Tang Yong from the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry of the Chinese Academy of Sciences, and Ruan Chaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9月21日，“化学的未来：2024年《化学学报》青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所联合编辑部承办，云南省化工行业协会协办。来自全国87所高校和科研院所的近180名专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8168465724954004</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.04773585778428791</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.4033017776964011</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>On September 21, the "Future of Chemistry: 2024 Youth Forum of Acta Chimica Sinica" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was hosted by the School of Chemistry and Environment of Yunnan Minzu University, the Key Laboratory of Chiral Functional Substance Research and Utilization of Yunnan Province, the National-Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences. The Yunnan Chemical and Chemical Industry Association provided support. Nearly 180 experts and scholars from 87 universities and research institutions across the country attended the meeting. Academician Tang Yong from the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry, Chinese Academy of Sciences, and Ruan Zhaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>9月21日，“化学的未来：2024年《化学学报》青年论坛”在云南民族大学雨花校区召开。本次论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所联合编辑部承办，云南省化工行业协会协办。来自全国87所高校和科研院所的近180位专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.8248520790911256</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.05005967149680286</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.349224270541563</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>“天然药物化学”是高等学校药学及相关专业的必修课程。课程章节内容多、理论性强,学生学习面临较多难题。因此,基于超星学习通,建立线上和线下深度融合的天然药物化学混合教学模式,通过任务驱动、线上自主学习、小组讨论、课后巩固、延伸拓展知识等方式,全面激发学生的积极性和主动性,提升教学效果。</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>"Natural Medicinal Chemistry" is a required course for pharmacy and related majors in higher education institutions. The content of course chapters is extensive and highly theoretical, and students face many difficulties in learning. Therefore, based on the Chaoxing Learning Platform, a deeply blended online and offline blended teaching mode of Natural Medicinal Chemistry was established. Through task-driven approaches, online self-directed learning, group discussions, post-class reinforcement, knowledge extension and expansion, and other methods, it comprehensively stimulates students' initiative and enthusiasm and enhances teaching effectiveness.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>“天然药物化学”是高等院校药学及相关专业的一门必修课程。课程章节内容广泛且高度理论化，学生在学习中面临诸多困难。因此，基于超星学习平台，构建了“天然药物化学”深度融合线上线下的混合式教学模式。通过任务驱动、线上自主学习、小组讨论、课后巩固、知识拓展延伸等多种方法，全面激发学生的积极性和主动性，提升教学效果。</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.5641352711653373</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.945054945054945</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.05576238733756375</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.3866137392867989</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>为实现“立德树人”的教育目标，各高校开始大力发展将“课程思政”融入专业课程的举措。分析化学实验作为一门基础性极强、学科地位较高的实验课程，蕴含着非常丰富的思政元素。本文通过分析该课程目前的教学现状，在课程的前中后期深入挖掘和糅合思政元素，以达到培养学生实事求是的科学精神、大胆创新的意识以及“绿水青山就是金山银山”的可持续发展理念等思政目标，在学习知识的同时，帮助学生树立正确的世界观、人生观、价值观，为国家培养更多的高素质、高质量的化学人才。</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>To achieve the educational goal of "cultivating virtue and nurturing talent," universities have begun to vigorously develop measures to integrate "curriculum ideology and politics" into professional courses. Analytical chemistry experiment, as a highly fundamental and academically important experimental course, contains very rich ideological and political elements. This article, by analyzing the current teaching situation of this course, deeply explores and integrates ideological and political elements in the pre-course, mid-course, and post-course stages, in order to achieve ideological and political goals such as cultivating students' scientific spirit of seeking truth from facts, a bold sense of innovation, and the sustainable development concept of "lucid waters and lush mountains are invaluable assets." While learning knowledge, it helps students establish correct worldviews, perspectives on life, and values, and cultivates more high-caliber and high-quality chemistry talents for the country.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>为实现“立德树人”的教育目标，高校开始大力开展将“课程思政”融入专业课程的举措。分析化学实验作为一门高度基础且学术性重要的实验课程，蕴含着非常丰富的思政元素。本文通过分析该课程目前的教学现状，深入挖掘和融入课前、课中和课后环节的思政元素，旨在实现诸如培养学生实事求是的科学精神、勇于创新的胆识以及“绿水青山就是金山银山”的可持续发展理念等思政目标。在学习知识的同时，帮助学生树立正确的世界观、人生观和价值观，为国家培养更多高素质、高水平的化学人才。</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.7739373576288943</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.04201619773779906</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.3697570339330143</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>Core Elemental Perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions...
 Classification Perspective: Select the object of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations...
 Particulate Perspective: Matter is composed of microscopic particles;</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>核心要素观：物质是由元素组成的；元素可以分为不同的类别，不同的元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，物质可以根据元素组成进行分类；化学反应前后，元素的种类不变……
 分类观：选择分类的对象和分类的视角（特征），元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理的分类，实验仪器和实验操作……
 微粒观：物质是由微观粒子组成的；</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F89" t="n">
         <v>0.8119166932693763</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G89" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H89" t="n">
         <v>0.03287126289274955</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I89" t="n">
         <v>0.4576241622696328</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B90" t="n">
         <v>3</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Element Perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same kind have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after a chemical reaction... Classification Perspective: Select the object of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particle Perspective: Matter is composed of microscopic particles;</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>元素观：物质是由元素组成的；元素可以分为不同类别，不同元素性质不同，同种元素性质相似；物质的性质与元素组成有关，物质可以根据元素组成进行分类；化学反应前后元素种类不变……
 分类观：选择分类对象和分类角度（特征），元素的分类、物质的分类、变化的分类、化学反应的分类、化学反应条件的分类、物质性质的分类、物质结构的分类、实验探究中影响变量的分类、实验原理的分类、实验仪器和实验操作的分类……
 粒子观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F90" t="n">
         <v>0.6777882718387883</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G90" t="n">
         <v>0.8441558441558441</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H90" t="n">
         <v>0.03469873261889771</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I90" t="n">
         <v>0.427470911788188</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>Life's Chemistry, founded in 1980, is a comprehensive biology academic journal sponsored by the Chinese Society of Biochemistry and Molecular Biology and publicly distributed both domestically and internationally. It is a Chinese core science and technology journal, and has been indexed by international and domestic databases such as Chemical Abstracts (CA) of the United States, Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China National Knowledge Infrastructure (CNKI). In 2015, it was selected as a China Association for Science and Technology (CAST) Excellent Journal. It features sections including research papers, reviews, teaching, research frontiers, techniques and methods, and Traditional Chinese Medicine Biochemistry.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>《生命化学》创刊于1980年，是一本综合性生物学学术期刊，由中国生物化学与分子生物学会主办，国内外公开发行。它是中国科技核心期刊，并被国内外数据库收录，如美国《化学文摘》(CA)、日本科学技术振兴机构数据库 (JST)、中国科学技术论文与引文数据库 (CSTPCD)、中国生物学文摘数据库 (CBA) 和中国知网 (CNKI)。2015年，入选为中国科学技术协会 (CAST) 优秀科技期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F91" t="n">
         <v>0.6001032968932506</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G91" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H91" t="n">
         <v>0.03605324112779008</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I91" t="n">
         <v>0.3330150391358835</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B92" t="n">
         <v>2</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>《生命的化学》was founded in 1980, sponsored by the Chinese Society of Biochemistry and Molecular Biology, and is a comprehensive academic journal of biology openly published both domestically and internationally. It is a Chinese Science and Technology Core Journal, and has been indexed by domestic and international databases such as Chemical Abstracts (CA, USA), Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China National Knowledge Infrastructure (CNKI). In 2015, it was selected as a High-Quality Journal of CAST. It features columns such as Research Papers, Reviews, Teaching, Research Frontiers, Techniques and Methods, and Biochemistry of Traditional Chinese Medicine, etc.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于一九八〇年，由中国生物化学与分子生物学会主办，并是一本国内外公开发行的综合性生物学学术期刊。是中国科技核心期刊，并被国内外数据库收录，如《化学文摘》(CA，美国)、日本科学技术振兴机构数据库 (JST)、中国科学技术论文与引文数据库 (CSTPCD)、中国生物学文摘数据库 (CBA) 和中国知网 (CNKI) 等。二〇一五年入选中国科协高质量科技期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F92" t="n">
         <v>0.602292058852363</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G92" t="n">
         <v>0.8282828282828283</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H92" t="n">
         <v>0.03830162371175062</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I92" t="n">
         <v>0.368023208756115</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B93" t="n">
         <v>3</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was founded in 1980. It is sponsored by the Chinese Society of Biochemistry and Molecular Biology and is a comprehensive biological academic journal openly published both domestically and internationally. It is a Chinese core science and technology journal, and has been indexed by databases both domestically and internationally such as Chemical Abstracts (CA) of the United States, Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China National Knowledge Infrastructure (CNKI). In 2015, it was selected as a China Association for Science and Technology (CAST) Excellent Journal. It features columns such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年。它由中国生物化学与分子生物学会主办，是一本国内外公开发行的综合性生物学学术期刊。它是中国科技核心期刊，并被国内外数据库收录，如美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科学技术论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国知网（CNKI）。2015年，它被评为中国科学技术协会（CAST）优秀期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F93" t="n">
         <v>0.5735943642964283</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G93" t="n">
         <v>0.8484848484848485</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H93" t="n">
         <v>0.035912808933179</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I93" t="n">
         <v>0.3894822481359571</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>Name: Chemical Reagent Journal
 1.  You can freely read and download the electronic journal "Chemical Reagent" on the WeChat official account, which is convenient and fast;
@@ -2794,7 +3972,7 @@
 "Chemical Reagent" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>化学试剂期刊
 1. 您可以在微信公众号上免费阅读和下载电子期刊《化学试剂》，方便快捷；
@@ -2803,34 +3981,34 @@
 《化学试剂》期刊是您了解试剂行业的窗口，更是您掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F94" t="n">
         <v>0.5362778990061087</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G94" t="n">
         <v>0.8589743589743589</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H94" t="n">
         <v>0.07566699233714512</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I94" t="n">
         <v>0.3568305651342666</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B95" t="n">
         <v>2</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Name: Chemical Reagent Journal
 1. You can freely read and download the e-journal of "Chemical Reagent" on the WeChat official account, conveniently and quickly.
@@ -2839,7 +4017,7 @@
 "Chemical Reagent" Journal is your window to understand the reagent industry and a platform to master knowledge!</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>化学试剂期刊
 1. 您可以在微信公众号方便快捷地免费阅读和下载《化学试剂》电子期刊。
@@ -2848,34 +4026,34 @@
 《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F95" t="n">
         <v>0.5589565568382148</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G95" t="n">
         <v>0.8461538461538461</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H95" t="n">
         <v>0.07875339793736785</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I95" t="n">
         <v>0.2912194185636897</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B96" t="n">
         <v>3</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>Name: Chemical Reagents Journal
 1.  You can read and download the electronic journal "Chemical Reagents" for free on the WeChat official account, conveniently and quickly;
@@ -2884,7 +4062,7 @@
 "Chemical Reagents" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>名称：化学试剂期刊
 1. 您可以在微信公众号上免费便捷地阅读和下载《化学试剂》电子期刊；
@@ -2893,145 +4071,145 @@
 《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="F96" t="n">
         <v>0.5315284776213994</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G96" t="n">
         <v>0.8205128205128205</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H96" t="n">
         <v>0.07359790660209146</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I96" t="n">
         <v>0.3376188405811771</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B97" t="n">
         <v>2</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, the national capacity utilization rate of industrial enterprises above a designated size was 75.1%, a decrease of 0.5 percentage points compared with the same period last year, and an increase of 0.2 percentage points compared with the second quarter.  Looking at the three major categories, in the third quarter of 2024, the capacity utilization rate of the mining industry was 74.6%; the manufacturing industry was 75.2%; and the production and supply of electricity, heat, gas and water was 74.3%. Looking at major industries, in the third quarter of 2024, the capacity utilization rate of coal mining and washing industry was 72.7%, food manufacturing was 70.7%, textile industry was 77.9%, non-metallic mineral products industry was 61.7%, ferrous metal smelting and rolling processing industry was 77.4%, non-ferrous metal smelting and rolling processing industry was 78.4%, general equipment manufacturing was 78.7%, special equipment manufacturing was 75.8%, automobile manufacturing was 73.2%, and electrical machinery and equipment manufacturing was 75.6%.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，比上年同期下降0.5个百分点，比上季度上升0.2个百分点。分三大门类看，2024年第三季度，采矿业产能利用率为74.6%；制造业为75.2%；电力、热力、燃气及水生产和供应业为74.3%。分主要行业看，2024年第三季度，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="F97" t="n">
         <v>0.6702841884934208</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G97" t="n">
         <v>0.9313725490196079</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H97" t="n">
         <v>0.04199326111784332</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I97" t="n">
         <v>0.4120943443501935</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B98" t="n">
         <v>2</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>&lt;正&gt;The predecessor of the School of Chemistry and Chemical Engineering of Southeast University was one of the important departments of the former National Central University. The Department of Chemistry was first established in 1920, the Department of Chemical Engineering was established in 1928, the Department of Chemistry and Chemical Engineering was re-established in 1988, and the School of Chemistry and Chemical Engineering was established in 2006. The school currently has doctoral programs in the first-level disciplines of "Chemical Engineering and Technology" and "Chemistry," master's programs in the first-level disciplines of "Chemistry" and "Chemical Engineering and Technology," and also doctoral and master's programs in the second-level discipline of "Materials Physics and Chemistry." Among them, "Applied Chemistry" and "New Materials" are advantageous disciplines in Jiangsu Province, and a postdoctoral research station for "Chemical Engineering and Technology" is established. The school currently has three departments: Department of Chemistry, Department of Chemical Engineering, and Department of Chemical Biology and Pharmaceutical Engineering. It has successively established the Institute of Fine Chemical Engineering and the Institute of Pharmaceutical Engineering. It has the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High-Tech Research for Bio-pharmaceuticals, the Jiangsu Provincial Engineering Laboratory for Photoelectric Functional Materials, and the Jiangsu Provincial Engineering Laboratory for Rich-Carbon Materials and Devices, etc. The school has a teaching experimental center and shares equipment resources of the university-level Analysis and Testing Center in the same building, providing excellent experimental conditions for teaching and research. The school currently has 136 faculty and staff members (including full-time postdoctoral fellows and full-time researchers), of whom 103 are full-time teachers, and 98%</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院的前身是原国立中央大学的重要系科之一。化学系始建于1920年，化学工程系始建于1928年，化学与化学工程系于1988年重建，化学化工学院于2006年成立。学院现有“化学工程与技术”和“化学”一级学科博士学位授权点、“化学”和“化学工程与技术”一级学科硕士学位授权点，以及“材料物理与化学”二级学科博士和硕士学位授权点。其中“应用化学”和“新材料”为江苏省优势学科，并设有“化学工程与技术”博士后科研流动站。学院现有化学系、化学工程系、化学生物与制药工程系三个系。先后成立了精细化工研究所和制药工程研究所。拥有江苏省分子铁电科学与应用重点实验室、江苏省生物医药高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并在同一楼宇内共享校级分析测试中心的设备资源，为教学和科研提供了优良的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，98%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F68" t="n">
+      <c r="F98" t="n">
         <v>0.6997614855970284</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G98" t="n">
         <v>0.9407407407407408</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H98" t="n">
         <v>0.02238014949544435</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I98" t="n">
         <v>0.3509756646321138</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B99" t="n">
         <v>3</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>&lt;正&gt;The predecessor of the School of Chemistry and Chemical Engineering of Southeast University was one of the important departments of the former National Central University. The Department of Chemistry was established as early as 1920, the Department of Chemical Engineering was established in 1928, the Department of Chemistry and Chemical Engineering was re-established in 1988, and the School of Chemistry and Chemical Engineering was established in 2006. The School currently has doctoral programs in first-level disciplines of "Chemical Engineering and Technology" and "Chemistry," master's programs in first-level disciplines of "Chemistry" and "Chemical Engineering and Technology," and also doctoral and master's programs in the second-level discipline of "Materials Physics and Chemistry." Among them, "Applied Chemistry" and "New Materials" are advantageous disciplines in Jiangsu Province, and a postdoctoral research station for "Chemical Engineering and Technology" is established. The School currently has three departments: Department of Chemistry, Department of Chemical Engineering, and Department of Chemical Biology and Pharmaceutical Engineering. It has successively established the Institute of Fine Chemical Engineering and the Institute of Pharmaceutical Engineering. It also has the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High-Tech Research on Biopharmaceuticals, the Jiangsu Provincial Engineering Laboratory of Photoelectric Functional Materials, and the Jiangsu Provincial Engineering Laboratory of Rich-Carbon Materials and Devices, etc. The School has a teaching experimental center and shares equipment resources of the university-level Analysis and Testing Center in the same building, providing excellent experimental conditions for teaching and research. The School currently has 136 faculty and staff members (including full-time postdoctoral fellows and full-time researchers), of which 103 are full-time teachers, 98%</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>东南大学化学化工学院的前身是原国立中央大学的重要系科之一。化学系早在1920年建立，化学工程系于1928年建立，化学与化学工程系于1988年重建，化学化工学院于2006年建立。学院现有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，以及“材料物理与化学”二级学科博士和硕士点。其中，“应用化学”和“新型材料”为江苏省优势学科，并设有“化学工程与技术”博士后科研流动站。学院现设化学系、化学工程系、化学生物与制药工程系三个系。先后成立了精细化工研究所和制药工程研究所。还拥有江苏省分子铁电科学与应用重点实验室、江苏省生物医药高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并与校级分析测试中心在同一楼内共享仪器设备资源，为教学和科研提供优良的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，98%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="F99" t="n">
         <v>0.6917330580909907</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G99" t="n">
         <v>0.9185185185185185</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H99" t="n">
         <v>0.02238014949544435</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I99" t="n">
         <v>0.3509756646321138</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="inlineStr">
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its application in early tumor screening.
 Methods: 1246 serum samples were collected from the health examination center of Hospital A between March and June 2024. Chemiluminescence immunoassay results for tumor markers such as AFP, CEA, CA-125, and CA-199 were analyzed. Sensitivity, specificity, and predictive values (PPV and NPV) were evaluated by comparing with clinical diagnostic results. Data were statistically analyzed using SPSS 26.0 software, and inter-group comparisons were conducted using methods such as chi-square test and t-test.
@@ -3039,7 +4217,7 @@
 Conclusion: Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection, providing significant support for early tumor diagnosis. The performance of different markers varies across different tumor types. Clinically, appropriate markers should be selected for combined detection based on tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析法(CLIA)在检测临床肿瘤标志物中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用。
 方法：于2024年3月至6月期间，从A医院体检中心收集了1246份血清样本。分析了甲胎蛋白(AFP)、癌胚抗原(CEA)、糖类抗原125 (CA-125)和糖类抗原199 (CA-199)等肿瘤标志物的化学发光免疫分析结果。通过与临床诊断结果进行比较，评估了敏感性、特异性以及预测值（PPV和NPV）。使用SPSS 26.0软件对数据进行统计分析，组间比较采用卡方检验和t检验等方法。
@@ -3047,34 +4225,34 @@
 结论：化学发光免疫分析法在肿瘤标志物检测中表现出较高的敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同肿瘤类型中的表现有所不同。临床上，应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="F100" t="n">
         <v>0.6201757333202708</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G100" t="n">
         <v>0.93125</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H100" t="n">
         <v>0.01500767018255231</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I100" t="n">
         <v>0.4071970277891837</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B101" t="n">
         <v>2</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Purpose: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, especially its application effect in early tumor screening.
 Methods: 1246 serum samples from the health examination center of Hospital A from March to June 2024 were selected to analyze the chemiluminescence immunoassay detection results of tumor markers such as AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, its sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. Data were statistically analyzed using SPSS 26.0 software, and inter-group comparisons were performed using chi-square tests, t-tests, and other methods.
@@ -3082,7 +4260,7 @@
 Conclusion: Chemiluminescence immunoassay has high sensitivity and high specificity in the detection of tumor markers, and can provide important support for the early diagnosis of tumors. The performance of different markers varies in different tumor types. Clinically, appropriate markers should be selected for combined detection according to the tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析法 (CLIA) 在检测临床肿瘤标志物中的灵敏度和特异性，特别是其在早期肿瘤筛查中的应用效果。
 方法：选取2024年3月至6月期间A医院体检中心1246例血清样本，分析AFP、CEA、CA-125和CA-199等肿瘤标志物的化学发光免疫分析检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。采用SPSS 26.0软件对数据进行统计分析，组间比较采用卡方检验、t检验等方法。
@@ -3090,34 +4268,34 @@
 结论：化学发光免疫分析法在肿瘤标志物检测中具有较高的灵敏度和特异性，可为肿瘤的早期诊断提供重要支持。不同标志物在不同肿瘤类型中的表现存在差异。临床上应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="F101" t="n">
         <v>0.7929277200839021</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G101" t="n">
         <v>0.96875</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H101" t="n">
         <v>0.01333899756748783</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I101" t="n">
         <v>0.573152077840389</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B102" t="n">
         <v>3</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Objective This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in clinical tumor marker detection, especially its application effect in early tumor screening.
 Methods 1246 serum samples were collected from the health examination center of Hospital A from March to June 2024. The chemiluminescence immunoassay detection results of tumor markers such as AFP, CEA, CA-125, and CA-199 were analyzed. By comparing with clinical diagnostic results, its sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. Data were statistically analyzed using SPSS 26.0 software, and inter-group comparisons were performed using methods such as chi-square test and t-test.
@@ -3125,7 +4303,7 @@
 Conclusion Chemiluminescence immunoassay has high sensitivity and specificity in the detection of tumor markers, and can provide important support for the early diagnosis of tumors. The performance of different markers varies in different tumor types. Clinically, appropriate markers should be selected for combined detection according to the tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的灵敏度和特异度，尤其是在早期肿瘤筛查中的应用效果。
 方法 收集了A医院体检中心2024年3月至6月的1246份血清样本。分析了AFP、CEA、CA-125和CA-199等肿瘤标志物的化学发光免疫分析检测结果。通过与临床诊断结果对比，评估了其灵敏度、特异度及预测值（PPV和NPV）。采用SPSS 26.0软件进行数据统计分析，组间比较采用卡方检验、t检验等方法。
@@ -3133,1008 +4311,919 @@
 结论 化学发光免疫分析法在肿瘤标志物检测中具有较高的灵敏度和特异度，可为肿瘤的早期诊断提供重要支持。不同标志物在不同肿瘤类型中的表现存在差异。临床上应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F72" t="n">
+      <c r="F102" t="n">
         <v>0.7684161565564183</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G102" t="n">
         <v>0.9625</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H102" t="n">
         <v>0.0148789864119981</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I102" t="n">
         <v>0.4941144619920645</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>&lt;正&gt;化学产品在工业设计领域具有十分广泛的应用,涵盖了从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计提供了可能,有效改善了产品的物理强度、耐久性、可塑性、透明度等特性,从而满足不同场景的应用需求。因此,深入研究化学产品的特性、应用和创新有助于拓宽工业设计领域的发展空间并满足不断变化的市场需求,为工业领域的发展注入新的活力。</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B103" t="n">
         <v>2</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Chemical products are widely used in the field of industrial design, covering all aspects from material selection to product manufacturing. The application of chemical products provides possibilities for the optimized design of adhesives, coatings, plastics, rubber, cellulose materials, surface treatment agents, and the like, effectively improving the physical strength, durability, plasticity, transparency, and other properties of products, thereby meeting the application needs of different scenarios. Therefore, in-depth research on the properties, applications, and innovations of chemical products helps to broaden the development space of the industrial design field and meet constantly changing market demands, injecting new vitality into the development of the industrial field.</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>化学产品广泛应用于工业设计领域，覆盖从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料、表面处理剂等的优化设计提供了可能性，有效地提升产品的物理强度、耐久性、可塑性、透明度和其他性能，从而满足不同场景的应用需求。因此，对化学产品的性能、应用和创新的深入研究，有助于拓展工业设计领域的发展空间，并满足不断变化的市场需求，为工业领域的发展注入新的活力。</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="F103" t="n">
         <v>0.731743593352536</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G103" t="n">
         <v>0.8773584905660378</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H103" t="n">
         <v>0.04990044581695834</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I103" t="n">
         <v>0.3512942043795418</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B104" t="n">
         <v>2</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>On September 21st, the "Chemistry Future: Acta Chimica Sinica 2024 Youth Forum" was held at Yunnan Minzu University Yuhua Campus. The forum was jointly hosted by the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University, and organized by the School of Chemistry and Environment of Yunnan Minzu University, Yunnan Provincial Key Laboratory of Chiral Functional Substances Research and Utilization, National and Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of Acta Chimica Sinica of the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, and co-organized by the Yunnan Chemical Society. Nearly 180 experts and scholars from 87 universities and research institutes across the country attended the meeting. Academician Tang Yong of the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry of the Chinese Academy of Sciences, and Ruan Chaoqi, Secretary of the Party Committee of Yunnan Minzu University delivered opening speeches respectively.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>九月二十一日，“化学未来：化学学报2024年青年论坛”在云南民族大学雨花校区举行。论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所《化学学报》编辑部承办，云南省化学会协办。来自全国87所高校及科研院所的近180位专家学者出席会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F74" t="n">
+      <c r="F104" t="n">
         <v>0.7777586075519903</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G104" t="n">
         <v>0.9140625</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H104" t="n">
         <v>0.05005967149680287</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I104" t="n">
         <v>0.349224270541563</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B105" t="n">
         <v>3</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>September 21st, the "Chemistry Future: Acta Chimica Sinica 2024 Youth Forum" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly hosted by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was organized by the School of Chemistry and Environment of Yunnan Minzu University, the Yunnan Provincial Key Laboratory of Chiral Functional Substances Research and Utilization, the National and Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of Acta Chimica Sinica of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, and co-organized by the Yunnan Chemical Society. Nearly 180 experts and scholars from 87 universities and research institutes across the country attended the meeting. Academician Tang Yong of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry, Chinese Academy of Sciences, and Ruan Chaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>9月21日，“化学未来——《化学学报》2024青年论坛”在云南民族大学雨花校区举行。论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所《化学学报》编辑部联合编辑部承办，云南省化学学会协办。来自全国87所高校和科研院所的近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F75" t="n">
+      <c r="F105" t="n">
         <v>0.8290078027424554</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G105" t="n">
         <v>0.9453125</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H105" t="n">
         <v>0.04367794318631463</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I105" t="n">
         <v>0.4758646817642245</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>As the new curriculum reform continues to deepen, the interdisciplinary integration of high school chemistry and biology courses has become an important way to improve students' overall quality. In the daily teaching process, teachers should further enhance their attention to interdisciplinary teaching strategies, thereby helping students to gain a deeper understanding of related knowledge. Based on this, this paper takes "Proteins, the main bearers of life activities" as an example, to explore the strategies of interdisciplinary teaching of chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative abilities.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>随着新课程改革的不断深入，高中化学与生物课程的跨学科整合已成为提高学生整体素质的重要途径。在日常教学过程中，教师应进一步加强对跨学科教学策略的关注，从而帮助学生更深入地理解相关知识。基于此，本文以“蛋白质，生命活动的主要承担者”为例，探讨化学在生物课堂中的跨学科教学策略，旨在提升学生的科学素养和创新能力。</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6086884054825042</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.07376700808041584</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3360969272762575</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>As the new curriculum reform continues to deepen, the integrated teaching of high school chemistry and biology has become an important approach to enhancing students' overall quality. In the daily teaching process, teachers should further increase their attention to strategies for integrated teaching, thereby helping students gain a deeper understanding of related knowledge. Based on this, this paper takes "the main carrier of life activities - proteins" as an example to explore strategies for the integrated teaching of high school chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative capabilities.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>随着新课程改革的不断深入，高中化学与生物的融合教学已成为提升学生整体素质的重要途径。在日常教学过程中，教师应进一步加强对融合教学策略的关注，从而帮助学生更深入地理解相关知识。基于此，本文以“生命活动的主要载体——蛋白质”为例，探讨高中化学在生物课堂中的融合教学策略，旨在提升学生的科学素养和创新能力。</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.6636689067563107</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.07730826870358362</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.2655714473159557</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>As the new curriculum reform continues to deepen, the integrated teaching of high school chemistry and biology has become an important way to enhance students' comprehensive qualities. In the daily teaching process, teachers should further increase their emphasis on strategies for integrated teaching, thereby helping students gain a deeper understanding of related knowledge. Based on this, this paper takes "Proteins, the main bearers of life activities" as an example to explore the strategies of integrated teaching of chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative abilities.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>随着新课程改革的不断深入，高中化学与生物的综合教学已成为提升学生综合素质的重要途径。在日常教学过程中，教师应进一步加强对综合教学策略的重视，从而帮助学生更深入地理解相关知识。基于此，本文以“蛋白质，生命活动的主要承担者”为例，探讨化学在生物课堂中的综合教学策略，旨在提升学生的科学素养和创新能力。</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.6318708634924939</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.07376700808041584</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.3360969272762575</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>**Element View:** Matter is composed of elements; elements can be categorized into different types, with different elements having different properties and similar elements sharing similar properties; the properties of matter are related to the composition of elements, allowing for classification of matter based on elemental composition; the types of elements remain unchanged before and after chemical reactions...
+**Classification View:** Choose the objects and perspectives (features) for classification, including the classification of elements, matter, changes, chemical reactions, conditions of chemical reactions, properties of matter, structure of matter, classification of variables affecting experiments, classification of experimental principles, equipment, and operations...
+**Particle View:** Matter is made up of microscopic particles...</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>**元素观：** 物质由元素组成；元素可以分为不同类型，不同的元素具有不同的性质，相似元素具有相似的性质；物质的性质与元素的组成有关，可以根据元素组成对物质进行分类；化学反应前后的元素类型保持不变……
+**分类观：** 选择对象和视角（特征）进行分类，包括元素的分类、物质的分类、变化的分类、化学反应的分类、化学反应条件的分类、物质性质的分类、物质结构的分类、影响实验的变量分类、实验原理的分类、设备和操作的分类……
+**微粒观：** 物质由微观粒子构成……</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.5623605689784842</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7662337662337663</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.03865413435179182</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.2655714473159559</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>"Chemistry of Life" was established in 1980 and is an academic journal in the field of biological sciences, sponsored by the Chinese Society of Biochemistry and Molecular Biology, and publicly distributed both domestically and internationally. It is a core journal of Chinese science and technology and has been included in databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>《生命的化学》创刊于1980年，是中国生物化学与分子生物学会主办的生物科学类学术期刊，国内外公开发行，是中国科技核心期刊，并被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等收录。2015年被中国科协评为精品期刊。该刊设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>0.6724705768590268</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.03783812115063663</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.4513472433157689</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>"Journal of Life Chemistry" was founded in 1980 and is published by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal of biology distributed both domestically and internationally. As a core journal of Chinese science and technology, it has been indexed by databases such as Chemical Abstracts (CA) in the US, the Japan Science and Technology Agency (JST), the Chinese Science and Technology Papers and Citations Database (CSTPCD), the Chinese Biological Abstracts (CBA), and China Journal Net, among others. In 2015, it was selected as an exemplary journal by the China Association for Science and Technology. The journal features sections on research papers, reviews, education, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>《生命化学杂志》创刊于1980年，由中国生物化学与分子生物学会出版，是一份涵盖生物学领域的综合性学术期刊，国内外发行。作为中国科技核心期刊，该刊已被美国的《化学文摘》（CA）、日本科学技术振兴机构（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘（CBA）和中国期刊网等数据库收录。2015年被中国科协评为优秀期刊。杂志设有研究论文、综述、教育、研究前沿、技术与方法、中医药生物化学等栏目。</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.5718804339343632</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8282828282828283</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.04228898861521332</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.2599426992337673</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B111" t="n">
         <v>2</v>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"Chemistry of Life" was established in 1980 and is a comprehensive academic journal in the field of biology, sponsored by the Chinese Society of Biochemistry and Molecular Biology, and publicly distributed both domestically and internationally. It is a core journal of Chinese science and technology and has been included in various domestic and international databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry in traditional Chinese medicine.</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>《生命的化学》创刊于1980年，是由中国生物化学与分子生物学会主办的生物学领域综合性学术期刊，国内外公开发行，是中国科技核心期刊，并被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外多个数据库收录。2015年入选中国科协精品期刊。该刊设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>0.705771356423006</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.03549267054177634</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.5031026124151314</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>"Chemistry of Life" was first published in 1980, sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal in the field of biology, open to both domestic and international readers. It is a core Chinese science and technology journal, indexed by databases such as the American Chemical Abstracts (CA), Japan Science and Technology Agency (JST), China Science and Technology Papers and Citations Database (CSTPCD), China Biological Abstracts Database (CBA), and China Journal Net among others. In 2015, it was selected as an exemplary journal by the China Association for Science and Technology. It features sections like research papers, reviews, teaching, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>《生命化学》首次出版于1980年，由中国生物化学与分子生物学会赞助。它是生物学领域的综合性学术期刊，面向国内外读者。它是中国核心科技期刊，被美国化学文摘（CA）、日本科学技术振兴机构（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等数据库收录。2015年，它被中国科学技术协会评选为示范期刊。其特色栏目包括研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等。</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.5398650741944994</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.797979797979798</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.04134048818601394</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.2972117008377632</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B112" t="n">
         <v>3</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>"Chemistry of Life" was established in 1980 and is an academic journal in the field of biological sciences, publicly distributed both domestically and internationally, sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a core journal of Chinese science and technology and has been included in various domestic and international databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>《生命的化学》创刊于1980年，是中国生物科学领域的学术期刊，国内外公开发行，由中国生物化学与分子生物学会主办。该刊是中国科技核心期刊，被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外多种数据库收录。2015年入选中国科协精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法、中药生物化学等栏目。</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>0.693827485104605</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.8686868686868687</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.03543835415856143</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.4861438647008596</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>"Chemistry of Life" was founded in 1980, hosted by the Chinese Society of Biochemistry and Molecular Biology, and is a comprehensive academic journal on biology open to both domestic and international audiences. It is a core journal in Chinese science and technology, indexed by databases such as the American Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Science and Technology Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net, among other domestic and international databases. In 2015, it was selected as a premium journal by the China Association for Science and Technology. It features sections such as research papers, reviews, education, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>《生命化学》创刊于1980年，由中国生物化学与分子生物学学会主办，是一份面向国内外读者的综合性生物学学术期刊。它是中国科技核心期刊，被美国化学文摘（CA）、日本科学技术情报机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外数据库收录。2015年被中国科学技术协会评选为精品期刊。其内容包括研究论文、综述、教育、研究前沿、技术与方法、中医药生物化学等版块。</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.5958828493678181</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8080808080808081</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.04143968134792317</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.3576849391071911</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>&lt;Positive&gt; Name: Chemical Reagents Journal  
-1. Free access to read and download the electronic version of "Chemical Reagents" on the WeChat official account, convenient and fast;  
-2. Stay updated on industry news and hot topics in the chemical reagents field, and gain popular science knowledge about reagents;  
-3. Timely access to domestic chemical conference information and content.  
-"Chemical Reagents" journal is your window to understanding the reagents industry and a platform for mastering knowledge!</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>&lt;正面&gt; 名称：化学试剂期刊  
-1. 免费在微信公众号上阅读和下载《化学试剂》电子版，方便快捷；  
-2. 及时了解行业动态和化学试剂领域的热点话题，获取试剂科普知识；  
-3. 第一时间获取国内化学会议信息及内容。  
-《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>0.4428074427700476</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.06668283457073523</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.3665130715780152</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>人教版《义务教育教科书化学九年级上册》为落实《义务教育化学课程标准(2022年版)》要求,完善课题结构,更新教材内容,改进呈现方式,聚焦核心素养培育,发挥课程育人功能。介绍了教材各单元在以上方面的具体做法,并提出相关教学建议。</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>The People's Education Press "Compulsory Education Textbook Chemistry Grade 9 Volume 1" aims to implement the requirements of the "Compulsory Education Chemistry Curriculum Standards (2022 Edition)," improve the topic structure, update the textbook content, enhance the presentation methods, focus on cultivating core competencies, and leverage the educational function of the curriculum. It introduces specific practices of each unit in the textbook regarding the above aspects and provides relevant teaching suggestions.</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>人民教育出版社《义务教育教科书 化学 九年级 上册》旨在落实《义务教育化学课程标准（2022年版）》要求，完善课题结构，更新教材内容，改进呈现方式，注重核心素养培养，发挥课程育人功能，介绍教材各单元在上述方面的具体做法并提供相关教学建议。</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>0.5697281491504753</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.06308391994464982</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.3376188405811771</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>人教版《义务教育教科书化学九年级上册》为落实《义务教育化学课程标准(2022年版)》要求,完善课题结构,更新教材内容,改进呈现方式,聚焦核心素养培育,发挥课程育人功能。介绍了教材各单元在以上方面的具体做法,并提出相关教学建议。</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>**Journal Name: Chemical Reagents**
+1. Free reading and downloading of the electronic journal "Chemical Reagents" available on WeChat public account, convenient and fast;
+2. Stay informed about industry news and hot topics in the chemical reagents sector, acquire popular science knowledge in the field of reagents;
+3. Timely access to information and content of domestic chemical conferences. 
+"Chemical Reagents" journal is your window to understanding the reagent industry and a platform for acquiring knowledge!</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>**期刊名称：化学试剂**
+1. 微信公众号免费提供《化学试剂》电子期刊的阅读与下载，方便快捷；
+2. 了解化学试剂行业新闻与热点，获取试剂领域的科普知识；
+3. 及时获取国内化学会议的信息与内容。
+《化学试剂》期刊是您了解试剂行业的窗口和获取知识的平台！</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.4320043035356105</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0749228456715839</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.2882329661199533</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;大学生思想政治教育对化学专业就业的影响是一个重要的研究课题。在现代教育中，思想政治教育不仅关乎学生的品德发展，还能在就业竞争中发挥潜在的优势。特别是化学专业，学生除了需要具备扎实的专业知识，还需要具备强烈的社会责任感、创新精神和职业道德。这些正是思想政治教育能够影响的关键因素。通过加强思想政治教育，学生能够更好地理解国家战略需求、环境保护的重要性以及创新驱动发展的必要性，从而在未来的就业市场中拥有更为突出的竞争力。</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>The impact of ideological and political education on the employment of chemistry majors is an important research topic. In modern education, ideological and political education not only concerns the moral development of students but also provides a potential advantage in the job market. Particularly for chemistry majors, in addition to possessing solid professional knowledge, students need a strong sense of social responsibility, an innovative spirit, and professional ethics. These are key factors that ideological and political education can influence. By enhancing ideological and political education, students can better understand national strategic needs, the importance of environmental protection, and the necessity of innovation-driven development, thereby gaining a more prominent competitive edge in the future job market.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>意识形态和政治教育对化学专业学生就业的影响是一个重要的研究课题。在现代教育中，思想政治教育不仅关系到学生的道德发展，而且在就业市场上提供潜在的优势。特别是对于化学专业的学生，除了拥有扎实的专业知识外，还需要有强烈的社会责任感、创新精神和职业道德。这些都是思想政治教育可以影响的关键因素。通过加强思想政治教育，学生能够更好地理解国家战略需求、环境保护的重要性以及创新驱动发展的必要性，从而在未来的就业市场中获得更突出的竞争优势。</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.7552388197988299</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9067796610169492</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.07234724682725428</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.2403539083138301</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
         <v>2</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>The People's Education Press edition of "Compulsory Education Textbook Chemistry Grade 9 Volume 1" aims to implement the requirements of the "Compulsory Education Chemistry Curriculum Standards (2022 Edition)," improve the topic structure, update the textbook content, enhance the presentation methods, focus on cultivating core competencies, and leverage the educational function of the curriculum. It details the specific approaches taken by each unit of the textbook in these aspects and provides relevant teaching suggestions.</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>人民教育出版社版《义务教育教科书化学九年级上册》旨在落实《义务教育化学课程标准（2022年版）》要求，完善课题结构，更新教材内容，改进呈现方式，注重核心素养培养，发挥课程育人功能。详细阐述了教材各单元在这些方面的具体做法，并提供了相关教学建议。</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>0.6071767407189163</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.8875</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.0613876814214067</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.44751086720734</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above designated size nationwide was 75.1%, a decrease of 0.5 percentage points compared to the same period last year, but an increase of 0.2 percentage points from the second quarter. By major categories, the capacity utilization rate for mining was 74.6%; for manufacturing, it was 75.2%; and for the production and supply of electricity, heat, gas, and water, it was 74.3%. By key industries, the capacity utilization rate for coal mining and washing was 72.7%, for food manufacturing it was 70.7%, for the textile industry it was 77.9%, for non-metallic mineral products it was 61.7%, for ferrous metal smelting and rolling processing it was 77.4%, for non-ferrous metal smelting and rolling processing it was 78.4%, for general equipment manufacturing it was 78.7%, for special equipment manufacturing it was 75.8%, for automobile manufacturing it was 73.2%, and for electrical machinery and equipment manufacturing it was 75.6%.</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，比上年同期下降0.5个百分点，比二季度上升0.2个百分点。分三大门类看，采矿业产能利用率为74.6%；制造业产能利用率为75.2%；电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>0.713330723323117</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.02731503225680207</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.6585620967899739</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>In the third quarter of 2024, the national capacity utilization rate of industrial enterprises above designated size was 75.1%, a decrease of 0.5 percentage points from the same period last year, and an increase of 0.2 percentage points from the second quarter. Looking at the three major sectors, in the third quarter of 2024, the capacity utilization rate for the mining industry was 74.6%; for manufacturing, it was 75.2%; and for the production and supply of electricity, heat, gas, and water, it was 74.3%. By major industries, in the third quarter of 2024, the capacity utilization rate for coal mining and washing was 72.7%; food manufacturing was 70.7%; textiles was 77.9%; non-metallic mineral products was 61.7%; ferrous metal smelting and rolling processing was 77.4%; non-ferrous metal smelting and rolling processing was 78.4%; general equipment manufacturing was 78.7%; specialized equipment manufacturing was 75.8%; automobile manufacturing was 73.2%; and electrical machinery and equipment manufacturing was 75.6%.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，较去年同期下降0.5个百分点，较第二季度上升0.2个百分点。从三大门类看，2024年第三季度，采矿业产能利用率为74.6%；制造业为75.2%；电力、热力、燃气及水生产和供应业为74.3%。按主要行业分，2024年第三季度，煤炭开采和洗选业产能利用率为72.7%；食品制造业为70.7%；纺织业为77.9%；非金属矿物制品业为61.7%；黑色金属冶炼及压延加工业为77.4%；有色金属冶炼及压延加工业为78.4%；通用设备制造业为78.7%；专用设备制造业为75.8%；汽车制造业为73.2%；电气机械及器材制造业为75.6%。</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5880340619170165</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9313725490196079</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.04457229447809327</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.2422709938724145</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
         <v>2</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above the designated size nationwide was 75.1%, a decrease of 0.5 percentage points compared to the same period last year, but an increase of 0.2 percentage points from the second quarter. By major sectors, the capacity utilization rate in the mining industry was 74.6%; in the manufacturing sector, it was 75.2%; and in the production and supply of electricity, heat, gas, and water, it was 74.3%. By key industries, the capacity utilization rate in coal mining and washing was 72.7%, in food manufacturing 70.7%, in the textile industry 77.9%, in non-metallic mineral products 61.7%, in ferrous metal smelting and rolling 77.4%, in non-ferrous metal smelting and rolling 78.4%, in general equipment manufacturing 78.7%, in special equipment manufacturing 75.8%, in automobile manufacturing 73.2%, and in electrical machinery and equipment manufacturing 75.6%.</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，同比下降0.5个百分点，但环比第二季度上升0.2个百分点。分三大门类看，采矿业产能利用率为74.6%；制造业为75.2%；电力、热力、燃气及水生产和供应业为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>0.6236535256554326</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.9313725490196079</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.03630224706673</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.4736174175324145</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>"Chemical Engineering and Equipment" is an academic journal in the field of chemical engineering, approved for publication by the National Press and Publication Administration of China. It is publicly distributed and has been indexed by the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Corporation Limited and sponsored by the Fujian Province Institute of Chemical Industry Science and Technology. It was first published in 1972, is a monthly publication, and issues are released on the 25th of each month.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>《化工与设备》是中国国家新闻出版广电总局批准出版的化工领域学术期刊。该期刊公开发行，已被中国学术期刊综合评价数据库（CAJCED）和中国期刊全文数据库（CJFD）收录。由福建石油化工集团有限责任公司监督，福建省化工科学研究院主办。首次出版于1972年，月刊，每月25日发行。</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.4437690235827193</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8111111111111111</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.07234724682725428</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.2403539083138301</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
         <v>3</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above designated size nationwide was 75.1%, a decrease of 0.5 percentage points from the same period last year and an increase of 0.2 percentage points from the second quarter. By major categories, the capacity utilization rate in the mining industry was 74.6%; in the manufacturing industry, it was 75.2%; and in the production and supply of electricity, heat, gas, and water, it was 74.3%. By major sectors, the capacity utilization rate in coal mining and washing was 72.7%, in food manufacturing it was 70.7%, in the textile industry it was 77.9%, in non-metallic mineral products it was 61.7%, in ferrous metal smelting and rolling processing it was 77.4%, in non-ferrous metal smelting and rolling processing it was 78.4%, in general equipment manufacturing it was 78.7%, in special equipment manufacturing it was 75.8%, in automobile manufacturing it was 73.2%, and in electrical machinery and equipment manufacturing it was 75.6%.</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，比上年同期下降0.5个百分点，比二季度上升0.2个百分点。分大类看，采矿业产能利用率为74.6%；制造业产能利用率为75.2%；电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>0.6946915278533565</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.9313725490196079</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.03014937682370795</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.6080581012917967</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>The School of Chemistry and Chemical Engineering at Southeast University was originally one of the key departments of the former Central University. The Department of Chemistry was established in 1920, the Department of Chemical Engineering in 1928, the Department of Chemistry and Chemical Engineering was reestablished in 1988, and the School of Chemistry and Chemical Engineering was founded in 2006. The school currently has doctoral programs in the first-level disciplines of "Chemical Engineering and Technology" and "Chemistry," and master's programs in "Chemistry" and "Chemical Engineering and Technology." It also offers second-level doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are key disciplines in Jiangsu Province. Additionally, there is a postdoctoral research station for "Chemical Engineering and Technology." The school consists of three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Biochemical and Pharmaceutical Engineering. It has established the Institute of Fine Chemicals and the Institute of Pharmaceutical Engineering, and houses key laboratories such as the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Applications, the Jiangsu Provincial Key Laboratory for High Technology of Biomedicine, the Jiangsu Provincial Optoelectronic Functional Materials Engineering Laboratory, and the Jiangsu Provincial Rich-Carbon Materials and Devices Engineering Laboratory. The school has a teaching experiment center and shares equipment resources with the university-level analysis and testing center in the same building, providing excellent experimental conditions for teaching and research. The school currently employs 136 staff members (including full-time postdoctoral researchers and dedicated research staff), of which 103 are full-time faculty members, with 98%</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>东南大学化学与化工学院最初是原中央大学的重点院系之一。化学系成立于1920年，化工系成立于1928年，化学与化工系于1988年重建，化学与化工学院于2006年成立。学院目前拥有“化学工程与技术”和“化学”一级学科博士点，以及“化学”和“化学工程与技术”硕士点。此外，还设有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”是江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院由化学系、化工系和生物化工与药物工程系组成，并设立了精细化工研究所和药物工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物医学高技术重点实验室、江苏省光电功能材料工程实验室和江苏省富碳材料与器件工程实验室。学院拥有一个教学实验中心，并与校级分析测试中心共享同一大楼的设备资源，为教学和科研提供了优越的实验条件。目前，学院共有员工136名（包括专职博士后和专职科研人员），其中专任教师103名，98%的教师拥有博士学位。</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.6211640273377456</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.02265590593719599</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.2863389629783258</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>**Objective** This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in clinical tumor marker detection, particularly its application in early tumor screening.
+**Methods** Serum samples from 1,246 individuals at Hospital A's physical examination center from March to June 2024 were selected to analyze the CLIA detection results of tumor markers such as AFP, CEA, CA-125, and CA-199. The sensitivity, specificity, and predictive values (PPV and NPV) were assessed by comparing the results with clinical diagnoses. Data were statistically analyzed using SPSS 26.0 software, with group comparisons made using chi-square tests, t-tests, etc.
+**Results** The CLIA results showed that CA-125 had the highest sensitivity (89.5%), followed by AFP and CA-199 with sensitivities of 80.3% and 85.7% respectively, while CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity of different tumor markers in liver, ovarian, gastric, and colorectal cancers (P &lt; 0.05).
+**Conclusion** CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies across different types of tumors, suggesting that clinical practice should select appropriate markers for combined detection based on tumor type to enhance the accuracy of early diagnosis.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>**目标** 本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用。
+**方法** 选取2024年3月至6月期间，医院A体检中心的1,246名个体血清样本，分析AFP、CEA、CA-125和CA-199等肿瘤标志物的CLIA检测结果。通过与临床诊断结果对比，评估其敏感性、特异性以及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，组间比较采用卡方检验、t检验等。
+**结果** CLIA结果显示，CA-125的敏感性最高（89.5%），其次是AFP和CA-199，敏感性分别为80.3%和85.7%，而CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性存在显著差异（P &lt; 0.05）。
+**结论** CLIA在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同类型的肿瘤中的表现各有不同，建议临床实践根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.6833973301115077</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.01531771203528287</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4409035107121747</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
         <v>2</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>"Chemical Engineering and Equipment" is an academic journal in the field of chemical engineering approved for publication by the National Press and Publication Administration and publicly distributed. It has been included in the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Group Co., Ltd. and sponsored by the Fujian Institute of Chemical Industry Science and Technology. It was established in 1972, is published monthly, and is released on the 25th of each month.</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>《化学工程与装备》是国家新闻出版总署批准公开发行的化工类学术期刊，已被中国学术期刊综合评价数据库（CAJCED）、中国期刊全文数据库（CJFD）收录。本刊由福建石油化工集团有限责任公司主管，福建省化工科学技术研究所主办，创刊于1972年，月刊，每月25日出版。</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>0.6344227351197625</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.9222222222222223</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.06182431831262534</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.4744932943426848</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>**Objective** This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its application in early tumor screening.
+**Methods** Serum samples from 1,246 individuals at Hospital A’s health examination center from March to June 2024 were selected. The detection results of tumor markers like AFP, CEA, CA-125, and CA-199 were analyzed using CLIA. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with inter-group comparisons performed using chi-square tests, t-tests, and other methods.
+**Results** CLIA results showed that CA-125 had the highest sensitivity at 89.5%, while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively. CEA had the lowest sensitivity at 68.5%. In terms of specificity, CEA performed best at 95.8%, followed by AFP, CA-199, and CA-125 at 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt;0.05).
+**Conclusion** Chemiluminescence immunoassay shows high sensitivity and specificity in detecting tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies with tumor types, and clinical practice should select appropriate markers for combined detection to enhance the accuracy of early diagnosis.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>**目标** 本研究旨在评估化学发光免疫分析（CLIA）在检测临床肿瘤标志物中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用。
+**方法** 选取2024年3月至6月期间A医院健康体检中心的1,246名个体的血清样本。使用CLIA分析AFP、CEA、CA-125和CA-199等肿瘤标志物的检测结果。通过与临床诊断结果对比，评估敏感性、特异性及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，组间比较使用卡方检验、t检验等方法。
+**结果** CLIA结果显示CA-125的敏感性最高，达89.5%，而AFP和CA-199的敏感性分别为80.3%和85.7%。CEA的敏感性最低，为68.5%。在特异性方面，CEA表现最佳，达95.8%，其次是AFP、CA-199和CA-125，分别为92.4%、90.3%和88.2%。在肝癌、卵巢癌、胃癌和结直肠癌中，不同肿瘤标志物的敏感性存在显著差异（P &lt;0.05）。
+**结论** 化学发光免疫分析在检测肿瘤标志物方面表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物的表现因肿瘤类型而异，临床实践中应选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.6375046330446916</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.01731635618378151</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.3246621088325209</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
         <v>3</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>"Chemical Engineering and Equipment" is a publicly available academic journal in the field of chemical engineering, approved for publication by the National Press and Publication Administration. It has been included in the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Group Co., Ltd. and sponsored by the Fujian Institute of Chemical Industry Science and Technology. It was established in 1972, is published monthly, and is released on the 25th of each month.</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>《化学工程与装备》是经国家新闻出版总署批准公开发行的化学工程类学术期刊，已被中国学术期刊综合评价数据库（CAJCED）、中国期刊全文数据库（CJFD）收录。该刊由福建省石油化工集团有限责任公司主管，福建省化工科学技术研究所主办，创刊于1972年，月刊，每月25日出版。</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>0.5511756994656354</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.9111111111111111</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.06750637787452177</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.3924425991293043</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>2</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>The School of Chemistry and Chemical Engineering at Southeast University traces its origins to one of the key departments of the former Central University. The Department of Chemistry was first established in 1920, followed by the Department of Chemical Engineering in 1928. The Department of Chemistry and Chemical Engineering was re-established in 1988, and the School of Chemistry and Chemical Engineering was formally established in 2006. The school currently offers doctoral programs in "Chemical Engineering and Technology" and "Chemistry," as well as master's programs in "Chemistry" and "Chemical Engineering and Technology." Additionally, it has secondary doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are recognized as key disciplines in Jiangsu Province. The school also hosts a postdoctoral research station in "Chemical Engineering and Technology." The school comprises three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Chemical Biology and Pharmaceutical Engineering. It has established research institutes for Fine Chemical Engineering and Pharmaceutical Engineering. The school is home to several key laboratories, including the Jiangsu Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Key Laboratory of High-Tech Research for Biopharmaceuticals, the Jiangsu Engineering Laboratory for Optoelectronic Functional Materials, and the Jiangsu Engineering Laboratory for Carbon-Rich Materials and Devices. The school also operates a teaching experiment center and shares university-level analytical testing center resources within the building, providing excellent experimental conditions for teaching and research. The school currently has 136 faculty and staff members (including full-time postdoctoral researchers and dedicated research personnel), with 103 full-time faculty members, 98% of whom hold doctoral degrees.</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>东南大学化学化工学院起源于原中央大学重要的院系之一。1920年，化学系成立；1928年，化工系成立。1988年，化学化工系重新建立；2006年，化学化工学院正式成立。学院现拥有“化学工程与技术”一级学科博士点和“化学”一级学科博士点，以及“化学”和“化学工程与技术”两个一级学科硕士点，另有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”为江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院下设化学系、化工系、化学生物与制药工程系三个系，设有精细化工研究所和制药工程研究所。学院拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等多个重点实验室。学院设有教学实验中心，并共享校级分析测试中心资源，为教学科研提供了良好的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，98%具有博士学位。</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>0.7253707953162123</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.8592592592592593</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.02073212555373681</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.3365719822804217</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>**Objective** This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the clinical detection of tumor markers, particularly its application in early tumor screening.
+**Methods** A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected. The chemiluminescence assay results for tumor markers such as AFP, CEA, CA-125, and CA-199 were analyzed. The sensitivity, specificity, and predictive values (PPV and NPV) were assessed by comparing with clinical diagnoses. Data were statistically analyzed using SPSS 26.0 software, with comparisons between groups conducted using chi-square and t-tests.
+**Results** The chemiluminescence assay results showed that CA-125 had the highest sensitivity (89.5%), with AFP and CA-199 sensitivities at 80.3% and 85.7% respectively, and CEA having the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), followed by AFP, CA-199, and CA-125 at 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity of different tumor markers for liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt;0.05).
+**Conclusion** Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. Different markers show varied performance across different types of tumors, suggesting that clinical selection of appropriate markers for combined detection should be based on tumor type to enhance the accuracy of early diagnosis.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>**目标** 本研究旨在评估化学发光免疫分析法（CLIA）在肿瘤标志物临床检测中的敏感性和特异性，特别是在早期肿瘤筛查中的应用。
+**方法** 选取了2024年3月至6月期间在A医院体检中心的1246例血清样本。分析了肿瘤标志物如AFP、CEA、CA-125和CA-199的化学发光检测结果。通过与临床诊断比较，评估了敏感性、特异性以及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，采用卡方检验和t检验进行组间比较。
+**结果** 化学发光检测结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），其次是AFP、CA-199和CA-125，分别为92.4%、90.3%和88.2%。不同肿瘤标志物对肝癌、卵巢癌、胃癌和结直肠癌的敏感性存在显著差异（P &lt;0.05）。
+**结论** 化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同类型肿瘤中的表现各异，建议根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.6784661133375397</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.01628278679262552</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4056782820691686</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
         <v>3</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>The School of Chemistry and Chemical Engineering at Southeast University traces its origins to one of the key departments of the former Central University. The Department of Chemistry was first established in 1920, followed by the Department of Chemical Engineering in 1928. The Department of Chemistry and Chemical Engineering was reinstated in 1988, and the School of Chemistry and Chemical Engineering was formally established in 2006. The school currently offers doctoral programs in "Chemical Engineering and Technology" and "Chemistry," as well as master's programs in "Chemistry" and "Chemical Engineering and Technology." Additionally, it has secondary doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are recognized as key disciplines in Jiangsu Province. The school also hosts a postdoctoral research station in "Chemical Engineering and Technology." The school comprises three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Chemical Biology and Pharmaceutical Engineering. It has established research institutes for fine chemicals and pharmaceutical engineering, and houses key laboratories such as the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High-Tech Research in Biopharmaceuticals, the Jiangsu Provincial Engineering Laboratory for Optoelectronic Functional Materials, and the Jiangsu Provincial Engineering Laboratory for Carbon-Rich Materials and Devices. The school operates a teaching and experimental center and shares university-level analytical testing equipment resources, providing excellent experimental conditions for teaching and research. The school currently has 136 faculty and staff members (including full-time postdoctoral researchers and dedicated research personnel), of whom 103 are full-time faculty, with 98% holding advanced degrees.</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>东南大学化学化工学院起源于原中央大学重要的院系之一，最早于1920年成立化学系，1928年成立化学工程系，1988年恢复化学化工系，2006年正式成立化学化工学院。学院现拥有“化学工程与技术”一级学科博士点和“化学”一级学科博士点，以及“化学”和“化学工程与技术”两个一级学科硕士点，另有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”为江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院下设三个系：化学系、化学工程系、化学生物与制药工程系；建有精细化工研究所和制药工程研究所；拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等科研基地。学院设有教学实验中心，共享校级分析测试中心的大型仪器设备资源，为教学科研提供了良好的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，具有高级职称的教师占专任教师比例98%。</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>0.7595545253127499</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.02150169768303846</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.354949069508846</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected to analyze the results of CLIA for tumor markers such as AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. Significant differences (P &lt; 0.05) were observed in the sensitivity of different tumor markers for liver cancer, ovarian cancer, gastric cancer, and colorectal cancer. Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for the early diagnosis of tumors. The performance of different markers varies across tumor types, and clinical practice should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在肿瘤早期筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，分析CLIA对AFP、CEA、CA-125和CA-199等肿瘤标志物的检测结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物对肝癌、卵巢癌、胃癌和结直肠癌的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为肿瘤的早期诊断提供了重要支持。不同标志物在肿瘤类型中的表现存在差异，临床实践中应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>0.7645937175535713</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.94375</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.01490425732695388</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.5007073795470449</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>2</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the health examination center of Hospital A between March and June 2024 were selected to analyze the results of tumor markers such as AFP, CEA, CA-125, and CA-199 using CLIA. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. Significant differences in sensitivity were observed among different tumor markers for liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt; 0.05). Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. The performance of different markers varies across tumor types, and clinicians should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，采用CLIA分析AFP、CEA、CA-125和CA-199等肿瘤标志物的结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在肿瘤类型中的表现各异，临床医生应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>0.7628553098891114</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.94375</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.01454335612096523</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.5200692480081476</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>With the deepening of the new curriculum reform, interdisciplinary integrated teaching of chemistry and biology in high school has become an important way to enhance students' comprehensive qualities. In daily teaching practice, teachers should further emphasize interdisciplinary integration teaching strategies, thereby helping students develop deeper understanding of relevant knowledge. Based on this, taking "Protein—the main participant in life activities" as an example, this paper discusses strategies for the interdisciplinary integration of high school chemistry in biology classes, aiming to enhance students' scientific literacy and innovative abilities.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>随着新课程改革的深入，高中化学与生物学科的跨学科融合教学已成为提高学生综合素质的重要途径。在日常教学实践中，教师应进一步突出跨学科融合的教学策略，帮助学生更深入地理解相关知识。基于此，本文以“蛋白质——生命活动的主要承担者”为例，探讨在高中生物课堂中融合化学知识的跨学科整合策略，旨在提高学生的科学素养与创新能力。</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.5891695811597972</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.07730826870358362</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.2655714473159557</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
         <v>3</v>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected to analyze the CLIA results of tumor markers such as AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. There were significant differences in the sensitivity of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt; 0.05). Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. The performance of different markers varies across tumor types, and clinical practice should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，分析AFP、CEA、CA-125和CA-199等肿瘤标志物的CLIA检测结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA检测结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，而CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在肿瘤类型中的表现各异，临床实践中应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>0.7629002631653615</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.94375</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.01415601153895482</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.5399296249839686</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>On September 21st, the "Future of Chemistry: 2024 Youth Forum of Acta Chimica Sinica" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was hosted by the School of Chemistry and Environment of Yunnan Minzu University, the Key Laboratory of Chiral Functional Substance Research and Utilization of Yunnan Province, the National-Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences. The Yunnan Chemical and Chemical Industry Association provided support for the event. Nearly 180 experts and scholars from 87 universities and research institutions across the country attended the conference. Academician Tang Yong from the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry of the Chinese Academy of Sciences, and Ruan Chaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>9月21日，“化学的未来：2024年《化学学报》青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所联合编辑部承办，云南省化工行业协会协办。来自全国87所高校和科研院所的近180名专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>0.8168465724954004</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.9453125</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.04773585778428791</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.4033017776964011</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>3</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>On September 21, the "Future of Chemistry: 2024 Youth Forum of Acta Chimica Sinica" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was hosted by the School of Chemistry and Environment of Yunnan Minzu University, the Key Laboratory of Chiral Functional Substance Research and Utilization of Yunnan Province, the National-Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences. The Yunnan Chemical and Chemical Industry Association provided support. Nearly 180 experts and scholars from 87 universities and research institutions across the country attended the meeting. Academician Tang Yong from the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry, Chinese Academy of Sciences, and Ruan Zhaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>9月21日，“化学的未来：2024年《化学学报》青年论坛”在云南民族大学雨花校区召开。本次论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所联合编辑部承办，云南省化工行业协会协办。来自全国87所高校和科研院所的近180位专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>0.8248520790911256</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.953125</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.05005967149680286</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.349224270541563</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>3</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>With the deepening of the new curriculum reform, interdisciplinary integrated teaching of chemistry and biology in high school has become an important way to enhance students' comprehensive qualities. In daily teaching practice, teachers should further emphasize interdisciplinary integration teaching strategies, thereby helping students develop deeper understanding of relevant knowledge. Based on this, taking "Protein—the main participant in life activities" as an example, this paper discusses strategies for the interdisciplinary integration of high school chemistry in biology classes, aiming to enhance students' scientific literacy and innovative abilities.</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>随着新课程改革的深入，高中化学与生物学科的跨学科融合教学已成为提高学生综合素质的重要途径。在日常教学实践中，教师应进一步突出跨学科融合的教学策略，帮助学生更深入地理解相关知识。基于此，本文以“蛋白质——生命活动的主要承担者”为例，探讨在高中生物课堂中融合化学知识的跨学科整合策略，旨在提高学生的科学素养与创新能力。</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>OpenAI-GPT-4.5</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>0.5891695811597972</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.07730826870358362</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.2655714473159557</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>3</v>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Element perspective: substances are composed of elements; elements can be divided into different categories, different elements have different properties, and similar elements have similar properties; the properties of a substance relate to its elemental composition, and substances can be classified according to their elemental makeup; the types of elements remain unchanged before and after chemical reactions...
 Classification perspective: choosing the objects and perspectives (characteristics) for classification; classification of elements, classification of substances, classification of changes, classification of chemical reactions, classification of reaction conditions, classification of substance properties, classification of substance structures, classification of variables influencing experimental investigations, classification of experimental principles, instruments, and operations...
 Particulate perspective: substances are composed of microscopic particles;</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>元素观：物质由元素组成；元素可以划分为不同类别，不同元素具有不同的性质，相似元素具有相似的性质；物质的性质与其元素组成相关，可以根据元素组成分类物质；元素的种类在化学反应前后保持不变……
 分类观：选择分类的对象与角度（特征）；元素的分类、物质的分类、变化的分类、化学反应的分类、反应条件的分类、物质性质的分类、物质结构的分类、影响实验探究的变量分类、实验原理、仪器与操作的分类……
 微粒观：物质由微观粒子构成；</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="F122" t="n">
         <v>0.6230600678728938</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G122" t="n">
         <v>0.8311688311688312</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H122" t="n">
         <v>0.03738292990555386</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I122" t="n">
         <v>0.3457987266528076</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="inlineStr">
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>Chemistry of Life, founded in 1980, is a comprehensive biological academic journal sponsored by the Chinese Society of Biochemistry and Molecular Biology and openly published domestically and internationally. It is recognized as a core journal of Chinese science and technology and has been indexed by national and international databases, including Chemical Abstracts (CA) of the USA, Japan Science and Technology Agency Database (JST), Chinese Science and Technology Papers and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China Journal Network. It was selected as an Excellent Journal by the China Association for Science and Technology in 2015. The journal includes sections such as research papers, reviews, education, research frontiers, techniques and methodologies, and biochemical studies in traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，由中国生物化学与分子生物学会主办，是国内外公开发行的综合性生物学学术期刊。该刊被评为中国科技核心期刊，并被国内外多个数据库收录，包括美国《化学文摘》(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)及中国期刊网。2015年，该刊被中国科学技术协会评为“优秀期刊”。该期刊设有研究论文、综述、教学园地、研究前沿、技术与方法及中医药生物化学研究等栏目。</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F96" t="n">
+      <c r="F123" t="n">
         <v>0.6546062509353093</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G123" t="n">
         <v>0.8787878787878788</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H123" t="n">
         <v>0.0395577261568985</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I123" t="n">
         <v>0.3275186553327257</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B124" t="n">
         <v>2</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Chemistry of Life was founded in 1980. Sponsored by the Chinese Society of Biochemistry and Molecular Biology, it is a multidisciplinary academic journal in biology published openly both domestically and internationally. It is a Chinese core science and technology journal indexed by domestic and international databases including Chemical Abstracts (CA, USA), Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China Journal Network. It was selected by the China Association for Science and Technology as a high-quality journal in 2015. The columns include research articles, reviews, education, research frontiers, technologies and methods, and biochemistry in traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，由中国生物化学与分子生物学会主办，是一本面向国内外公开发行的多学科生物学术期刊。本刊为中国科技核心期刊，被美国《化学文摘》（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等国内外数据库收录，2015年被中国科学技术协会评选为精品科技期刊。期刊栏目包括研究论文、综述、教学研究、研究前沿、技术与方法以及中医药生物化学等。</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F97" t="n">
+      <c r="F124" t="n">
         <v>0.6040404496926219</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G124" t="n">
         <v>0.8787878787878788</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H124" t="n">
         <v>0.04143968134792317</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I124" t="n">
         <v>0.3576849391071911</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B125" t="n">
         <v>3</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Chemistry of Life, founded in 1980, is a comprehensive biological academic journal sponsored by the Chinese Society of Biochemistry and Molecular Biology and openly distributed both domestically and internationally. It is recognized as a core Chinese science and technology journal and has been indexed by domestic and international databases such as Chemical Abstracts (CA) from the United States, Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China Journal Net. In 2015, it was selected as a Best-quality Journal by the China Association for Science and Technology. The journal includes sections for Research Articles, Reviews, Teaching, Research Frontiers, Techniques and Methods, and Biochemistry of Traditional Chinese Medicine.</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，是由中国生物化学与分子生物学会主办、国内外公开发行的综合性生物学学术期刊。该刊被认定为中国科技核心期刊，并已被美国《化学文摘》（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等国内外数据库收录。2015年，该刊入选中国科协精品科技期刊。期刊设有研究论文、综述、教学园地、研究前沿、技术与方法和中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F98" t="n">
+      <c r="F125" t="n">
         <v>0.6542914833105681</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G125" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H125" t="n">
         <v>0.0408298151824439</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I125" t="n">
         <v>0.3467229570808978</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="inlineStr">
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>Name: Chemical Reagents Journal  
 1. Read and download Chemical Reagents e-journals conveniently and freely via our WeChat public account.  
@@ -4143,7 +5232,7 @@
 The Chemical Reagents journal is your window into the reagents industry and a platform to acquire expertise!</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>名称：《化学试剂》期刊  
 1. 通过我们的微信公众号，便捷且免费地阅读和下载《化学试剂》电子期刊。  
@@ -4152,34 +5241,34 @@
 《化学试剂》期刊是您了解试剂行业动态及获取专业知识的重要窗口与平台！</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F99" t="n">
+      <c r="F126" t="n">
         <v>0.3232916774176482</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G126" t="n">
         <v>0.782051282051282</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H126" t="n">
         <v>0.07230195737296644</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I126" t="n">
         <v>0.2769804262703359</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B127" t="n">
         <v>2</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Name: Chemical Reagents Journal  
 1. Free reading and downloading of the electronic edition of "Chemical Reagents" via the WeChat public account, convenient and fast;  
@@ -4188,7 +5277,7 @@
 The journal "Chemical Reagents" is your window into the reagent industry and your platform for gaining knowledge!</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>刊名：《化学试剂》杂志  
 1. 通过微信公众号免费阅读和下载《化学试剂》电子版，方便快捷；  
@@ -4197,34 +5286,34 @@
 《化学试剂》杂志是您观察试剂行业的窗口，是您获取知识的平台！</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F100" t="n">
+      <c r="F127" t="n">
         <v>0.3925068466280047</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G127" t="n">
         <v>0.7948717948717948</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H127" t="n">
         <v>0.06981422911554105</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I127" t="n">
         <v>0.2669505942868189</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B128" t="n">
         <v>3</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Name: Chemical Reagents Journal  
 1. Free reading and downloading of Chemical Reagents e-journal via WeChat official account, convenient and fast;  
@@ -4233,7 +5322,7 @@
 Chemical Reagents journal is your window to understanding the reagent industry and your platform for gaining knowledge!</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>名称：《化学试剂》期刊  
 1. 通过微信公众号免费阅读和下载《化学试剂》电子期刊，方便快捷；  
@@ -4242,190 +5331,190 @@
 《化学试剂》期刊是您了解试剂行业的窗口，是您获取知识的平台！</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F101" t="n">
+      <c r="F128" t="n">
         <v>0.483817293860203</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G128" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H128" t="n">
         <v>0.06622525692407773</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I128" t="n">
         <v>0.370860059221262</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="inlineStr">
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above designated size nationwide was 75.1%, down by 0.5 percentage points year-on-year and up by 0.2 percentage points quarter-on-quarter. Broken down by three main industries, in the third quarter of 2024, capacity utilization was 74.6% in mining, 75.2% in manufacturing, and 74.3% in the production and supply of electricity, heat, gas, and water. By key industry, in the third quarter of 2024, capacity utilization was 72.7% in coal mining and washing, 70.7% in food manufacturing, 77.9% in textiles, 61.7% in non-metallic mineral products, 77.4% in smelting and pressing of ferrous metals, 78.4% in smelting and pressing of non-ferrous metals, 78.7% in general equipment manufacturing, 75.8% in special equipment manufacturing, 73.2% in automobile manufacturing, and 75.6% in electrical machinery and equipment manufacturing.</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>2024年三季度，全国规模以上工业产能利用率为75.1%，同比下降0.5个百分点，环比上升0.2个百分点。分三大门类看，2024年三季度采矿业产能利用率为74.6%，制造业为75.2%，电力、热力、燃气及水生产和供应业为74.3%。分主要行业看，2024年三季度煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F102" t="n">
+      <c r="F129" t="n">
         <v>0.6714603807520579</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G129" t="n">
         <v>0.9215686274509803</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H129" t="n">
         <v>0.0287802186754319</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I129" t="n">
         <v>0.5826868292062373</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B130" t="n">
         <v>2</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, China's industrial capacity utilization rate for enterprises above designated size was 75.1%, down by 0.5 percentage points year-on-year but up by 0.2 percentage points compared to the second quarter. By the three major categories, in the third quarter of 2024, capacity utilization rates were: 74.6% for mining; 75.2% for manufacturing; and 74.3% for electricity, heat, gas, and water production and supply. Among major sectors, the utilization rate for coal mining and washing was 72.7%; food manufacturing was 70.7%; textiles was 77.9%; non-metallic mineral products was 61.7%; ferrous metal smelting and rolling processing was 77.4%; non-ferrous metal smelting and rolling processing was 78.4%; general equipment manufacturing was 78.7%; special equipment manufacturing was 75.8%; automotive manufacturing was 73.2%; electrical machinery and equipment manufacturing was 75.6%.</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>2024年三季度，中国规模以上工业企业产能利用率为75.1%，同比下降0.5个百分点，比二季度上升0.2个百分点。分三大门类看，2024年三季度，采矿业产能利用率为74.6%，制造业为75.2%，电力、热力、燃气及水生产和供应业为74.3%。主要行业中，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F103" t="n">
+      <c r="F130" t="n">
         <v>0.638395087768349</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G130" t="n">
         <v>0.9215686274509803</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H130" t="n">
         <v>0.02206817613551578</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I130" t="n">
         <v>0.6910455341027794</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B131" t="n">
         <v>3</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, China's industrial capacity utilization rate reached 75.1%, decreasing by 0.5 percentage points year-on-year, yet increasing by 0.2 percentage points compared to the second quarter.  
 By the three main categories, in the third quarter of 2024, the capacity utilization rate stood at 74.6% for mining industry, 75.2% for manufacturing industry, and 74.3% for electricity, heat, gas, and water production and supply industries.  
 By major industry sectors, coal mining and washing industry's capacity utilization rate was 72.7%, food manufacturing industry 70.7%, textile industry 77.9%, non-metallic mineral products industry 61.7%, ferrous metal smelting and processing industry 77.4%, non-ferrous metal smelting and processing industry 78.4%, general equipment manufacturing industry 78.7%, special equipment manufacturing industry 75.8%, automobile manufacturing industry 73.2%, and electrical machinery and equipment manufacturing industry 75.6%.</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>2024年三季度，中国工业产能利用率达到75.1%，同比下降0.5个百分点，比二季度提高0.2个百分点。
 分三大门类看，2024年三季度采矿业产能利用率为74.6%，制造业为75.2%，电力、热力、燃气及水生产和供应业为74.3%。
 分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F104" t="n">
+      <c r="F131" t="n">
         <v>0.61668699945189</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G131" t="n">
         <v>0.8725490196078431</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H131" t="n">
         <v>0.0287802186754319</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I131" t="n">
         <v>0.5826868292062373</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B132" t="n">
         <v>3</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>The School of Chemistry and Chemical Engineering at Southeast University traces back to one of the major faculties of the former National Central University. The Department of Chemistry was initially established in 1920, followed by the Department of Chemical Engineering in 1928. In 1988, the Department of Chemistry and Chemical Engineering was reinstated, and in 2006, it became the School of Chemistry and Chemical Engineering. The school currently offers doctoral programs in two primary disciplines—"Chemical Engineering and Technology" and "Chemistry"—and master's programs in the same disciplines. It also includes PhD and master's programs in the secondary discipline of "Material Physics and Chemistry." Among these, the disciplines of "Applied Chemistry" and "New Materials" have been recognized as advantageous disciplines in Jiangsu Province. Furthermore, the school has established a postdoctoral research station in "Chemical Engineering and Technology."
 The school comprises three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Chemical Biology and Pharmaceutical Engineering. It has also successively set up the Institute of Fine Chemicals and the Institute of Pharmaceutical Engineering, as well as the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High Technology Research on Biological Pharmaceuticals, the Jiangsu Provincial Engineering Laboratory for Optoelectronic Functional Materials, and the Jiangsu Provincial Engineering Laboratory for Carbon-Rich Materials and Devices. The school is equipped with a teaching experiment center and shares equipment resources with the university-level Analytical and Testing Center located in the same building, providing excellent experimental conditions for teaching and research.
 Currently, the school employs 136 faculty and staff members (including full-time postdoctoral researchers and dedicated researchers), among whom 103 are teaching staff, 98% of whom</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>东南大学化学化工学院的前身可追溯到原国立中央大学的重要院系之一。化学系最初创建于1920年，化学工程系创建于1928年。1988年恢复建立化学化工系，2006年改建为化学化工学院。目前该学院拥有“化学工程与技术”和“化学”两个一级学科博士点及硕士点，同时设有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”专业被评为江苏省优势学科。此外，学院还设立了“化学工程与技术”博士后科研流动站。
 学院下设化学系、化工系、化学生物与制药工程系三个系，并先后成立了精细化工研究所、制药工程研究所，以及江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室。学院配备了教学实验中心，并与位于同一大楼的校级分析测试中心共用仪器设备资源，为教学科研提供了优良的实验条件。
 学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，专任教师中98%</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F105" t="n">
+      <c r="F132" t="n">
         <v>0.6626610776449648</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G132" t="n">
         <v>0.9111111111111111</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H132" t="n">
         <v>0.02448243133478785</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I132" t="n">
         <v>0.2532858442889705</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="inlineStr">
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
         <is>
           <t>Objective  
 This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the clinical detection of tumor markers, especially its application and effectiveness in early tumor screening.
@@ -4437,7 +5526,7 @@
 Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection, providing important support for early cancer diagnosis. The performance of tumor markers varies across different cancer types, suggesting that appropriate combinational use of markers should be selected clinically based on cancer type to improve accuracy in early diagnosis.</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>目的  
 本研究旨在评估化学发光免疫分析（CLIA）在肿瘤标志物临床检测中的敏感性和特异性，尤其关注其在肿瘤早期筛查中的应用及效果。
@@ -4449,34 +5538,34 @@
 化学发光免疫分析在肿瘤标志物检测中具有较高的敏感性和特异性，为癌症早期诊断提供了重要支持。不同肿瘤标志物在不同癌症类型中的检测效果存在差异，因此在临床实践中应根据癌种合理选择联合应用，以提升癌症早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F106" t="n">
+      <c r="F133" t="n">
         <v>0.5760485928174943</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G133" t="n">
         <v>0.93125</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H133" t="n">
         <v>0.01778644410502027</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I133" t="n">
         <v>0.2974354578516994</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B134" t="n">
         <v>2</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Objective: This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) for clinical tumor marker testing, especially its effectiveness in early cancer screening.
 Methods: A total of 1,246 serum samples collected between March and June 2024 at the health examination center of Hospital A were analyzed by CLIA for tumor markers including AFP, CEA, CA-125, and CA-199. Sensitivity, specificity, and predictive values (PPV and NPV) were evaluated by comparison with clinical diagnosis results. Statistical analysis was performed using SPSS 26.0 software, and comparisons between groups were conducted by chi-square test and t-test.
@@ -4484,7 +5573,7 @@
 Conclusion: Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection and can provide important support for the early diagnosis of tumors. Because the performance of markers varies across different tumor types, marker combinations should be selected based on specific tumor types to enhance the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，尤其是在肿瘤早期筛查中的有效性。
 方法：收集2024年3月至2024年6月期间在A医院健康体检中心的血清样本共计1,246份，采用CLIA法检测其中的肿瘤标志物AFP、CEA、CA-125及CA-199，以临床诊断结果为对照，评价其敏感性、特异性以及预测价值（阳性预测值PPV和阴性预测值NPV）。使用SPSS 26.0进行统计学分析，组间比较采用卡方检验和t检验。
@@ -4492,34 +5581,34 @@
 结论：化学发光免疫分析在肿瘤标志物检测方面具有较高的敏感性及特异性，可为肿瘤早期诊断提供重要支持。由于不同类型肿瘤标志物检测表现存在差异，应根据具体肿瘤类型选择合适的标志物组合，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F107" t="n">
+      <c r="F134" t="n">
         <v>0.5681308453605356</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G134" t="n">
         <v>0.90625</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H134" t="n">
         <v>0.01634060096121112</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I134" t="n">
         <v>0.3708868629933713</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B135" t="n">
         <v>3</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Objective   
 This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the clinical detection of tumor markers, particularly its effectiveness in early tumor screening.
@@ -4531,7 +5620,7 @@
 Chemiluminescence immunoassay demonstrates high sensitivity and specificity in detecting tumor markers, offering strong support in early tumor diagnosis. Due to variations in performance among tumor markers for different cancer types, clinical practice should select appropriate combinations of markers according to tumor type to improve early diagnostic accuracy.</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>目的  
 本研究旨在评估化学发光免疫分析（CLIA）在肿瘤标志物临床检测中的敏感性和特异性，尤其是在肿瘤早期筛查中的应用效果。
@@ -4543,1148 +5632,59 @@
 化学发光免疫分析在肿瘤标志物检测中具有较高的敏感性和特异性，对于肿瘤早期诊断具有较强的支持作用。鉴于不同标志物对不同癌种的检测效能存在差异，临床实践中需根据肿瘤类型选择合适的肿瘤标志物组合，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F108" t="n">
+      <c r="F135" t="n">
         <v>0.593046449074024</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G135" t="n">
         <v>0.88125</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H135" t="n">
         <v>0.01768342049582686</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I135" t="n">
         <v>0.3368717314064923</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>On September 21, the "Chemistry Future: Acta Chimica Sinica 2024 Youth Forum" was held at the Yuhua campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University, and hosted by the School of Chemistry and Environment at Yunnan Minzu University, the Yunnan Provincial Key Laboratory of Chiral Functional Materials Research and Application, the National and Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of Acta Chimica Sinica (Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences), with co-organization from the Yunnan Chemical Society. Nearly 180 experts and scholars from 87 universities and research institutions nationwide attended the meeting. Academician Tang Yong of the Shanghai Institute of Organic Chemistry, CAS; Researcher Fan Qinghua, Party Secretary of the Institute of Chemistry, CAS; and Ruan Chaoqi, Party Secretary of Yunnan Minzu University, delivered opening speeches respectively.</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>9月21日，“化学未来：2024中国化学青年论坛”在云南民族大学雨花校区举办。本次论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院共同主办，云南民族大学化学与环境学院、云南省手性功能材料研究与应用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、《化学学报》联合编辑部（中国科学院上海有机化学研究所）承办，云南省化学会协办。来自全国87所高校和科研院所的近180名专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记樊春海研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>OpenAI-GPT-4.5</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>0.7479877862281287</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.9140625</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.05339326564858937</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.2524942809197491</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>As the new curriculum reform continues to deepen, the interdisciplinary integration of high school chemistry and biology courses has become an important way to improve students' overall quality. In the daily teaching process, teachers should further enhance their attention to interdisciplinary teaching strategies, thereby helping students to gain a deeper understanding of related knowledge. Based on this, this paper takes "Proteins, the main bearers of life activities" as an example, to explore the strategies of interdisciplinary teaching of chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative abilities.</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>随着新课程改革的不断深入，高中化学与生物课程的跨学科整合已成为提高学生整体素质的重要途径。在日常教学过程中，教师应进一步加强对跨学科教学策略的关注，从而帮助学生更深入地理解相关知识。基于此，本文以“蛋白质，生命活动的主要承担者”为例，探讨化学在生物课堂中的跨学科教学策略，旨在提升学生的科学素养和创新能力。</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>0.6086884054825042</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.07376700808041584</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.3360969272762575</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>As the new curriculum reform continues to deepen, the integrated teaching of high school chemistry and biology has become an important approach to enhancing students' overall quality. In the daily teaching process, teachers should further increase their attention to strategies for integrated teaching, thereby helping students gain a deeper understanding of related knowledge. Based on this, this paper takes "the main carrier of life activities - proteins" as an example to explore strategies for the integrated teaching of high school chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative capabilities.</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>随着新课程改革的不断深入，高中化学与生物的融合教学已成为提升学生整体素质的重要途径。在日常教学过程中，教师应进一步加强对融合教学策略的关注，从而帮助学生更深入地理解相关知识。基于此，本文以“生命活动的主要载体——蛋白质”为例，探讨高中化学在生物课堂中的融合教学策略，旨在提升学生的科学素养和创新能力。</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>0.6636689067563107</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.8645833333333334</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.07730826870358362</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.2655714473159557</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>3</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>As the new curriculum reform continues to deepen, the integrated teaching of high school chemistry and biology has become an important way to enhance students' comprehensive qualities. In the daily teaching process, teachers should further increase their emphasis on strategies for integrated teaching, thereby helping students gain a deeper understanding of related knowledge. Based on this, this paper takes "Proteins, the main bearers of life activities" as an example to explore the strategies of integrated teaching of chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative abilities.</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>随着新课程改革的不断深入，高中化学与生物的综合教学已成为提升学生综合素质的重要途径。在日常教学过程中，教师应进一步加强对综合教学策略的重视，从而帮助学生更深入地理解相关知识。基于此，本文以“蛋白质，生命活动的主要承担者”为例，探讨化学在生物课堂中的综合教学策略，旨在提升学生的科学素养和创新能力。</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>0.6318708634924939</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.07376700808041584</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.3360969272762575</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>**Element View:** Matter is composed of elements; elements can be categorized into different types, with different elements having different properties and similar elements sharing similar properties; the properties of matter are related to the composition of elements, allowing for classification of matter based on elemental composition; the types of elements remain unchanged before and after chemical reactions...
-**Classification View:** Choose the objects and perspectives (features) for classification, including the classification of elements, matter, changes, chemical reactions, conditions of chemical reactions, properties of matter, structure of matter, classification of variables affecting experiments, classification of experimental principles, equipment, and operations...
-**Particle View:** Matter is made up of microscopic particles...</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>**元素观：** 物质由元素组成；元素可以分为不同类型，不同的元素具有不同的性质，相似元素具有相似的性质；物质的性质与元素的组成有关，可以根据元素组成对物质进行分类；化学反应前后的元素类型保持不变……
-**分类观：** 选择对象和视角（特征）进行分类，包括元素的分类、物质的分类、变化的分类、化学反应的分类、化学反应条件的分类、物质性质的分类、物质结构的分类、影响实验的变量分类、实验原理的分类、设备和操作的分类……
-**微粒观：** 物质由微观粒子构成……</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>0.5623605689784842</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.7662337662337663</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.03865413435179182</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.2655714473159559</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>"Journal of Life Chemistry" was founded in 1980 and is published by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal of biology distributed both domestically and internationally. As a core journal of Chinese science and technology, it has been indexed by databases such as Chemical Abstracts (CA) in the US, the Japan Science and Technology Agency (JST), the Chinese Science and Technology Papers and Citations Database (CSTPCD), the Chinese Biological Abstracts (CBA), and China Journal Net, among others. In 2015, it was selected as an exemplary journal by the China Association for Science and Technology. The journal features sections on research papers, reviews, education, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>《生命化学杂志》创刊于1980年，由中国生物化学与分子生物学会出版，是一份涵盖生物学领域的综合性学术期刊，国内外发行。作为中国科技核心期刊，该刊已被美国的《化学文摘》（CA）、日本科学技术振兴机构（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘（CBA）和中国期刊网等数据库收录。2015年被中国科协评为优秀期刊。杂志设有研究论文、综述、教育、研究前沿、技术与方法、中医药生物化学等栏目。</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>0.5718804339343632</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.8282828282828283</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.04228898861521332</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.2599426992337673</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>"Chemistry of Life" was first published in 1980, sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal in the field of biology, open to both domestic and international readers. It is a core Chinese science and technology journal, indexed by databases such as the American Chemical Abstracts (CA), Japan Science and Technology Agency (JST), China Science and Technology Papers and Citations Database (CSTPCD), China Biological Abstracts Database (CBA), and China Journal Net among others. In 2015, it was selected as an exemplary journal by the China Association for Science and Technology. It features sections like research papers, reviews, teaching, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>《生命化学》首次出版于1980年，由中国生物化学与分子生物学会赞助。它是生物学领域的综合性学术期刊，面向国内外读者。它是中国核心科技期刊，被美国化学文摘（CA）、日本科学技术振兴机构（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等数据库收录。2015年，它被中国科学技术协会评选为示范期刊。其特色栏目包括研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等。</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>0.5398650741944994</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.797979797979798</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.04134048818601394</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.2972117008377632</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>3</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"Chemistry of Life" was founded in 1980, hosted by the Chinese Society of Biochemistry and Molecular Biology, and is a comprehensive academic journal on biology open to both domestic and international audiences. It is a core journal in Chinese science and technology, indexed by databases such as the American Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Science and Technology Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net, among other domestic and international databases. In 2015, it was selected as a premium journal by the China Association for Science and Technology. It features sections such as research papers, reviews, education, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>《生命化学》创刊于1980年，由中国生物化学与分子生物学学会主办，是一份面向国内外读者的综合性生物学学术期刊。它是中国科技核心期刊，被美国化学文摘（CA）、日本科学技术情报机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外数据库收录。2015年被中国科学技术协会评选为精品期刊。其内容包括研究论文、综述、教育、研究前沿、技术与方法、中医药生物化学等版块。</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>0.5958828493678181</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.8080808080808081</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.04143968134792317</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.3576849391071911</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>**Journal Name: Chemical Reagents**
-1. Free reading and downloading of the electronic journal "Chemical Reagents" available on WeChat public account, convenient and fast;
-2. Stay informed about industry news and hot topics in the chemical reagents sector, acquire popular science knowledge in the field of reagents;
-3. Timely access to information and content of domestic chemical conferences. 
-"Chemical Reagents" journal is your window to understanding the reagent industry and a platform for acquiring knowledge!</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>**期刊名称：化学试剂**
-1. 微信公众号免费提供《化学试剂》电子期刊的阅读与下载，方便快捷；
-2. 了解化学试剂行业新闻与热点，获取试剂领域的科普知识；
-3. 及时获取国内化学会议的信息与内容。
-《化学试剂》期刊是您了解试剂行业的窗口和获取知识的平台！</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>0.4320043035356105</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.0749228456715839</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.2882329661199533</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;大学生思想政治教育对化学专业就业的影响是一个重要的研究课题。在现代教育中，思想政治教育不仅关乎学生的品德发展，还能在就业竞争中发挥潜在的优势。特别是化学专业，学生除了需要具备扎实的专业知识，还需要具备强烈的社会责任感、创新精神和职业道德。这些正是思想政治教育能够影响的关键因素。通过加强思想政治教育，学生能够更好地理解国家战略需求、环境保护的重要性以及创新驱动发展的必要性，从而在未来的就业市场中拥有更为突出的竞争力。</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>3</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>The impact of ideological and political education on the employment of chemistry majors is an important research topic. In modern education, ideological and political education not only concerns the moral development of students but also provides a potential advantage in the job market. Particularly for chemistry majors, in addition to possessing solid professional knowledge, students need a strong sense of social responsibility, an innovative spirit, and professional ethics. These are key factors that ideological and political education can influence. By enhancing ideological and political education, students can better understand national strategic needs, the importance of environmental protection, and the necessity of innovation-driven development, thereby gaining a more prominent competitive edge in the future job market.</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>意识形态和政治教育对化学专业学生就业的影响是一个重要的研究课题。在现代教育中，思想政治教育不仅关系到学生的道德发展，而且在就业市场上提供潜在的优势。特别是对于化学专业的学生，除了拥有扎实的专业知识外，还需要有强烈的社会责任感、创新精神和职业道德。这些都是思想政治教育可以影响的关键因素。通过加强思想政治教育，学生能够更好地理解国家战略需求、环境保护的重要性以及创新驱动发展的必要性，从而在未来的就业市场中获得更突出的竞争优势。</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>0.7552388197988299</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.9067796610169492</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.07234724682725428</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.2403539083138301</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>In the third quarter of 2024, the national capacity utilization rate of industrial enterprises above designated size was 75.1%, a decrease of 0.5 percentage points from the same period last year, and an increase of 0.2 percentage points from the second quarter. Looking at the three major sectors, in the third quarter of 2024, the capacity utilization rate for the mining industry was 74.6%; for manufacturing, it was 75.2%; and for the production and supply of electricity, heat, gas, and water, it was 74.3%. By major industries, in the third quarter of 2024, the capacity utilization rate for coal mining and washing was 72.7%; food manufacturing was 70.7%; textiles was 77.9%; non-metallic mineral products was 61.7%; ferrous metal smelting and rolling processing was 77.4%; non-ferrous metal smelting and rolling processing was 78.4%; general equipment manufacturing was 78.7%; specialized equipment manufacturing was 75.8%; automobile manufacturing was 73.2%; and electrical machinery and equipment manufacturing was 75.6%.</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，较去年同期下降0.5个百分点，较第二季度上升0.2个百分点。从三大门类看，2024年第三季度，采矿业产能利用率为74.6%；制造业为75.2%；电力、热力、燃气及水生产和供应业为74.3%。按主要行业分，2024年第三季度，煤炭开采和洗选业产能利用率为72.7%；食品制造业为70.7%；纺织业为77.9%；非金属矿物制品业为61.7%；黑色金属冶炼及压延加工业为77.4%；有色金属冶炼及压延加工业为78.4%；通用设备制造业为78.7%；专用设备制造业为75.8%；汽车制造业为73.2%；电气机械及器材制造业为75.6%。</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>0.5880340619170165</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.9313725490196079</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.04457229447809327</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.2422709938724145</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>"Chemical Engineering and Equipment" is an academic journal in the field of chemical engineering, approved for publication by the National Press and Publication Administration of China. It is publicly distributed and has been indexed by the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Corporation Limited and sponsored by the Fujian Province Institute of Chemical Industry Science and Technology. It was first published in 1972, is a monthly publication, and issues are released on the 25th of each month.</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>《化工与设备》是中国国家新闻出版广电总局批准出版的化工领域学术期刊。该期刊公开发行，已被中国学术期刊综合评价数据库（CAJCED）和中国期刊全文数据库（CJFD）收录。由福建石油化工集团有限责任公司监督，福建省化工科学研究院主办。首次出版于1972年，月刊，每月25日发行。</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>0.4437690235827193</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.8111111111111111</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.07234724682725428</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.2403539083138301</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>3</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>The School of Chemistry and Chemical Engineering at Southeast University was originally one of the key departments of the former Central University. The Department of Chemistry was established in 1920, the Department of Chemical Engineering in 1928, the Department of Chemistry and Chemical Engineering was reestablished in 1988, and the School of Chemistry and Chemical Engineering was founded in 2006. The school currently has doctoral programs in the first-level disciplines of "Chemical Engineering and Technology" and "Chemistry," and master's programs in "Chemistry" and "Chemical Engineering and Technology." It also offers second-level doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are key disciplines in Jiangsu Province. Additionally, there is a postdoctoral research station for "Chemical Engineering and Technology." The school consists of three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Biochemical and Pharmaceutical Engineering. It has established the Institute of Fine Chemicals and the Institute of Pharmaceutical Engineering, and houses key laboratories such as the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Applications, the Jiangsu Provincial Key Laboratory for High Technology of Biomedicine, the Jiangsu Provincial Optoelectronic Functional Materials Engineering Laboratory, and the Jiangsu Provincial Rich-Carbon Materials and Devices Engineering Laboratory. The school has a teaching experiment center and shares equipment resources with the university-level analysis and testing center in the same building, providing excellent experimental conditions for teaching and research. The school currently employs 136 staff members (including full-time postdoctoral researchers and dedicated research staff), of which 103 are full-time faculty members, with 98%</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>东南大学化学与化工学院最初是原中央大学的重点院系之一。化学系成立于1920年，化工系成立于1928年，化学与化工系于1988年重建，化学与化工学院于2006年成立。学院目前拥有“化学工程与技术”和“化学”一级学科博士点，以及“化学”和“化学工程与技术”硕士点。此外，还设有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”是江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院由化学系、化工系和生物化工与药物工程系组成，并设立了精细化工研究所和药物工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物医学高技术重点实验室、江苏省光电功能材料工程实验室和江苏省富碳材料与器件工程实验室。学院拥有一个教学实验中心，并与校级分析测试中心共享同一大楼的设备资源，为教学和科研提供了优越的实验条件。目前，学院共有员工136名（包括专职博士后和专职科研人员），其中专任教师103名，98%的教师拥有博士学位。</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0.6211640273377456</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.02265590593719599</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.2863389629783258</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>**Objective** This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in clinical tumor marker detection, particularly its application in early tumor screening.
-**Methods** Serum samples from 1,246 individuals at Hospital A's physical examination center from March to June 2024 were selected to analyze the CLIA detection results of tumor markers such as AFP, CEA, CA-125, and CA-199. The sensitivity, specificity, and predictive values (PPV and NPV) were assessed by comparing the results with clinical diagnoses. Data were statistically analyzed using SPSS 26.0 software, with group comparisons made using chi-square tests, t-tests, etc.
-**Results** The CLIA results showed that CA-125 had the highest sensitivity (89.5%), followed by AFP and CA-199 with sensitivities of 80.3% and 85.7% respectively, while CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity of different tumor markers in liver, ovarian, gastric, and colorectal cancers (P &lt; 0.05).
-**Conclusion** CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies across different types of tumors, suggesting that clinical practice should select appropriate markers for combined detection based on tumor type to enhance the accuracy of early diagnosis.</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>**目标** 本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用。
-**方法** 选取2024年3月至6月期间，医院A体检中心的1,246名个体血清样本，分析AFP、CEA、CA-125和CA-199等肿瘤标志物的CLIA检测结果。通过与临床诊断结果对比，评估其敏感性、特异性以及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，组间比较采用卡方检验、t检验等。
-**结果** CLIA结果显示，CA-125的敏感性最高（89.5%），其次是AFP和CA-199，敏感性分别为80.3%和85.7%，而CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性存在显著差异（P &lt; 0.05）。
-**结论** CLIA在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同类型的肿瘤中的表现各有不同，建议临床实践根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>0.6833973301115077</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.94375</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.01531771203528287</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.4409035107121747</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>**Objective** This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its application in early tumor screening.
-**Methods** Serum samples from 1,246 individuals at Hospital A’s health examination center from March to June 2024 were selected. The detection results of tumor markers like AFP, CEA, CA-125, and CA-199 were analyzed using CLIA. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with inter-group comparisons performed using chi-square tests, t-tests, and other methods.
-**Results** CLIA results showed that CA-125 had the highest sensitivity at 89.5%, while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively. CEA had the lowest sensitivity at 68.5%. In terms of specificity, CEA performed best at 95.8%, followed by AFP, CA-199, and CA-125 at 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt;0.05).
-**Conclusion** Chemiluminescence immunoassay shows high sensitivity and specificity in detecting tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies with tumor types, and clinical practice should select appropriate markers for combined detection to enhance the accuracy of early diagnosis.</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>**目标** 本研究旨在评估化学发光免疫分析（CLIA）在检测临床肿瘤标志物中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用。
-**方法** 选取2024年3月至6月期间A医院健康体检中心的1,246名个体的血清样本。使用CLIA分析AFP、CEA、CA-125和CA-199等肿瘤标志物的检测结果。通过与临床诊断结果对比，评估敏感性、特异性及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，组间比较使用卡方检验、t检验等方法。
-**结果** CLIA结果显示CA-125的敏感性最高，达89.5%，而AFP和CA-199的敏感性分别为80.3%和85.7%。CEA的敏感性最低，为68.5%。在特异性方面，CEA表现最佳，达95.8%，其次是AFP、CA-199和CA-125，分别为92.4%、90.3%和88.2%。在肝癌、卵巢癌、胃癌和结直肠癌中，不同肿瘤标志物的敏感性存在显著差异（P &lt;0.05）。
-**结论** 化学发光免疫分析在检测肿瘤标志物方面表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物的表现因肿瘤类型而异，临床实践中应选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>0.6375046330446916</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.01731635618378151</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.3246621088325209</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>3</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>**Objective** This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the clinical detection of tumor markers, particularly its application in early tumor screening.
-**Methods** A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected. The chemiluminescence assay results for tumor markers such as AFP, CEA, CA-125, and CA-199 were analyzed. The sensitivity, specificity, and predictive values (PPV and NPV) were assessed by comparing with clinical diagnoses. Data were statistically analyzed using SPSS 26.0 software, with comparisons between groups conducted using chi-square and t-tests.
-**Results** The chemiluminescence assay results showed that CA-125 had the highest sensitivity (89.5%), with AFP and CA-199 sensitivities at 80.3% and 85.7% respectively, and CEA having the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), followed by AFP, CA-199, and CA-125 at 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity of different tumor markers for liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt;0.05).
-**Conclusion** Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. Different markers show varied performance across different types of tumors, suggesting that clinical selection of appropriate markers for combined detection should be based on tumor type to enhance the accuracy of early diagnosis.</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>**目标** 本研究旨在评估化学发光免疫分析法（CLIA）在肿瘤标志物临床检测中的敏感性和特异性，特别是在早期肿瘤筛查中的应用。
-**方法** 选取了2024年3月至6月期间在A医院体检中心的1246例血清样本。分析了肿瘤标志物如AFP、CEA、CA-125和CA-199的化学发光检测结果。通过与临床诊断比较，评估了敏感性、特异性以及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，采用卡方检验和t检验进行组间比较。
-**结果** 化学发光检测结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），其次是AFP、CA-199和CA-125，分别为92.4%、90.3%和88.2%。不同肿瘤标志物对肝癌、卵巢癌、胃癌和结直肠癌的敏感性存在显著差异（P &lt;0.05）。
-**结论** 化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同类型肿瘤中的表现各异，建议根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Grok-Beta</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>0.6784661133375397</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.93125</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.01628278679262552</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.4056782820691686</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;1 “玩转520化学桌游”资源利用与课程目标的设定1.1 资源利用：游戏教具与配套资源“玩转520化学桌游”是由钱扬义等自主开发的一套破解初中化学用语学习难题的教学用具，狭义指其中的5副牌(元素牌、物质牌、反应牌、实验牌、科学家牌)、1对骰子(阴离子骰子和阳离子骰子)、1副飞行棋(化合物飞行棋)等3类教具，6款游戏规则，以及配套的学生手册与教师用书，囊括初中化学22种元素符号、</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>3</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>&lt;Correct&gt;1 "Play with 520 Chemistry Board Games": Resource Utilization and Curriculum Goal Setting
-1.1 Resource Utilization: Game Teaching Aids and Supporting Resources
-"Play with 520 Chemistry Board Games" is a set of teaching tools independently developed by Qian Yangyi and others to solve the difficulties in learning junior high school chemistry terminology. In the narrow sense, it refers to 3 types of teaching aids: 5 decks of cards (element cards, substance cards, reaction cards, experiment cards, scientist cards), 1 pair of dice (anion dice and cation dice), 1 set of flying chess (compound flying chess), as well as 6 game rules, and supporting student manuals and teacher books, encompassing 22 element symbols in junior high school chemistry.</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>&lt;正确&gt;1 "玩转520化学桌游"：资源利用与课程目标设定
-1.1 资源利用：游戏教具和配套资源
-"玩转520化学桌游"是钱扬毅等人独立研发的一套解决初中化学术语学习难题的教学工具。狭义上，它指的是3类教具：5副牌（元素牌、物质牌、反应牌、实验牌、科学家牌），1对骰子（阴离子骰子和阳离子骰子），1套飞行棋（化合物飞行棋），以及6种游戏规则，配套学生手册和教师用书，囊括了初中化学中的22个元素符号。</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>0.534049152462826</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.8921568627450981</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.04015799326004501</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.3976301010993248</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>&lt;Main&gt;Element View: Matter is composed of elements; elements can be classified into different categories, different elements have different properties, and elements of the same type have similar properties; the properties of matter are related to its elemental composition, and matter can be classified according to its elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification View: Selection of classification objects and perspectives (characteristics), classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of material properties, classification of material structures, classification of influencing variables in experimental investigations, classification of experimental principles, experimental equipment, experimental operations... Particle View: Matter is composed of microscopic particles;</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>&lt;主题&gt;元素观：物质由元素组成；元素可以分为不同类别，不同元素具有不同性质，同类元素具有相似性质；物质的性质与其元素组成有关，物质可以按照元素组成进行分类；化学反应前后元素种类保持不变...分类观：分类对象和视角（特征）的选择，元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理的分类，实验仪器、实验操作的分类...微粒观：物质由微观粒子组成；</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>0.7325101263247498</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.8961038961038961</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.03375318893726088</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.3924425991293043</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>3</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>&lt;Elements View: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, similar elements have similar properties; the properties of matter are related to its elemental composition, and matter can be classified according to its elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification View: Select objects for classification and perspectives (characteristics) for classification, classification of elements, classification of substances, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of properties of matter, classification of structures of matter, classification of variables in experimental investigation, classification of experimental principles, experimental equipment, experimental operations... Particle View: Matter is composed of microscopic particles;&gt;</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>元素观：物质由元素组成；元素可分为不同类别，不同元素具有不同的性质，相似元素具有相似的性质；物质的性质与其元素组成有关，物质可按其元素组成进行分类；化学反应前后元素种类保持不变... 分类观：选择分类对象和分类角度（特征），元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究变量的分类，实验原理的分类，实验仪器的分类，实验操作的分类... 微粒观：物质由微观粒子组成；</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>0.6813708831233667</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.7792207792207793</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.03575253359008941</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.3743306621734355</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>"Chemistry of Life" was founded in 1980 and is sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal in biology that is publicly distributed both domestically and internationally. It is a core Chinese scientific and technological journal that has been included in international and domestic databases such as Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Scientific and Technical Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net. In 2015, it was selected as a premium journal by the China Association for Science and Technology. It features sections including research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>《生命的化学》创立于1980年，由中国生物化学与分子生物学会主办，是一本国内外公开发行的生物学综合性学术期刊。它是被Chemical Abstracts (CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)和中国期刊网等国内外数据库收录的中文核心科技期刊。2015年，它被中国科学技术协会评选为精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法以及中药生化学等栏目。</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>0.6924180424409746</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.04143968134792317</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.3576849391071911</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>3</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>"Chemistry of Life" was founded in 1980 and is a comprehensive academic journal in biology sponsored by the Chinese Society of Biochemistry and Molecular Biology, distributed publicly both domestically and internationally. It is a core Chinese scientific journal that has been indexed by international and domestic databases including American Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Scientific and Technical Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net. In 2015, it was selected as a premium journal by the China Association for Science and Technology. The journal features sections including research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>《生命的化学》创立于1980年，是中国生物化学与分子生物学会主办的生物学综合性学术期刊，面向国内外公开发行。该期刊是中国核心科技期刊，已被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等国内外数据库收录。2015年，该期刊被中国科学技术协会评选为精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法以及中药生物化学等栏目。</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>0.6259604796644526</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.03980118606840261</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.4029822089739611</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>&lt;Name&gt; Chemical Reagent Journal
-1. Free reading and downloading of "Chemical Reagent" electronic journal through WeChat official account, convenient and fast;
-2. Learn about chemical reagent industry information and hot reports, obtain popular science knowledge in the reagent field;
-3. Timely view of domestic chemical field conference information and content. "Chemical Reagent" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>&lt;Name&gt;化学试剂期刊
-1. 通过微信公众号免费阅读和下载《化学试剂》电子期刊，方便快捷；
-2. 了解化学试剂行业信息和热点报道，获取试剂领域科普知识；
-3. 及时查看国内化学领域会议信息和内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>0.6211640273377456</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.06840941148865846</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.384315296602074</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>2</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>&lt;Title&gt; Name: Chemical Reagents Journal
-1. Free to read and download "Chemical Reagents" e-journal on WeChat official account, convenient and fast;
-2. Learn about chemical reagent industry information and hot topics, acquire popular science knowledge in the reagent field;
-3. Timely check domestic chemical field conference information and content.
-"Chemical Reagents" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>&lt;Title&gt; 名称：《化学试剂》期刊
-1. 在微信公众号上免费阅读和下载《化学试剂》电子期刊，方便快捷；
-2. 了解化学试剂行业信息和热点话题，获取试剂领域科普知识；
-3. 及时查看国内化学领域会议信息和内容。
-《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>0.5299662230094143</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.8589743589743589</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.05846947542325447</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.4737747211907098</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t># Objective
-This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, especially its application effectiveness in early tumor screening.
-# Methods
-1,246 serum samples from the physical examination center of Hospital A during March to June 2024 were selected to analyze the chemiluminescence detection results of tumor markers including AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, their sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. Data were statistically analyzed using SPSS 26.0 software, with methods such as chi-square test and t-test for intergroup comparisons.
-# Results
-The chemiluminescence detection results showed that CA-125 had the highest sensitivity (89.5%), followed by AFP and CA-199 with sensitivities of 80.3% and 85.7% respectively, while CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity performance of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P&lt;0.05).
-# Conclusion
-Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies across different tumor types. Clinicians should select appropriate markers for combined detection based on tumor type to improve the accuracy of early diagnosis.</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t># 目标
-本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，尤其是其在早期肿瘤筛查中的应用效果。
-# 方法
-选取2024年3月至6月A医院体检中心的1,246份血清样本，分析肿瘤标志物AFP、CEA、CA-125和CA-199的化学发光检测结果。通过与临床诊断结果比较，评估其敏感性、特异性和预测值(PPV和NPV)。使用SPSS 26.0软件进行统计分析，采用卡方检验和t检验等方法进行组间比较。
-# 结果
-化学发光检测结果显示，CA-125具有最高的敏感性(89.5%)，其次是AFP和CA-199，敏感性分别为80.3%和85.7%，而CEA的敏感性最低(68.5%)。在特异性方面，CEA表现最佳(95.8%)，AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性表现存在显著差异(P&lt;0.05)。
-# 结论
-化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同肿瘤类型中的表现各异。临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>0.650894936583473</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.93125</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.01596240653081778</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.4173721616251504</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>2</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t># Objective
-This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in clinical tumor marker detection, especially its application effectiveness in early tumor screening.
-# Methods
-1,246 serum samples from Hospital A's physical examination center during March to June 2024 were selected to analyze the chemiluminescence detection results of tumor markers including AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. Data were statistically analyzed using SPSS 26.0 software, with chi-square tests, t-tests and other methods for inter-group comparisons.
-# Results
-The chemiluminescence detection results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7% respectively, with CEA having the lowest sensitivity (68.5%). Regarding specificity, CEA performed best (95.8%), while AFP, CA-199, and CA-125 had specificities of 92.4%, 90.3%, and 88.2% respectively. There were significant differences in sensitivity performance of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P&lt;0.05).
-# Conclusion
-Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection, providing important support for early tumor diagnosis. Different markers perform differently across various tumor types; clinicians should select appropriate markers for combined testing based on tumor type to improve early diagnostic accuracy.</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t># 目标
-本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用效果。
-# 方法
-选取2024年3月至6月期间A医院体检中心的1,246份血清样本，分析肿瘤标志物包括AFP、CEA、CA-125和CA-199的化学发光检测结果。通过与临床诊断结果比较，评估敏感性、特异性和预测值(PPV和NPV)。数据使用SPSS 26.0软件进行统计分析，采用卡方检验、t检验等方法进行组间比较。
-# 结果
-化学发光检测结果显示，CA-125敏感性最高(89.5%)，而AFP和CA-199的敏感性分别为80.3%和85.7%，CEA敏感性最低(68.5%)。在特异性方面，CEA表现最佳(95.8%)，而AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性表现存在显著差异(P&lt;0.05)。
-# 结论
-化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供重要支持。不同标志物在各种肿瘤类型中表现不同；临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断准确性。</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>0.6531620202566111</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.91875</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.01619503360046616</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.400783756782752</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>3</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Objective
-This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, especially its application effectiveness in early tumor screening.
-Methods
-1,246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected to analyze the chemiluminescence detection results of tumor markers including AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. SPSS 26.0 software was used for statistical analysis, with chi-square test, t-test and other methods for intergroup comparisons.
-Results
-The chemiluminescence detection results showed that CA-125 had the highest sensitivity (89.5%), while the sensitivity of AFP and CA-199 was 80.3% and 85.7% respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), while the specificity of AFP, CA-199, and CA-125 was 92.4%, 90.3%, and 88.2% respectively. There were significant differences in the sensitivity performance of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt;0.05).
-Conclusion
-Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. Different markers show varying performance across different tumor types. Clinicians should select appropriate markers for combined detection according to tumor type to improve the accuracy of early diagnosis.</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>目标
-本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，尤其是其在早期肿瘤筛查中的应用效果。
-方法
-选取2024年3月至6月A医院体检中心的1,246份血清样本，分析包括AFP、CEA、CA-125和CA-199在内的肿瘤标志物的化学发光检测结果。通过与临床诊断结果比较，评估其敏感性、特异性和预测值(PPV和NPV)。使用SPSS 26.0软件进行统计分析，采用卡方检验、t检验等方法进行组间比较。
-结果
-化学发光检测结果显示，CA-125具有最高的敏感性(89.5%)，而AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低(68.5%)。在特异性方面，CEA表现最佳(95.8%)，而AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。在肝癌、卵巢癌、胃癌和结直肠癌中，不同肿瘤标志物的敏感性表现存在显著差异(P&lt;0.05)。
-结论
-化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供重要支持。不同标志物在不同肿瘤类型中表现各异。临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>0.664424453203371</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.93125</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.01610500748442579</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.3960622193340329</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;化学产品在工业设计领域具有十分广泛的应用,涵盖了从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计提供了可能,有效改善了产品的物理强度、耐久性、可塑性、透明度等特性,从而满足不同场景的应用需求。因此,深入研究化学产品的特性、应用和创新有助于拓宽工业设计领域的发展空间并满足不断变化的市场需求,为工业领域的发展注入新的活力。</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>1</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>&lt;Title&gt; Chemical products have a very wide range of applications in the field of industrial design, covering various aspects from material selection to product manufacturing. The application of chemical products enables the optimized design of adhesives, coatings, plastics, rubber, cellulosic materials, and surface treatment agents, effectively improving the physical strength, durability, plasticity, transparency, and other characteristics of products to meet the application requirements of different scenarios. Therefore, in-depth research on the characteristics, applications, and innovations of chemical products helps to expand the development space of industrial design and meet the ever-changing market demands, injecting new vitality into the development of the industrial field.</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>&lt;标题&gt; 化学产品在工业设计领域有着非常广泛的应用范围，涵盖了从材料选择到产品制造的各个方面。化学产品的应用使得粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计成为可能，有效提高了产品的物理强度、耐久性、可塑性、透明度等特性，以满足不同场景的应用需求。因此，深入研究化学产品的特性、应用和创新有助于拓展工业设计的发展空间，满足不断变化的市场需求，为工业领域的发展注入新的活力。</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>0.7908745952947442</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.8962264150943396</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.04823867572265036</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.4211358913281958</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学产品在工业设计领域具有十分广泛的应用,涵盖了从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计提供了可能,有效改善了产品的物理强度、耐久性、可塑性、透明度等特性,从而满足不同场景的应用需求。因此,深入研究化学产品的特性、应用和创新有助于拓宽工业设计领域的发展空间并满足不断变化的市场需求,为工业领域的发展注入新的活力。</t>
+          <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>&lt;Article&gt; Chemical products have a wide range of applications in the field of industrial design, covering various aspects from material selection to product manufacturing. The application of chemical products enables the optimized design of adhesives, coatings, plastics, rubber, cellulose materials, and surface treatment agents, effectively improving product characteristics such as physical strength, durability, plasticity, and transparency, thereby meeting application requirements in different scenarios. Therefore, in-depth research on the characteristics, applications, and innovations of chemical products helps to expand the development space in the field of industrial design and meet constantly changing market demands, injecting new vitality into the development of the industrial sector.</t>
+          <t>On September 21, the "Chemistry Future: Acta Chimica Sinica 2024 Youth Forum" was held at the Yuhua campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University, and hosted by the School of Chemistry and Environment at Yunnan Minzu University, the Yunnan Provincial Key Laboratory of Chiral Functional Materials Research and Application, the National and Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of Acta Chimica Sinica (Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences), with co-organization from the Yunnan Chemical Society. Nearly 180 experts and scholars from 87 universities and research institutions nationwide attended the meeting. Academician Tang Yong of the Shanghai Institute of Organic Chemistry, CAS; Researcher Fan Qinghua, Party Secretary of the Institute of Chemistry, CAS; and Ruan Chaoqi, Party Secretary of Yunnan Minzu University, delivered opening speeches respectively.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>&lt;Article&gt; 化学产品在工业设计领域有着广泛的应用，涵盖了从材料选择到产品制造的各个方面。化学产品的应用使得粘合剂、涂料、塑料、橡胶、纤维素材料以及表面处理剂等设计得到优化，有效提高产品的物理强度、耐久性、可塑性和透明度等特性，从而满足不同场景的应用需求。因此，深入研究化学产品的特性、应用和创新，有助于拓展工业设计领域的发展空间，满足不断变化的市场需求，为工业领域的发展注入新的活力。</t>
+          <t>9月21日，“化学未来：2024中国化学青年论坛”在云南民族大学雨花校区举办。本次论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院共同主办，云南民族大学化学与环境学院、云南省手性功能材料研究与应用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、《化学学报》联合编辑部（中国科学院上海有机化学研究所）承办，云南省化学会协办。来自全国87所高校和科研院所的近180名专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记樊春海研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Claude-Sonnet-3.7</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.7528637258301598</v>
+        <v>0.7479877862281287</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.9140625</v>
       </c>
       <c r="H136" t="n">
-        <v>0.05087834853176271</v>
+        <v>0.05339326564858937</v>
       </c>
       <c r="I136" t="n">
-        <v>0.3640206433529664</v>
+        <v>0.2524942809197491</v>
       </c>
     </row>
   </sheetData>

--- a/results_metrics/all_outliers.xlsx
+++ b/results_metrics/all_outliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>BLEU-Unif</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>CHRF</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TER</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Semantic Similarity</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Semantic Sim</t>
         </is>
       </c>
     </row>
@@ -508,12 +513,15 @@
         <v>0.2741460467184158</v>
       </c>
       <c r="G2" t="n">
+        <v>0.1198244202156429</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.7281553398058253</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.1105964743265619</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.05992996822422367</v>
       </c>
     </row>
@@ -545,12 +553,15 @@
         <v>0.2760598596896769</v>
       </c>
       <c r="G3" t="n">
+        <v>7.562464168583712e-155</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6896551724137931</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,12 +593,15 @@
         <v>0.2769824849377372</v>
       </c>
       <c r="G4" t="n">
+        <v>0.11813366265311</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.7</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.08695652173913046</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,12 +633,15 @@
         <v>0.2769824849377372</v>
       </c>
       <c r="G5" t="n">
+        <v>2.485023185318202e-78</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6888888888888889</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.08695652173913046</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,12 +673,15 @@
         <v>0.2123292888921015</v>
       </c>
       <c r="G6" t="n">
+        <v>0.09139760567462452</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5194805194805194</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.04166666666666666</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -692,9 +712,12 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.04347826086956521</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,12 +749,15 @@
         <v>0.222730700102315</v>
       </c>
       <c r="G8" t="n">
+        <v>0.07103299201518434</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.08000000000000002</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -763,12 +789,15 @@
         <v>0.9309493362512627</v>
       </c>
       <c r="G9" t="n">
+        <v>0.9253911813809743</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9310344827586207</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -800,12 +829,15 @@
         <v>0.9309493362512627</v>
       </c>
       <c r="G10" t="n">
+        <v>0.9253911813809743</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9310344827586207</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -837,12 +869,15 @@
         <v>0.8251983888449983</v>
       </c>
       <c r="G11" t="n">
+        <v>0.7241577342575828</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.8620689655172413</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,86 +909,95 @@
         <v>0.2760598596896769</v>
       </c>
       <c r="G12" t="n">
+        <v>7.562464168583712e-155</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.6896551724137931</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems, which are extremely challenging. Achieving precise and efficient calculations manually is difficult; however, by utilizing computer-aided programming for computational tasks, the quality and efficiency of chemical dosage calculations can be significantly improved, offering high application value and practical significance.</t>
+          <t>The control effects of amino oligosaccharides combined with chemical fungicides on downy mildew of Chinese cabbage were investigated.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>化学工程领域涵盖广泛，涉及复杂工艺与众多计算步骤。其计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，极具挑战性。人工实现精确高效计算颇为困难；然而，借助计算机辅助编程进行运算，可大幅提升化工计算的质量与效率，具有较高的应用价值和现实意义。</t>
+          <t>氨基寡糖与化学杀菌剂联合使用对白菜霜霉病的防治效果进行了研究。</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DeepSeek-V3</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.2769824849377372</v>
+        <v>0.4787135538781691</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>5.195166368004445e-78</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08695652173913046</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems. These calculations are extremely challenging and difficult to achieve accurately and quickly by manual methods alone. However, by utilizing computer-assisted programming for computational calculations, it is possible to enhance the quality and efficiency of chemical dosage calculations, offering significant practical value and real-world significance.</t>
+          <t>Discussed the effect of combining amino oligosaccharides with chemical fungicides on controlling downy mildew in Chinese cabbage.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>化学工程领域涵盖广泛，涉及复杂过程与众多计算步骤。化工计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，这些计算极为复杂，仅凭手工方法难以准确且迅速地完成。然而，借助计算机辅助编程进行计算，可提升化工配比计算的质效，具有重要的实用价值与现实意义。</t>
+          <t>讨论了氨基寡糖与化学杀菌剂结合使用对控制大白菜霜霉病的影响。</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DeepSeek-V3</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.2769824849377372</v>
+        <v>0.5244044240850758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6888888888888889</v>
+        <v>6.017520605331913e-78</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08695652173913046</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -964,40 +1008,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The field of chemical engineering is broad in scope, and the entire process is complex, involving many calculation stages. Calculations in chemical engineering are often related to solving problems such as curve fitting, nonlinear equations, partial differential equations, and linear or nonlinear programming. These calculations are extremely difficult, making accurate and efficient manual calculation challenging. However, with the aid of computer-assisted programming to perform quantitative calculations, the practical application of chemical calculation amounts can be achieved to improve quality and efficiency, which holds extremely high application value and real-world significance.</t>
+          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems. These calculations are extremely challenging and difficult to achieve accurately and quickly by manual methods alone. However, by utilizing computer-assisted programming for computational calculations, it is possible to enhance the quality and efficiency of chemical dosage calculations, offering significant practical value and real-world significance.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>化学工程领域范围广泛，整个过程复杂，涉及许多计算环节。化学工程中的计算常常与解决诸如曲线拟合、非线性方程、偏微分方程以及线性或非线性规划等问题有关。这些计算极其困难，使得准确且高效的手动计算充满挑战。然而，借助计算机辅助编程进行定量计算，化学计算量的实际应用得以实现，从而提高质量和效率，这具有极高的应用价值和现实意义。</t>
+          <t>化学工程领域涵盖广泛，涉及复杂过程与众多计算步骤。化工计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，这些计算极为复杂，仅凭手工方法难以准确且迅速地完成。然而，借助计算机辅助编程进行计算，可提升化工配比计算的质效，具有重要的实用价值与现实意义。</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.3423200516847171</v>
+        <v>0.2769824849377372</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7222222222222222</v>
+        <v>2.485023185318202e-78</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07692307692307696</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="I15" t="n">
+        <v>0.08695652173913046</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1005,12 +1052,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Main Text: Chemical engineering has a broad scope and complex processes, involving numerous calculation steps. Calculations in chemical engineering are often related to solving curve fitting nonlinear equations, partial differential equations, and linear or nonlinear programming. These calculations are extremely difficult and hard to perform accurately and quickly by hand alone. However, with computer-aided programming for quantitative calculations, the quality and efficiency of chemical dosage calculations can be practically improved, which has extremely high application value and practical significance.</t>
+          <t>Element perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification perspective: Selecting the objects of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of conditions for chemical reactions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particulate perspective: Matter is composed of microscopic particles;</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>化学工程涉及领域广泛，工艺流程复杂，包含大量的计算步骤。化学工程中的计算常常涉及求解曲线拟合非线性方程、偏微分方程以及线性或非线性规划。这些计算极其困难，单靠手工难以准确快速地完成。然而，借助计算机辅助编程进行定量计算，化学计量计算的质量和效率可以得到实际提高，这具有极高的应用价值和实践意义。</t>
+          <t>元素觀點：物質由元素組成；元素可以分成不同類別，不同元素具有不同的性質，同類別的元素具有相似的性質；物質的性質與元素組成有關，物質可以根據元素組成進行分類；元素種類在化學反應前後保持不變…… 分類觀點：選擇分類的對象和分類的視角（特徵），元素的分類，物質的分類，變化的分類，化學反應的分類，化學反應條件的分類，物質性質的分類，物質結構的分類，實驗探究中影響變量的分類，實驗原理的分類，實驗儀器，和實驗操作…… 微粒觀點：物質由微觀粒子構成；</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1019,22 +1066,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.3320273240699305</v>
+        <v>0.2123292888921015</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>0.09139760567462452</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="I16" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学专业英语是英语与化学专业知识结合的一门科技英语,专门用来阐述化学领域相关的理论、技术、实验、过程及现象,是提升高校化学类相关专业学生从事化工领域岗位的基础性课程。化学化工行业使用的众多设备都是从国外引进的,设备使用说明书、结构参数等都是英文版的。这使得化学化工行业需要大量既懂专业知识又掌握专业英语技能的优秀人才。高职院校是培养生产一线高素质技术型人才的主阵地,项目化教学的优势符合高职院校化工技术类专业英语课程教学的需要,提高教学的针对性与实效性,提高学生化工专业英语的掌握程度,帮助他们顺利融入工作岗位。</t>
+          <t>&lt;正&gt;大学生思想政治教育对化学专业就业的影响是一个重要的研究课题。在现代教育中，思想政治教育不仅关乎学生的品德发展，还能在就业竞争中发挥潜在的优势。特别是化学专业，学生除了需要具备扎实的专业知识，还需要具备强烈的社会责任感、创新精神和职业道德。这些正是思想政治教育能够影响的关键因素。通过加强思想政治教育，学生能够更好地理解国家战略需求、环境保护的重要性以及创新驱动发展的必要性，从而在未来的就业市场中拥有更为突出的竞争力。</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1042,12 +1092,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chemical Professional English is a branch of technical English that integrates English with specialized chemical knowledge. It is specifically used to describe theories, technologies, experiments, processes, and phenomena related to the field of chemistry and serves as a foundational course for students in chemistry-related majors in higher education to prepare them for positions in the chemical industry.  Many pieces of equipment used in the chemical and chemical engineering industries are imported from overseas. Equipment manuals, structural parameters, and the like are all in English. This necessitates a large number of highly skilled personnel in the chemical and chemical engineering industry who possess both professional knowledge and proficient professional English skills. Vocational colleges are the primary institutions for cultivating high-quality, technically skilled personnel for front-line production. The advantages of project-based teaching align with the needs of professional English language courses for chemical technology-related majors in vocational colleges, enhancing the relevance and effectiveness of teaching. This approach aims to improve students' proficiency in chemical professional English and help them seamlessly integrate into their professional roles.</t>
+          <t>The impact of ideological and political education on the employment of chemistry majors is an important research topic. In modern education, ideological and political education is not only about students' moral development, but also can demonstrate potential advantages in job competition. Especially chemistry majors, besides having solid professional knowledge, students also need to possess a strong sense of social responsibility, spirit of innovation, and professional morality. These are precisely the key factors that ideological and political education can affect. By strengthening ideological and political education, students can better understand national strategic needs, the significance of environmental protection, and the necessity for innovation-driven development, and thus gain more prominent competitiveness in the future job market.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>化学专业英语是科技英语的一个分支，它将英语与专门的化学知识相结合。它专门用于描述与化学领域相关的理论、技术、实验、过程和现象，是高等教育中化学相关专业学生的基础课程，为他们将来在化工行业任职做好准备。化工和化学工程行业中使用的许多设备都是从海外进口的。设备手册、结构参数等都是英文的。这就需要在化工和化学工程行业中拥有大量既具备专业知识又精通专业英语技能的高素质人才。职业院校是为一线生产培养高素质技术技能人才的主要机构。项目式教学的优势与职业院校化学技术相关专业专业英语课程的需求相契合，提升了教学的相关性和有效性。这种方法旨在提高学生的化学专业英语水平，帮助他们无缝衔接到职业角色中。</t>
+          <t>意识形态和政治教育对化学专业学生就业的影响是一个重要的研究课题。在现代教育中，思想政治教育不仅关乎学生的道德发展，还能在就业竞争中展现潜在的优势。特别是化学专业的学生，除了拥有扎实的专业知识外，还需要具备强烈的社会责任感、创新精神和职业道德。而这些恰恰是思想政治教育能够影响的关键因素。通过加强思想政治教育，学生可以更好地理解国家战略需求、环境保护的重要性以及创新驱动发展的必要性，从而在未来的就业市场中获得更突出的竞争力。</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1056,22 +1106,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.343453182678216</v>
+        <v>0.8347746639038576</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7509357835546786</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06216045522255425</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06759317166168627</v>
+        <v>0.07234724682725428</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2403539083138301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1079,12 +1132,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Element perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification perspective: Selecting the objects of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of conditions for chemical reactions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particulate perspective: Matter is composed of microscopic particles;</t>
+          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>元素觀點：物質由元素組成；元素可以分成不同類別，不同元素具有不同的性質，同類別的元素具有相似的性質；物質的性質與元素組成有關，物質可以根據元素組成進行分類；元素種類在化學反應前後保持不變…… 分類觀點：選擇分類的對象和分類的視角（特徵），元素的分類，物質的分類，變化的分類，化學反應的分類，化學反應條件的分類，物質性質的分類，物質結構的分類，實驗探究中影響變量的分類，實驗原理的分類，實驗儀器，和實驗操作…… 微粒觀點：物質由微觀粒子構成；</t>
+          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1093,35 +1146,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.2123292888921015</v>
+        <v>0.4140897895345154</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5194805194805194</v>
+        <v>4.074530190774277e-78</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>在传统的初中化学复习教学活动中，教师很难将碎片化的知识进行充分整理，学生学习能力和综合素质的提高均受到较大影响。然而，游戏式教学法能够以鲜明的教学主题为核心，有效整合初中化学知识，从而形成更具系统性与结构性的知识框架，避免教学内容始终停留在浅层阶段。本文简要阐述初中化学复习教学中存在的问题，提出以游戏教学法对化学符号的知识进行复习教学的策略。</t>
+          <t>&lt;正&gt;公共场所是人们经常集聚的、供大众使用的综合性社会场所。公共场所主要为公众提供包括住宿、休闲、娱乐、公共交通等生活需求，近年来，伴随着经济社会的快速发展，公共场所类型和数量显著增加。同时，伴随着人们环保意识的增强，人们对于室内空气质量关注度持续提高。旅游酒店作为重要的公共场所，一般人员流动性较高，室内空气质量也会对住客和从业人员健康产生重要的影响。旅游酒店通常空间较为封闭狭小，易受装修材料、装饰装潢中的化学物质的影响，甲醛、氨等污染物可能在空气中累积，进而会对人体健康造成危害。因此，开展旅游酒店公共场所室内空气化学污染物的健康风险评估与治理至关重要。</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>In traditional junior high school chemistry review teaching, teachers find it hard to thoroughly organize fragmented knowledge, and the improvement of students' learning abilities and overall quality are significantly impacted. However, game-based pedagogy, centered around a distinct teaching theme, can effectively integrate junior high chemistry knowledge, thereby creating a more systematic and structured knowledge framework, and preventing teaching content from remaining at a superficial level. This paper briefly outlines the issues in junior high chemistry review teaching and proposes strategies for using game-based pedagogy to review the knowledge of chemical symbols in teaching.</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>传统初中化学复习教学中，教师难以系统地整理零散的知识，学生的学习能力和综合素质的提升也因此受到显著影响。然而，围绕明确教学主题的、基于游戏的教学法能够有效地整合初中化学知识，从而构建更系统化、结构化的知识体系，并避免教学内容停留在浅层层面。本文简要概述了初中化学复习教学中存在的问题，并提出了在教学中运用游戏化教学法复习化学符号知识的策略。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1130,35 +1182,38 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5235762970740585</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6831683168316832</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09493439123549045</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05065608764509524</v>
+        <v>0.04347826086956521</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+          <t>September 21st, the "Chemistry Future: Acta Chimica Sinica 2024 Youth Forum" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly hosted by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was organized by the School of Chemistry and Environment of Yunnan Minzu University, the Yunnan Provincial Key Laboratory of Chiral Functional Substances Research and Utilization, the National and Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of Acta Chimica Sinica of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, and co-organized by the Yunnan Chemical Society. Nearly 180 experts and scholars from 87 universities and research institutes across the country attended the meeting. Academician Tang Yong of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry, Chinese Academy of Sciences, and Ruan Chaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>壳寡糖结合化学杀菌剂对大白菜霜霉病的控制效果进行了研究。</t>
+          <t>9月21日，“化学未来——《化学学报》2024青年论坛”在云南民族大学雨花校区举行。论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所《化学学报》编辑部联合编辑部承办，云南省化学学会协办。来自全国87所高校和科研院所的近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1167,22 +1222,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.4140393356054125</v>
+        <v>0.8290078027424554</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.7489070621125404</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.9453125</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.04367794318631463</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4758646817642245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>在初中化学教学中,我们可以发挥评价在学困生转化中的育人功能。通过加强过程性评价,减少学困生的出现;深化综合评价,对学困生进行多层次、多维度的评价;重视增值评价,对学困生加强激励教育,实现以评促学,以评促教,为学困生自我发展赋能,促进其达到义务教育化学课程学业质量标准,提升其化学学科核心素养。</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1190,156 +1248,172 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
+          <t>In middle school chemistry education, we can leverage the educational function of assessment in transforming underperforming students. By enhancing process-oriented evaluation, we can reduce the occurrence of underperforming students; by deepening comprehensive evaluation, we can assess underperforming students in multiple layers and dimensions; by emphasizing value-added evaluation, we can strengthen incentive education for underperforming students, thereby promoting learning and teaching through assessment, empowering underperforming students for self-development, helping them meet the academic quality standards of compulsory chemistry education, and enhancing their core competencies in chemistry.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
+          <t>在中学化学教育中，我们可以利用评估的教育功能来转化后进生。通过强化过程性评价，我们可以减少后进生的出现；通过深化综合评价，我们可以多层次、多维度地评估后进生；通过强调增值评价，我们可以加强对后进生的激励教育，从而通过评估促进学习和教学，赋能后进生自我发展，帮助他们达到义务化学教育的学术质量标准，提升他们在化学的核心素养。</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Grok-Beta</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.4140897895345154</v>
+        <v>0.2771326538627135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7241379310344828</v>
+        <v>2.985866204101799e-78</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="I21" t="n">
+        <v>0.07407407407407411</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;正&gt;立足“新工科”专业教育场域,物理化学实验能力是化学、材料、生物、环保等专业人才的一项基本素养,在学科设置上,具备一定的前置条件,通常应在系统学习分析化学实验的基本原理与操作规范的基础上,以及熟悉常规实验工具、仪器、方法之后,再进入的物理化学实验领域。基于教学主体视角,物理化学实验的基本内涵是运用物理学知识、技术、经验及规律去解决化学问题,这意味着单个物理化学实验项目有着复合属性,所涉及的教学理论与实践过程也更为丰富、复杂。</t>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Grounded in the professional education field of "New Engineering Disciplines," physical chemistry experimental skills are a fundamental competency for professionals in fields such as chemistry, materials, biology, and environmental protection. In curriculum setup, it requires certain prerequisites. Typically, one should enter the realm of physical chemistry experiments after systematically learning the fundamental principles and operational standards of analytical chemistry experiments, and after becoming familiar with conventional experimental tools, instruments, and methodologies. From a teaching perspective, the fundamental essence of physical chemistry experiments is to utilize physics knowledge, techniques, experience, and principles to solve chemical problems. This implies that individual physical chemistry experiment projects possess a composite nature, and the teaching theories and practical procedures involved are also more extensive and intricate.</t>
+          <t>The field of chemical engineering is broad, with complex processes and numerous computational steps involved. Computations in chemical engineering often relate to curve fitting nonlinear equations, partial differentials, and solving linear or nonlinear programming problems. These calculations are extremely challenging, and manual methods alone cannot achieve precise and swift computations. By integrating computer-assisted programming for quantitative calculations, it is possible to enhance the efficiency and effectiveness of chemical dosage calculations, which holds significant practical value and significance.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>立足于“新工科”的专业教育领域，物理化学实验技能是化学、材料、生物和环境保护等领域专业人员的一项基本能力。在课程设置上，这需要一定的先修知识。通常，应该在系统学习分析化学实验的基本原理和操作规范，并熟悉常规实验工具、仪器和方法后，再进入物理化学实验的领域。从教学的角度来看，物理化学实验的本质是利用物理学的知识、技术、经验和原理来解决化学问题。这意味着物理化学实验项目具有综合性，并且其教学理论和实践环节也更加广泛和深入。</t>
+          <t>化学工程领域广泛，涉及复杂的过程和众多的计算步骤。化学工程中的计算通常涉及拟合非线性方程、偏微分以及解决线性或非线性规划问题。这些计算极其具有挑战性，仅靠手工方法无法实现精确而迅速的计算。通过整合计算机辅助编程进行定量计算，可以提高化学配比计算的效率和效果，这具有重要的实际价值和意义。</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Grok-Beta</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.4410318560003901</v>
+        <v>0.3079621209482627</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7142857142857143</v>
+        <v>2.694404072277162e-78</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04961457249049949</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0821304089257596</v>
+        <v>0.09090909090909093</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>&lt;正&gt;公共场所是人们经常集聚的、供大众使用的综合性社会场所。公共场所主要为公众提供包括住宿、休闲、娱乐、公共交通等生活需求，近年来，伴随着经济社会的快速发展，公共场所类型和数量显著增加。同时，伴随着人们环保意识的增强，人们对于室内空气质量关注度持续提高。旅游酒店作为重要的公共场所，一般人员流动性较高，室内空气质量也会对住客和从业人员健康产生重要的影响。旅游酒店通常空间较为封闭狭小，易受装修材料、装饰装潢中的化学物质的影响，甲醛、氨等污染物可能在空气中累积，进而会对人体健康造成危害。因此，开展旅游酒店公共场所室内空气化学污染物的健康风险评估与治理至关重要。</t>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The field of chemical engineering is broad and complex, involving numerous calculation steps throughout the process. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differential equations, and the solving of linear or nonlinear programming problems, which are extremely challenging. Manual calculations alone cannot achieve accurate and efficient results; however, with the aid of computer-assisted programming, it is possible to conduct quantitative calculations, enhance the efficiency and effectiveness of chemical dosing, and thus has significant practical value and importance.</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>化学工程领域广泛而复杂，涉及过程中的众多计算步骤。化学工程中的计算通常涉及非线性方程的曲线拟合、偏微分方程以及线性或非线性规划问题的求解，这些都极具挑战性。仅靠手工计算无法获得准确高效的结果；然而，通过计算机辅助编程，可以进行定量计算，提高化学投料的效率和效果，因此具有重要的实用价值和意义。</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Grok-Beta</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.3051570524359124</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.978328677844779e-78</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04347826086956521</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="I23" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学作为一门自然科学，是人们认识世界和改造世界的重要途径。在历史长河中，化学是经由无数的实验探究逐渐总结发展起来的。从化学的发展历史来看，化学的主要研究形式是分析，在化学科学的发展过程中，无论是实践分析，还是理论分析，都对化学科学的形成和发展产生了重要作用。聚焦于化学历史的发展历程，把握化学事物的基本规律和本质特点，能够更好地拓展化学的发展进程，也能够拓宽化学研究的理论基础。尤其在近代，伴随着化学学科的深入发展，对于化学历史发展情况开展深入的哲学思考尤为必要。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chemistry, as a natural science, is an important way for people to understand and transform the world. Throughout history, chemistry has gradually developed and been summarized through numerous experimental studies. Historically, the main form of chemical research has been analysis. In the development of chemical science, both practical and theoretical analysis have been crucial for its formation and development. Focusing on the historical development of chemistry and understanding the basic laws and essential features of chemical phenomena can better promote the development of chemistry and broaden the theoretical foundation of chemical research. Especially in modern times, with the deepening development of chemistry as a discipline, it is particularly important to conduct in-depth philosophical reflection on the historical development of chemistry.</t>
+          <t>The study explored the efficacy of combining aminooligosaccharides with chemical fungicides in controlling downy mildew in Chinese cabbage.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>化学作为一门自然科学，是人们认识和改造世界的重要途径。纵观历史，化学通过大量的实验研究逐渐发展和总结起来。历史上，化学研究的主要形式一直是分析。在化学科学的发展过程中，实践分析和理论分析对于化学的形成和发展都至关重要。关注化学的历史发展，认识化学现象的基本规律和本质特征，能够更好地促进化学的发展，拓宽化学研究的理论基础。尤其在现代，随着化学作为一门学科的不断深入发展，对化学的历史发展进行深入的哲学反思就显得尤为重要。</t>
+          <t>该研究探讨了将氨基低聚糖与化学杀菌剂结合使用在控制中国白菜霜霉病中的效果。</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>Grok-Beta</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5055140150306473</v>
+        <v>0.253546276418555</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7142857142857143</v>
+        <v>2.945617328612171e-78</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06216045522255425</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06759317166168625</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+          <t>&lt;正&gt;在新时代的背景下，教育不仅是知识的传递，更是价值观的塑造和传播。随着“思政课”概念的不断深入人心，将思想政治教育融入专业课程已成为教学改革的一个重要方向。《有机化学课程思政案例》一书探讨了有机化学与思政教育相结合的创新路径，不仅有助于提升学生的专业素养，还能培养他们的社会责任感和历史使命感，从而实现全方位人才培养的目标。</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>The field of chemical engineering is broad and complex, involving numerous calculation steps. Calculations in this field often relate to curve fitting of nonlinear equations, partial differential equations, solving linear or nonlinear programming problems, which are extremely challenging. Manual computation alone struggles to achieve precise and quick results. However, with the aid of computer programming, quantitative calculations can be conducted, enhancing the efficiency and effectiveness of chemical dosage calculations, thereby offering significant practical value and real-world significance.</t>
+          <t>In the context of the new era, education is not only about the transmission of knowledge but also about the shaping and dissemination of values. As the concept of "ideological and political education courses" increasingly takes root, integrating ideological and political education into specialized courses has become a significant direction in teaching reform. The book "Case Studies of Ideological and Political Education in Organic Chemistry Courses" explores innovative paths for combining organic chemistry with ideological and political education. This not only helps to enhance students' professional qualities but also fosters their sense of social responsibility and historical mission, thereby achieving the goal of comprehensive talent development.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>化工领域宽广而复杂，涉及众多计算步骤。这类计算常常涉及非线性方程的曲线拟合、偏微分方程、解决线性或非线性的规划问题，这些都极具挑战性。单靠手工计算难以实现精确且快速的结果。然而，借助计算机编程，可以进行定量计算，提高化工配方计算的效率和效果，从而提供显著的实际价值和现实意义。</t>
+          <t>在新时代背景下，教育不仅是知识的传递，更是价值观的塑造与传播。随着“课程思政”理念日益深入人心，将思想政治教育融入专业课程已成为教学改革的重要方向。《有机化学课程中的思政案例研究》一书探索了有机化学与思想政治教育相结合的创新路径。这不仅有助于提升学生的专业素养，还能培养他们的社会责任感和历史使命感，从而实现全方位人才培养的目标。</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1348,59 +1422,65 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.222730700102315</v>
+        <v>0.790471084865644</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6747169429545201</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08000000000000002</v>
+        <v>0.9369369369369369</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.07980069075020815</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2019930924979183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>在传统的初中化学复习教学活动中，教师很难将碎片化的知识进行充分整理，学生学习能力和综合素质的提高均受到较大影响。然而，游戏式教学法能够以鲜明的教学主题为核心，有效整合初中化学知识，从而形成更具系统性与结构性的知识框架，避免教学内容始终停留在浅层阶段。本文简要阐述初中化学复习教学中存在的问题，提出以游戏教学法对化学符号的知识进行复习教学的策略。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>In traditional junior high school chemistry review classes, teachers find it challenging to thoroughly organize fragmented knowledge, which significantly affects students' learning abilities and overall quality. However, game-based teaching methods can focus on a clear teaching theme, effectively integrating junior high school chemistry knowledge to form a more systematic and structured knowledge framework, preventing the teaching content from remaining superficial. This article briefly discusses the issues in junior high school chemistry review teaching and proposes strategies for reviewing chemical symbols using game-based teaching methods.</t>
+          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on Chinese cabbage downy mildew was investigated.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>在传统的初中化学复习课中，教师发现很难全面整理零散的知识，这显著影响了学生的学习能力和整体素质。然而，基于游戏的教学方法可以集中在一个明确的教学主题上，有效地整合初中化学的知识，形成更系统、结构化的知识框架，避免教学内容流于表面。本文简要讨论了初中化学复习教学中的问题，并提出利用游戏化教学方法复习化学符号的策略。</t>
+          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Grok-Beta</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.4586209405205928</v>
+        <v>0.9309493362512627</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6237623762376238</v>
+        <v>0.9253911813809743</v>
       </c>
       <c r="H26" t="n">
-        <v>0.09493439123549045</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05065608764509524</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>&lt;正&gt;1前言2024年，对于中国科学技术大学（以下简称中国科大）辐射化学学科是一个极其特殊的年份。这一年安全运行了四十年的钴源辐照装置到达退役年限，即将完成它的历史使命。在四十年的岁月中，钴源辐照装置对中国科大辐射化学学科乃至中国辐射技术产业化的发展起到了至关重要的作用，也为中国科大辐射化学学科开启下一个新时代打下了良好的坚实基础，未来可期。为此，特撰写此文，以示纪念。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1408,737 +1488,793 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9309493362512627</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9253911813809743</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The control effect of a combination of amino-oligosaccharins and chemical fungicides against Chinese cabbage downy mildew was investigated.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>研究了氨基寡糖素与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8251983888449983</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7241577342575828</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Claude-Sonnet-3.7</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2760598596896769</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.562464168583712e-155</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems, which are extremely challenging. Achieving precise and efficient calculations manually is difficult; however, by utilizing computer-aided programming for computational tasks, the quality and efficiency of chemical dosage calculations can be significantly improved, offering high application value and practical significance.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>化学工程领域涵盖广泛，涉及复杂工艺与众多计算步骤。其计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，极具挑战性。人工实现精确高效计算颇为困难；然而，借助计算机辅助编程进行运算，可大幅提升化工计算的质量与效率，具有较高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2769824849377372</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.11813366265311</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.08695652173913046</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The field of chemical engineering encompasses a wide range of areas, with complex processes and numerous calculation steps involved. Calculations in chemical engineering often relate to curve fitting of nonlinear equations, partial differentials, and solving linear or nonlinear programming problems. These calculations are extremely challenging and difficult to achieve accurately and quickly by manual methods alone. However, by utilizing computer-assisted programming for computational calculations, it is possible to enhance the quality and efficiency of chemical dosage calculations, offering significant practical value and real-world significance.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>化学工程领域涵盖广泛，涉及复杂过程与众多计算步骤。化工计算常关联非线性方程的曲线拟合、偏微分以及线性或非线性规划问题的求解，这些计算极为复杂，仅凭手工方法难以准确且迅速地完成。然而，借助计算机辅助编程进行计算，可提升化工配比计算的质效，具有重要的实用价值与现实意义。</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2769824849377372</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.485023185318202e-78</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6888888888888889</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.08695652173913046</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The field of chemical engineering is broad in scope, and the entire process is complex, involving many calculation stages. Calculations in chemical engineering are often related to solving problems such as curve fitting, nonlinear equations, partial differential equations, and linear or nonlinear programming. These calculations are extremely difficult, making accurate and efficient manual calculation challenging. However, with the aid of computer-assisted programming to perform quantitative calculations, the practical application of chemical calculation amounts can be achieved to improve quality and efficiency, which holds extremely high application value and real-world significance.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>化学工程领域范围广泛，整个过程复杂，涉及许多计算环节。化学工程中的计算常常与解决诸如曲线拟合、非线性方程、偏微分方程以及线性或非线性规划等问题有关。这些计算极其困难，使得准确且高效的手动计算充满挑战。然而，借助计算机辅助编程进行定量计算，化学计算量的实际应用得以实现，从而提高质量和效率，这具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3423200516847171</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1629883073331793</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.07692307692307696</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Main Text: Chemical engineering has a broad scope and complex processes, involving numerous calculation steps. Calculations in chemical engineering are often related to solving curve fitting nonlinear equations, partial differential equations, and linear or nonlinear programming. These calculations are extremely difficult and hard to perform accurately and quickly by hand alone. However, with computer-aided programming for quantitative calculations, the quality and efficiency of chemical dosage calculations can be practically improved, which has extremely high application value and practical significance.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>化学工程涉及领域广泛，工艺流程复杂，包含大量的计算步骤。化学工程中的计算常常涉及求解曲线拟合非线性方程、偏微分方程以及线性或非线性规划。这些计算极其困难，单靠手工难以准确快速地完成。然而，借助计算机辅助编程进行定量计算，化学计量计算的质量和效率可以得到实际提高，这具有极高的应用价值和实践意义。</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3320273240699305</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1357359204592365</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学专业英语是英语与化学专业知识结合的一门科技英语,专门用来阐述化学领域相关的理论、技术、实验、过程及现象,是提升高校化学类相关专业学生从事化工领域岗位的基础性课程。化学化工行业使用的众多设备都是从国外引进的,设备使用说明书、结构参数等都是英文版的。这使得化学化工行业需要大量既懂专业知识又掌握专业英语技能的优秀人才。高职院校是培养生产一线高素质技术型人才的主阵地,项目化教学的优势符合高职院校化工技术类专业英语课程教学的需要,提高教学的针对性与实效性,提高学生化工专业英语的掌握程度,帮助他们顺利融入工作岗位。</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Chemical Professional English is a branch of technical English that integrates English with specialized chemical knowledge. It is specifically used to describe theories, technologies, experiments, processes, and phenomena related to the field of chemistry and serves as a foundational course for students in chemistry-related majors in higher education to prepare them for positions in the chemical industry.  Many pieces of equipment used in the chemical and chemical engineering industries are imported from overseas. Equipment manuals, structural parameters, and the like are all in English. This necessitates a large number of highly skilled personnel in the chemical and chemical engineering industry who possess both professional knowledge and proficient professional English skills. Vocational colleges are the primary institutions for cultivating high-quality, technically skilled personnel for front-line production. The advantages of project-based teaching align with the needs of professional English language courses for chemical technology-related majors in vocational colleges, enhancing the relevance and effectiveness of teaching. This approach aims to improve students' proficiency in chemical professional English and help them seamlessly integrate into their professional roles.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>化学专业英语是科技英语的一个分支，它将英语与专门的化学知识相结合。它专门用于描述与化学领域相关的理论、技术、实验、过程和现象，是高等教育中化学相关专业学生的基础课程，为他们将来在化工行业任职做好准备。化工和化学工程行业中使用的许多设备都是从海外进口的。设备手册、结构参数等都是英文的。这就需要在化工和化学工程行业中拥有大量既具备专业知识又精通专业英语技能的高素质人才。职业院校是为一线生产培养高素质技术技能人才的主要机构。项目式教学的优势与职业院校化学技术相关专业专业英语课程的需求相契合，提升了教学的相关性和有效性。这种方法旨在提高学生的化学专业英语水平，帮助他们无缝衔接到职业角色中。</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.343453182678216</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1748013125699733</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7213114754098361</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.06216045522255425</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.06759317166168627</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Element perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification perspective: Selecting the objects of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of conditions for chemical reactions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particulate perspective: Matter is composed of microscopic particles;</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>元素觀點：物質由元素組成；元素可以分成不同類別，不同元素具有不同的性質，同類別的元素具有相似的性質；物質的性質與元素組成有關，物質可以根據元素組成進行分類；元素種類在化學反應前後保持不變…… 分類觀點：選擇分類的對象和分類的視角（特徵），元素的分類，物質的分類，變化的分類，化學反應的分類，化學反應條件的分類，物質性質的分類，物質結構的分類，實驗探究中影響變量的分類，實驗原理的分類，實驗儀器，和實驗操作…… 微粒觀點：物質由微觀粒子構成；</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2123292888921015</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.09139760567462452</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5194805194805194</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>在传统的初中化学复习教学活动中，教师很难将碎片化的知识进行充分整理，学生学习能力和综合素质的提高均受到较大影响。然而，游戏式教学法能够以鲜明的教学主题为核心，有效整合初中化学知识，从而形成更具系统性与结构性的知识框架，避免教学内容始终停留在浅层阶段。本文简要阐述初中化学复习教学中存在的问题，提出以游戏教学法对化学符号的知识进行复习教学的策略。</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>In traditional junior high school chemistry review teaching, teachers find it hard to thoroughly organize fragmented knowledge, and the improvement of students' learning abilities and overall quality are significantly impacted. However, game-based pedagogy, centered around a distinct teaching theme, can effectively integrate junior high chemistry knowledge, thereby creating a more systematic and structured knowledge framework, and preventing teaching content from remaining at a superficial level. This paper briefly outlines the issues in junior high chemistry review teaching and proposes strategies for using game-based pedagogy to review the knowledge of chemical symbols in teaching.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>传统初中化学复习教学中，教师难以系统地整理零散的知识，学生的学习能力和综合素质的提升也因此受到显著影响。然而，围绕明确教学主题的、基于游戏的教学法能够有效地整合初中化学知识，从而构建更系统化、结构化的知识体系，并避免教学内容停留在浅层层面。本文简要概述了初中化学复习教学中存在的问题，并提出了在教学中运用游戏化教学法复习化学符号知识的策略。</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5235762970740585</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2860611407627637</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6831683168316832</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.09493439123549045</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.05065608764509524</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>壳寡糖结合化学杀菌剂对大白菜霜霉病的控制效果进行了研究。</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4140393356054125</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2165195674618106</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4140897895345154</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.074530190774277e-78</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;立足“新工科”专业教育场域,物理化学实验能力是化学、材料、生物、环保等专业人才的一项基本素养,在学科设置上,具备一定的前置条件,通常应在系统学习分析化学实验的基本原理与操作规范的基础上,以及熟悉常规实验工具、仪器、方法之后,再进入的物理化学实验领域。基于教学主体视角,物理化学实验的基本内涵是运用物理学知识、技术、经验及规律去解决化学问题,这意味着单个物理化学实验项目有着复合属性,所涉及的教学理论与实践过程也更为丰富、复杂。</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Grounded in the professional education field of "New Engineering Disciplines," physical chemistry experimental skills are a fundamental competency for professionals in fields such as chemistry, materials, biology, and environmental protection. In curriculum setup, it requires certain prerequisites. Typically, one should enter the realm of physical chemistry experiments after systematically learning the fundamental principles and operational standards of analytical chemistry experiments, and after becoming familiar with conventional experimental tools, instruments, and methodologies. From a teaching perspective, the fundamental essence of physical chemistry experiments is to utilize physics knowledge, techniques, experience, and principles to solve chemical problems. This implies that individual physical chemistry experiment projects possess a composite nature, and the teaching theories and practical procedures involved are also more extensive and intricate.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>立足于“新工科”的专业教育领域，物理化学实验技能是化学、材料、生物和环境保护等领域专业人员的一项基本能力。在课程设置上，这需要一定的先修知识。通常，应该在系统学习分析化学实验的基本原理和操作规范，并熟悉常规实验工具、仪器和方法后，再进入物理化学实验的领域。从教学的角度来看，物理化学实验的本质是利用物理学的知识、技术、经验和原理来解决化学问题。这意味着物理化学实验项目具有综合性，并且其教学理论和实践环节也更加广泛和深入。</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4410318560003901</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2488174528992011</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.04961457249049949</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0821304089257596</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;公共场所是人们经常集聚的、供大众使用的综合性社会场所。公共场所主要为公众提供包括住宿、休闲、娱乐、公共交通等生活需求，近年来，伴随着经济社会的快速发展，公共场所类型和数量显著增加。同时，伴随着人们环保意识的增强，人们对于室内空气质量关注度持续提高。旅游酒店作为重要的公共场所，一般人员流动性较高，室内空气质量也会对住客和从业人员健康产生重要的影响。旅游酒店通常空间较为封闭狭小，易受装修材料、装饰装潢中的化学物质的影响，甲醛、氨等污染物可能在空气中累积，进而会对人体健康造成危害。因此，开展旅游酒店公共场所室内空气化学污染物的健康风险评估与治理至关重要。</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.04347826086956521</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学作为一门自然科学，是人们认识世界和改造世界的重要途径。在历史长河中，化学是经由无数的实验探究逐渐总结发展起来的。从化学的发展历史来看，化学的主要研究形式是分析，在化学科学的发展过程中，无论是实践分析，还是理论分析，都对化学科学的形成和发展产生了重要作用。聚焦于化学历史的发展历程，把握化学事物的基本规律和本质特点，能够更好地拓展化学的发展进程，也能够拓宽化学研究的理论基础。尤其在近代，伴随着化学学科的深入发展，对于化学历史发展情况开展深入的哲学思考尤为必要。</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chemistry, as a natural science, is an important way for people to understand and transform the world. Throughout history, chemistry has gradually developed and been summarized through numerous experimental studies. Historically, the main form of chemical research has been analysis. In the development of chemical science, both practical and theoretical analysis have been crucial for its formation and development. Focusing on the historical development of chemistry and understanding the basic laws and essential features of chemical phenomena can better promote the development of chemistry and broaden the theoretical foundation of chemical research. Especially in modern times, with the deepening development of chemistry as a discipline, it is particularly important to conduct in-depth philosophical reflection on the historical development of chemistry.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>化学作为一门自然科学，是人们认识和改造世界的重要途径。纵观历史，化学通过大量的实验研究逐渐发展和总结起来。历史上，化学研究的主要形式一直是分析。在化学科学的发展过程中，实践分析和理论分析对于化学的形成和发展都至关重要。关注化学的历史发展，认识化学现象的基本规律和本质特征，能够更好地促进化学的发展，拓宽化学研究的理论基础。尤其在现代，随着化学作为一门学科的不断深入发展，对化学的历史发展进行深入的哲学反思就显得尤为重要。</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5055140150306473</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.303420863739929</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.06216045522255425</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.06759317166168625</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;化学工程领域的涉及面较广，全过程复杂，涉及到的计算环节众多。化学工程领域的计算多与曲线拟合非线性方程，偏微分，线性或非线性规划的求解等有关，这些计算难度极大，仅靠手工，难以实现精准快捷的计算；而配合计算机辅助编程，开展计量计算，能够实践应用化学计算剂量的提质增效，具有极高的应用价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The field of chemical engineering is broad and complex, involving numerous calculation steps. Calculations in this field often relate to curve fitting of nonlinear equations, partial differential equations, solving linear or nonlinear programming problems, which are extremely challenging. Manual computation alone struggles to achieve precise and quick results. However, with the aid of computer programming, quantitative calculations can be conducted, enhancing the efficiency and effectiveness of chemical dosage calculations, thereby offering significant practical value and real-world significance.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>化工领域宽广而复杂，涉及众多计算步骤。这类计算常常涉及非线性方程的曲线拟合、偏微分方程、解决线性或非线性的规划问题，这些都极具挑战性。单靠手工计算难以实现精确且快速的结果。然而，借助计算机编程，可以进行定量计算，提高化工配方计算的效率和效果，从而提供显著的实际价值和现实意义。</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.222730700102315</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.07103299201518434</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>在传统的初中化学复习教学活动中，教师很难将碎片化的知识进行充分整理，学生学习能力和综合素质的提高均受到较大影响。然而，游戏式教学法能够以鲜明的教学主题为核心，有效整合初中化学知识，从而形成更具系统性与结构性的知识框架，避免教学内容始终停留在浅层阶段。本文简要阐述初中化学复习教学中存在的问题，提出以游戏教学法对化学符号的知识进行复习教学的策略。</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>In traditional junior high school chemistry review classes, teachers find it challenging to thoroughly organize fragmented knowledge, which significantly affects students' learning abilities and overall quality. However, game-based teaching methods can focus on a clear teaching theme, effectively integrating junior high school chemistry knowledge to form a more systematic and structured knowledge framework, preventing the teaching content from remaining superficial. This article briefly discusses the issues in junior high school chemistry review teaching and proposes strategies for reviewing chemical symbols using game-based teaching methods.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>在传统的初中化学复习课中，教师发现很难全面整理零散的知识，这显著影响了学生的学习能力和整体素质。然而，基于游戏的教学方法可以集中在一个明确的教学主题上，有效地整合初中化学的知识，形成更系统、结构化的知识框架，避免教学内容流于表面。本文简要讨论了初中化学复习教学中的问题，并提出利用游戏化教学方法复习化学符号的策略。</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4586209405205928</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.2203141180920372</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6237623762376238</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.09493439123549045</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.05065608764509524</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>&lt;正&gt;1前言2024年，对于中国科学技术大学（以下简称中国科大）辐射化学学科是一个极其特殊的年份。这一年安全运行了四十年的钴源辐照装置到达退役年限，即将完成它的历史使命。在四十年的岁月中，钴源辐照装置对中国科大辐射化学学科乃至中国辐射技术产业化的发展起到了至关重要的作用，也为中国科大辐射化学学科开启下一个新时代打下了良好的坚实基础，未来可期。为此，特撰写此文，以示纪念。</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>1 Introduction
 The year 2024 is an exceptionally significant one for the discipline of radiation chemistry at the University of Science and Technology of China (USTC). This year marks the retirement of the cobalt-60 irradiation facility after 40 years of safe operation, as it completes its historical mission. Over these four decades, the cobalt-60 irradiation facility has played an essential role in advancing radiation chemistry at USTC, as well as promoting the industrialization of radiation technology in China. It has also provided a solid foundation, paving the way for a promising new era in radiation chemistry at USTC. This article has been specially prepared to commemorate this milestone.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>1 引言
 对于中国科学技术大学辐射化学学科而言，2024年具有非凡的意义。今年，服役40年并安全运行的钴-60辐照装置完成其历史使命，正式退役。在过去的四十年中，该钴-60辐照装置在推动中国科学技术大学辐射化学学科的发展、促进我国辐射技术产业化方面发挥了重要作用，并为该校辐射化学的崭新时代奠定了坚实的基础。特撰此文，以纪念这一里程碑时刻。</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F44" t="n">
         <v>0.3193846943309346</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G44" t="n">
+        <v>0.08303954557472956</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.6415094339622641</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I44" t="n">
         <v>0.07407407407407411</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>&lt;正&gt;1前言2024年，对于中国科学技术大学（以下简称中国科大）辐射化学学科是一个极其特殊的年份。这一年安全运行了四十年的钴源辐照装置到达退役年限，即将完成它的历史使命。在四十年的岁月中，钴源辐照装置对中国科大辐射化学学科乃至中国辐射技术产业化的发展起到了至关重要的作用，也为中国科大辐射化学学科开启下一个新时代打下了良好的坚实基础，未来可期。为此，特撰写此文，以示纪念。</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B45" t="n">
         <v>3</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>1 Foreword
 The year 2024 marks an exceptionally significant milestone for the discipline of radiation chemistry at the University of Science and Technology of China (USTC). This year, the cobalt-source irradiation facility, which has operated safely for forty years, will reach its retirement, completing its historical mission. Over the past forty years, this cobalt-source irradiation device has played a crucial role in the development of radiation chemistry at USTC and in promoting industrialization of radiation technology in China. Furthermore, it has laid a strong foundation for opening a new era in radiation chemistry at USTC, ensuring a bright future ahead. In commemoration, this article has been specially written.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>1 前言
 2024年对中国科学技术大学辐射化学学科来说意义非凡。今年是已安全运行四十年的钴源辐照装置光荣退役之年，它即将完成其历史使命。在过去的四十年中，该钴源辐照装置为中科大辐射化学学科的发展和我国辐射技术的产业化进程发挥了重要作用，也为开创中科大辐射化学学科的新纪元奠定了坚实基础，前景非常广阔。值此纪念之际，特撰此文。</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F45" t="n">
         <v>0.4018149164801282</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G45" t="n">
+        <v>0.1764275794696338</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.660377358490566</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I45" t="n">
         <v>0.08695652173913046</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>&lt;正&gt;化学作为一门自然科学，是人们认识世界和改造世界的重要途径。在历史长河中，化学是经由无数的实验探究逐渐总结发展起来的。从化学的发展历史来看，化学的主要研究形式是分析，在化学科学的发展过程中，无论是实践分析，还是理论分析，都对化学科学的形成和发展产生了重要作用。聚焦于化学历史的发展历程，把握化学事物的基本规律和本质特点，能够更好地拓展化学的发展进程，也能够拓宽化学研究的理论基础。尤其在近代，伴随着化学学科的深入发展，对于化学历史发展情况开展深入的哲学思考尤为必要。</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Chemistry, as a natural science, is an important avenue for people to understand and transform the world. Throughout history, chemistry has gradually evolved and been summarized through countless experiments and explorations. From the historical perspective, chemistry primarily involves analysis, and both empirical and theoretical analyses have significantly contributed to the formation and development of chemical science. By focusing on the historical progression of chemistry and grasping the fundamental laws and intrinsic characteristics of chemical phenomena, we can further accelerate the development of chemistry and expand its theoretical foundation. Particularly in modern times, with the deepening development of chemical disciplines, it is especially important to engage in philosophical reflection upon chemistry's historical evolution.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>化学作为一门自然科学，是人类认识世界和改造世界的重要途径。纵观历史，化学通过无数次实验与探索逐渐形成并不断总结。从历史的角度看，化学主要涉及分析，无论是经验分析还是理论分析，都极大地推动了化学科学的形成与发展。通过关注化学的历史进程，掌握化学现象的基本规律与内在特征，我们可以进一步促进化学学科的发展并扩展其理论基础。尤其在现代，随着化学学科发展的不断深入，对化学历史演进进行哲学反思显得尤为重要。</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>OpenAI-GPT-4.5</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.351353716994112</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.6607142857142857</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.06440630892622776</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.03390536610658386</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>The article first expounds on the connection between engineering education professional certification and production internship courses in applied chemistry programs. It then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and challenges in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系。然后讨论了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标和定位、课程内容设置和安排、课程目标达成的评价方法和标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成就和挑战。</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.7438505142568383</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.1538461538461538</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>The article first expounds on the relationship between engineering education professional certification and production internship courses in applied chemistry majors, then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for course objective achievement. Finally, it summarizes the achievements and challenges in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的关系，然后讨论了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、课程目标达成评价方法与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成果与挑战。</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.7787445652377704</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1482851060686158</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.1844319166226131</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>The article first expounds on the relationship between engineering education professional certification and production internship courses for applied chemistry majors, then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and problems in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的关系，然后探讨了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方法与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效与问题。</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.8271584130959582</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.8939393939393939</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.1482851060686158</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.1844319166226131</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.2760598596896769</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>The control effects of amino oligosaccharides combined with chemical fungicides on downy mildew of Chinese cabbage were investigated.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>氨基寡糖与化学杀菌剂联合使用对白菜霜霉病的防治效果进行了研究。</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.4787135538781691</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Discussed the effect of combining amino oligosaccharides with chemical fungicides on controlling downy mildew in Chinese cabbage.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>讨论了氨基寡糖与化学杀菌剂结合使用对控制大白菜霜霉病的影响。</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Claude-Sonnet-3.7</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.5244044240850758</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>The article first elucidates the connection between engineering education accreditation and the production internship course for the applied chemistry major. It then discusses the construction of the production internship course for the applied chemistry major under the context of engineering education accreditation, including the course objectives and positioning, the design and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for the applied chemistry major under the context of engineering education accreditation.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的联系，随后探讨了在工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设计与安排、课程目标达成的评价方式与标准。最后，总结了在工程教育认证背景下应用化学专业生产实习课程建设取得的成效及面临的挑战。</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.7245334605627619</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.152570023199755</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.0845798608014702</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for applied chemistry majors. It then discusses the construction of the production internship course for applied chemistry majors under the context of engineering education professional certification, including the course objectives and positioning, the setting and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for applied chemistry majors under the context of engineering education professional certification.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系，随后探讨了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排、课程目标达成的评价方式与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效与面临的挑战。</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.8007173817014662</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.152570023199755</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.0845798608014702</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for the applied chemistry major. It then discusses the construction of the production internship course for the applied chemistry major under the context of engineering education professional certification, including the course objectives and positioning, the setting and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for the applied chemistry major under the context of engineering education professional certification.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系，随后探讨了在工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排、课程目标达成的评价方式与标准。最后，总结了在工程教育专业认证背景下应用化学专业生产实习课程建设取得的成效及面临的挑战。</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.7692672824829704</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.9242424242424242</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.152570023199755</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.0845798608014702</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>The study explored the control efficacy of a combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>该研究探讨了氨基寡糖素与化学杀菌剂组合对白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.6913328984437151</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>The study explored the control efficacy of the combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>该研究探讨了氨基寡糖素与化学杀菌剂复配对白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>0.7859052479933757</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>The study explored the control efficacy of a combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>该研究探讨了氨基寡糖素与化学杀菌剂复配对白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>DeepSeek-V3</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.7859052479933757</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for applied chemistry. Then, it discusses the development of the production internship course for applied chemistry majors in the context of engineering education professional certification, including course objectives and positioning, the setting and arrangement of course content, and evaluation methods and standards for the attainment of course objectives. Finally, it summarizes the effectiveness and challenges faced in the development of the production internship course for applied chemistry majors in the context of engineering education professional certification.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系。接着，探讨了在工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排，以及课程目标达成评价方法与标准。最后，总结了在工程教育专业认证背景下应用化学专业生产实习课程建设中的成效与面临的挑战。</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Gemini-2FTE</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.6938886664887109</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.1417315994683161</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.07874460345594508</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>The article first elucidates the relationship between engineering education professional accreditation and the production practice course for applied chemistry. Then it discusses the development of the production practice course for applied chemistry in the context of engineering education professional accreditation, including course objectives and positioning, course content setting and arrangement, and evaluation methods and criteria for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the development of the production practice course for applied chemistry in the context of engineering education professional accreditation.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>文章首先阐述工程教育专业认证与应用化学生产实习课程的关系。然后探讨工程教育专业认证背景下应用化学生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、以及课程目标达成的评价方法与标准。最后，总结工程教育专业认证背景下应用化学生产实习课程建设的成效与面临的挑战。</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Gemini-2FTE</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.69825100671025</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.1482851060686158</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.1844319166226131</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>The control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>壳寡糖结合化学杀菌剂对大白菜霜霉病的控制效果进行了研究。</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Gemini-2FTE</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.4140393356054125</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Gemini-2FTE</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.4140897895345154</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>&lt;正&gt;化学作为一门自然科学，是人们认识世界和改造世界的重要途径。在历史长河中，化学是经由无数的实验探究逐渐总结发展起来的。从化学的发展历史来看，化学的主要研究形式是分析，在化学科学的发展过程中，无论是实践分析，还是理论分析，都对化学科学的形成和发展产生了重要作用。聚焦于化学历史的发展历程，把握化学事物的基本规律和本质特点，能够更好地拓展化学的发展进程，也能够拓宽化学研究的理论基础。尤其在近代，伴随着化学学科的深入发展，对于化学历史发展情况开展深入的哲学思考尤为必要。</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Investigated the control effect of the combination of chitosan oligosaccharide and chemical fungicides on downy mildew of Chinese cabbage.</t>
+          <t>Chemistry, as a natural science, is an important avenue for people to understand and transform the world. Throughout history, chemistry has gradually evolved and been summarized through countless experiments and explorations. From the historical perspective, chemistry primarily involves analysis, and both empirical and theoretical analyses have significantly contributed to the formation and development of chemical science. By focusing on the historical progression of chemistry and grasping the fundamental laws and intrinsic characteristics of chemical phenomena, we can further accelerate the development of chemistry and expand its theoretical foundation. Particularly in modern times, with the deepening development of chemical disciplines, it is especially important to engage in philosophical reflection upon chemistry's historical evolution.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>研究了壳寡糖与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
+          <t>化学作为一门自然科学，是人类认识世界和改造世界的重要途径。纵观历史，化学通过无数次实验与探索逐渐形成并不断总结。从历史的角度看，化学主要涉及分析，无论是经验分析还是理论分析，都极大地推动了化学科学的形成与发展。通过关注化学的历史进程，掌握化学现象的基本规律与内在特征，我们可以进一步促进化学学科的发展并扩展其理论基础。尤其在现代，随着化学学科发展的不断深入，对化学历史演进进行哲学反思显得尤为重要。</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Gemini-2FTE</t>
+          <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.6056038593913453</v>
+        <v>0.351353716994112</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.1984306742441285</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.06440630892622776</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.03390536610658386</v>
       </c>
     </row>
     <row r="47">
@@ -2148,108 +2284,117 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The article first explains the connection between the accreditation of engineering education and the production practice course in applied chemistry, then discusses the development of the production practice course in applied chemistry under the background of engineering education accreditation, including course objectives and positioning, course content arrangement, methods for evaluating the achievement of course objectives, and evaluation standards. Finally, it summarizes the achievements and challenges faced in the development of the production practice course in applied chemistry under the accreditation of engineering education.</t>
+          <t>The article first expounds on the connection between engineering education professional certification and production internship courses in applied chemistry programs. It then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and challenges in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>文章首先解释了工程教育认证与应用化学生产实习课程之间的联系，然后在工程教育认证的背景下讨论了应用化学生产实习课程的发展，包括课程目标和定位、课程内容安排、课程目标达成度的评估方法和评估标准。最后，总结了在工程教育认证下应用化学生产实习课程发展所取得的成就和面临的挑战。</t>
+          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系。然后讨论了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标和定位、课程内容设置和安排、课程目标达成的评价方法和标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成就和挑战。</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Grok-Beta</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5002775978746292</v>
+        <v>0.7438505142568383</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.6441880547990406</v>
       </c>
       <c r="H47" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="I47" t="n">
         <v>0.1538461538461538</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Investigated the control effect of chitosan oligosaccharide combined with chemical bactericides on downy mildew in Chinese cabbage.</t>
+          <t>The article first expounds on the relationship between engineering education professional certification and production internship courses in applied chemistry majors, then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for course objective achievement. Finally, it summarizes the achievements and challenges in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>研究了壳聚糖低聚物与化学杀菌剂联合对白菜霜霉病的防治效果。</t>
+          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的关系，然后讨论了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、课程目标达成评价方法与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成果与挑战。</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Grok-Beta</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.4629664590938787</v>
+        <v>0.7787445652377704</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6998828890049885</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.1482851060686158</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1844319166226131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The study explored the control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew in Chinese cabbage.</t>
+          <t>The article first expounds on the relationship between engineering education professional certification and production internship courses for applied chemistry majors, then discusses the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification, including course objectives and positioning, course content setup and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and problems in the construction of production internship courses for applied chemistry majors under the background of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>该研究探讨了壳聚糖寡糖与化学杀菌剂结合对大白菜霜霉病的控制效果。</t>
+          <t>本文首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的关系，然后探讨了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方法与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效与问题。</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Grok-Beta</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.492592183071889</v>
+        <v>0.8271584130959582</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7448667587353434</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.1482851060686158</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1844319166226131</v>
       </c>
     </row>
     <row r="50">
@@ -2259,108 +2404,117 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The study explored the efficacy of combining aminooligosaccharides with chemical fungicides in controlling downy mildew in Chinese cabbage.</t>
+          <t>Explored the control effect of chitosan oligosaccharide combined with chemical fungicides against downy mildew of Chinese cabbage.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>该研究探讨了将氨基低聚糖与化学杀菌剂结合使用在控制中国白菜霜霉病中的效果。</t>
+          <t>探究了壳聚糖寡糖结合化学杀菌剂对白菜霜霉病的防控效果。</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Grok-Beta</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.253546276418555</v>
+        <v>0.2760598596896769</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7241379310344828</v>
+        <v>7.562464168583712e-155</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The article first elaborates on the relationship between the engineering education accreditation and the industrial practice course in applied chemistry, then discusses the construction of the industrial practice course for applied chemistry under the background of engineering education accreditation, including course objectives and positioning, curriculum content design and arrangement, as well as methods and criteria for evaluating course goal attainment. Finally, it summarizes the effectiveness and existing issues in the development of the industrial practice course for applied chemistry under the background of engineering education accreditation.</t>
+          <t>The control effects of amino oligosaccharides combined with chemical fungicides on downy mildew of Chinese cabbage were investigated.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的关系，然后探讨了工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设计与安排，以及课程目标达成情况的评价方法与标准，最后总结了工程教育认证背景下应用化学专业生产实习课程建设的成效与存在的问题。</t>
+          <t>氨基寡糖与化学杀菌剂联合使用对白菜霜霉病的防治效果进行了研究。</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.7575364893954893</v>
+        <v>0.4787135538781691</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9090909090909091</v>
+        <v>5.195166368004445e-78</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1651018215016762</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="I51" t="n">
-        <v>0.09193998174078082</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The article first elaborates on the relationship between engineering education accreditation and the Applied Chemistry program's production internship course, then discusses the construction of the production internship course in Applied Chemistry under the context of engineering education accreditation, including course objectives and positioning, content structuring and arrangement, methods and standards for assessing achievement of course objectives, and finally summarizes the outcomes and issues encountered in constructing the production internship course in Applied Chemistry against the background of engineering education accreditation.</t>
+          <t>Discussed the effect of combining amino oligosaccharides with chemical fungicides on controlling downy mildew in Chinese cabbage.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的关系，随后探讨了工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、内容结构与安排、课程目标达成评价的方法与标准，最后总结了在工程教育认证背景下应用化学专业生产实习课程建设取得的成效及存在的问题。</t>
+          <t>讨论了氨基寡糖与化学杀菌剂结合使用对控制大白菜霜霉病的影响。</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.7422311442232916</v>
+        <v>0.5244044240850758</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8939393939393939</v>
+        <v>6.017520605331913e-78</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1651018215016762</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="I52" t="n">
-        <v>0.09193998174078082</v>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2370,108 +2524,117 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The article first elaborates on the connection between engineering education accreditation and the industrial internship curriculum of the applied chemistry program. It then discusses the development of the industrial internship curriculum for the applied chemistry program under the background of engineering education accreditation, covering aspects such as course objectives and positioning, curriculum content design and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and challenges faced in building the industrial internship curriculum for the applied chemistry program within the context of engineering education accreditation.</t>
+          <t>The article first elucidates the connection between engineering education accreditation and the production internship course for the applied chemistry major. It then discusses the construction of the production internship course for the applied chemistry major under the context of engineering education accreditation, including the course objectives and positioning, the design and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for the applied chemistry major under the context of engineering education accreditation.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>文章首先阐述了工程教育认证与应用化学专业工业实习课程之间的联系，然后讨论了工程教育认证背景下应用化学专业工业实习课程的建设，包括课程目标与定位、课程内容设计与安排、课程目标达成的评价方法与标准等方面。最后，总结了在工程教育认证背景下应用化学专业工业实习课程建设取得的成果及面临的挑战。</t>
+          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的联系，随后探讨了在工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设计与安排、课程目标达成的评价方式与标准。最后，总结了在工程教育认证背景下应用化学专业生产实习课程建设取得的成效及面临的挑战。</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.6483587776683762</v>
+        <v>0.7245334605627619</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.5777531211452513</v>
       </c>
       <c r="H53" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I53" t="n">
         <v>0.152570023199755</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>0.0845798608014702</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on Chinese cabbage downy mildew was investigated.</t>
+          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for applied chemistry majors. It then discusses the construction of the production internship course for applied chemistry majors under the context of engineering education professional certification, including the course objectives and positioning, the setting and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for applied chemistry majors under the context of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系，随后探讨了工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排、课程目标达成的评价方式与标准。最后，总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效与面临的挑战。</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9309493362512627</v>
+        <v>0.8007173817014662</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.7140226882485181</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.152570023199755</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0845798608014702</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for the applied chemistry major. It then discusses the construction of the production internship course for the applied chemistry major under the context of engineering education professional certification, including the course objectives and positioning, the setting and arrangement of course content, the evaluation methods and standards for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the construction of the production internship course for the applied chemistry major under the context of engineering education professional certification.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系，随后探讨了在工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排、课程目标达成的评价方式与标准。最后，总结了在工程教育专业认证背景下应用化学专业生产实习课程建设取得的成效及面临的挑战。</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9309493362512627</v>
+        <v>0.7692672824829704</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.667597852449997</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.152570023199755</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0845798608014702</v>
       </c>
     </row>
     <row r="56">
@@ -2481,235 +2644,933 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The control effect of a combination of amino-oligosaccharins and chemical fungicides against Chinese cabbage downy mildew was investigated.</t>
+          <t>The study explored the control efficacy of a combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>研究了氨基寡糖素与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
+          <t>该研究探讨了氨基寡糖素与化学杀菌剂组合对白菜霜霉病的防治效果。</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OpenAI-GPT-4.5</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8251983888449983</v>
+        <v>0.6913328984437151</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.5749089871602278</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>The study explored the control efficacy of the combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>该研究探讨了氨基寡糖素与化学杀菌剂复配对白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7859052479933757</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.6964705665515707</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>The study explored the control efficacy of a combination of amino oligosaccharides and chemical fungicides against downy mildew in Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>该研究探讨了氨基寡糖素与化学杀菌剂复配对白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>DeepSeek-V3</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.7859052479933757</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6964705665515707</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>The article first elaborates on the connection between engineering education professional certification and the production internship course for applied chemistry. Then, it discusses the development of the production internship course for applied chemistry majors in the context of engineering education professional certification, including course objectives and positioning, the setting and arrangement of course content, and evaluation methods and standards for the attainment of course objectives. Finally, it summarizes the effectiveness and challenges faced in the development of the production internship course for applied chemistry majors in the context of engineering education professional certification.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程之间的联系。接着，探讨了在工程教育专业认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容的设置与安排，以及课程目标达成评价方法与标准。最后，总结了在工程教育专业认证背景下应用化学专业生产实习课程建设中的成效与面临的挑战。</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6938886664887109</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5673490794791952</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1417315994683161</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.07874460345594508</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The article first elucidates the relationship between engineering education professional accreditation and the production practice course for applied chemistry. Then it discusses the development of the production practice course for applied chemistry in the context of engineering education professional accreditation, including course objectives and positioning, course content setting and arrangement, and evaluation methods and criteria for achieving course objectives. Finally, it summarizes the effectiveness and challenges faced in the development of the production practice course for applied chemistry in the context of engineering education professional accreditation.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>文章首先阐述工程教育专业认证与应用化学生产实习课程的关系。然后探讨工程教育专业认证背景下应用化学生产实习课程的建设，包括课程目标与定位、课程内容设置与安排、以及课程目标达成的评价方法与标准。最后，总结工程教育专业认证背景下应用化学生产实习课程建设的成效与面临的挑战。</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.69825100671025</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5337110248092815</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1482851060686158</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1844319166226131</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>壳寡糖结合化学杀菌剂对大白菜霜霉病的控制效果进行了研究。</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.4140393356054125</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2165195674618106</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Investigated the efficacy of amino oligosaccharide combined with a chemical fungicide against downy mildew of Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>研究氨基寡糖与化学杀菌剂结合对防治白菜霜霉病的有效性。</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.4140897895345154</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.074530190774277e-78</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Investigated the control effect of the combination of chitosan oligosaccharide and chemical fungicides on downy mildew of Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>研究了壳寡糖与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Gemini-2FTE</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6056038593913453</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.4359765514726485</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>The article first explains the connection between the accreditation of engineering education and the production practice course in applied chemistry, then discusses the development of the production practice course in applied chemistry under the background of engineering education accreditation, including course objectives and positioning, course content arrangement, methods for evaluating the achievement of course objectives, and evaluation standards. Finally, it summarizes the achievements and challenges faced in the development of the production practice course in applied chemistry under the accreditation of engineering education.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>文章首先解释了工程教育认证与应用化学生产实习课程之间的联系，然后在工程教育认证的背景下讨论了应用化学生产实习课程的发展，包括课程目标和定位、课程内容安排、课程目标达成度的评估方法和评估标准。最后，总结了在工程教育认证下应用化学生产实习课程发展所取得的成就和面临的挑战。</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5002775978746292</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.1768949014180071</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Investigated the control effect of chitosan oligosaccharide combined with chemical bactericides on downy mildew in Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>研究了壳聚糖低聚物与化学杀菌剂联合对白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.4629664590938787</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.2549183377489039</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>The study explored the control effect of chitosan oligosaccharide combined with chemical fungicides on downy mildew in Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>该研究探讨了壳聚糖寡糖与化学杀菌剂结合对大白菜霜霉病的控制效果。</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.492592183071889</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.2426438274389041</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The study explored the efficacy of combining aminooligosaccharides with chemical fungicides in controlling downy mildew in Chinese cabbage.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>该研究探讨了将氨基低聚糖与化学杀菌剂结合使用在控制中国白菜霜霉病中的效果。</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Grok-Beta</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.253546276418555</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.945617328612171e-78</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>The article first elaborates on the relationship between the engineering education accreditation and the industrial practice course in applied chemistry, then discusses the construction of the industrial practice course for applied chemistry under the background of engineering education accreditation, including course objectives and positioning, curriculum content design and arrangement, as well as methods and criteria for evaluating course goal attainment. Finally, it summarizes the effectiveness and existing issues in the development of the industrial practice course for applied chemistry under the background of engineering education accreditation.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的关系，然后探讨了工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、课程内容设计与安排，以及课程目标达成情况的评价方法与标准，最后总结了工程教育认证背景下应用化学专业生产实习课程建设的成效与存在的问题。</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.7575364893954893</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.5981089209042215</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.1651018215016762</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.09193998174078082</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The article first elaborates on the relationship between engineering education accreditation and the Applied Chemistry program's production internship course, then discusses the construction of the production internship course in Applied Chemistry under the context of engineering education accreditation, including course objectives and positioning, content structuring and arrangement, methods and standards for assessing achievement of course objectives, and finally summarizes the outcomes and issues encountered in constructing the production internship course in Applied Chemistry against the background of engineering education accreditation.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育认证与应用化学专业生产实习课程之间的关系，随后探讨了工程教育认证背景下应用化学专业生产实习课程的建设，包括课程目标与定位、内容结构与安排、课程目标达成评价的方法与标准，最后总结了在工程教育认证背景下应用化学专业生产实习课程建设取得的成效及存在的问题。</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7422311442232916</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.5728135035660958</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.8939393939393939</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.1651018215016762</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.09193998174078082</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育专业认证与应用化学专业生产实习课程的关联，然后论述了工程教育专业认证背景下应用化学专业生产实习课程建设，包括课程目标与定位、课程内容设置与安排、课程目标达成的评价方式及评价标准，最后总结了工程教育专业认证背景下应用化学专业生产实习课程建设的成效及面临的问题。</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>The article first elaborates on the connection between engineering education accreditation and the industrial internship curriculum of the applied chemistry program. It then discusses the development of the industrial internship curriculum for the applied chemistry program under the background of engineering education accreditation, covering aspects such as course objectives and positioning, curriculum content design and arrangement, evaluation methods and standards for achieving course objectives. Finally, it summarizes the achievements and challenges faced in building the industrial internship curriculum for the applied chemistry program within the context of engineering education accreditation.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>文章首先阐述了工程教育认证与应用化学专业工业实习课程之间的联系，然后讨论了工程教育认证背景下应用化学专业工业实习课程的建设，包括课程目标与定位、课程内容设计与安排、课程目标达成的评价方法与标准等方面。最后，总结了在工程教育认证背景下应用化学专业工业实习课程建设取得的成果及面临的挑战。</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6483587776683762</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.4318049564136756</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.152570023199755</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0845798608014702</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on Chinese cabbage downy mildew was investigated.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9309493362512627</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9253911813809743</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The control effect of amino-oligosaccharins combined with chemical fungicides on downy mildew of Chinese cabbage was investigated.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>研究了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9309493362512627</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9253911813809743</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>探讨了氨基寡糖素与化学杀菌剂复配对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The control effect of a combination of amino-oligosaccharins and chemical fungicides against Chinese cabbage downy mildew was investigated.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>研究了氨基寡糖素与化学杀菌剂组合对大白菜霜霉病的防治效果。</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>OpenAI-GPT-4.5</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8251983888449983</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.7241577342575828</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>&lt;正&gt;1 “玩转520化学桌游”资源利用与课程目标的设定1.1 资源利用：游戏教具与配套资源“玩转520化学桌游”是由钱扬义等自主开发的一套破解初中化学用语学习难题的教学用具，狭义指其中的5副牌(元素牌、物质牌、反应牌、实验牌、科学家牌)、1对骰子(阴离子骰子和阳离子骰子)、1副飞行棋(化合物飞行棋)等3类教具，6款游戏规则，以及配套的学生手册与教师用书，囊括初中化学22种元素符号、</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>&lt;Correct&gt;1 "Play with 520 Chemistry Board Games": Resource Utilization and Curriculum Goal Setting
 1.1 Resource Utilization: Game Teaching Aids and Supporting Resources
 "Play with 520 Chemistry Board Games" is a set of teaching tools independently developed by Qian Yangyi and others to solve the difficulties in learning junior high school chemistry terminology. In the narrow sense, it refers to 3 types of teaching aids: 5 decks of cards (element cards, substance cards, reaction cards, experiment cards, scientist cards), 1 pair of dice (anion dice and cation dice), 1 set of flying chess (compound flying chess), as well as 6 game rules, and supporting student manuals and teacher books, encompassing 22 element symbols in junior high school chemistry.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>&lt;正确&gt;1 "玩转520化学桌游"：资源利用与课程目标设定
 1.1 资源利用：游戏教具和配套资源
 "玩转520化学桌游"是钱扬毅等人独立研发的一套解决初中化学术语学习难题的教学工具。狭义上，它指的是3类教具：5副牌（元素牌、物质牌、反应牌、实验牌、科学家牌），1对骰子（阴离子骰子和阳离子骰子），1套飞行棋（化合物飞行棋），以及6种游戏规则，配套学生手册和教师用书，囊括了初中化学中的22个元素符号。</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F74" t="n">
         <v>0.534049152462826</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G74" t="n">
+        <v>0.3441426273665249</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.8921568627450981</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I74" t="n">
         <v>0.04015799326004501</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J74" t="n">
         <v>0.3976301010993248</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B75" t="n">
         <v>2</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>&lt;Main&gt;Element View: Matter is composed of elements; elements can be classified into different categories, different elements have different properties, and elements of the same type have similar properties; the properties of matter are related to its elemental composition, and matter can be classified according to its elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification View: Selection of classification objects and perspectives (characteristics), classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of material properties, classification of material structures, classification of influencing variables in experimental investigations, classification of experimental principles, experimental equipment, experimental operations... Particle View: Matter is composed of microscopic particles;</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>&lt;主题&gt;元素观：物质由元素组成；元素可以分为不同类别，不同元素具有不同性质，同类元素具有相似性质；物质的性质与其元素组成有关，物质可以按照元素组成进行分类；化学反应前后元素种类保持不变...分类观：分类对象和视角（特征）的选择，元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理的分类，实验仪器、实验操作的分类...微粒观：物质由微观粒子组成；</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F75" t="n">
         <v>0.7325101263247498</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G75" t="n">
+        <v>0.5975545602881029</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.8961038961038961</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I75" t="n">
         <v>0.03375318893726088</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J75" t="n">
         <v>0.3924425991293043</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B76" t="n">
         <v>3</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>&lt;Elements View: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, similar elements have similar properties; the properties of matter are related to its elemental composition, and matter can be classified according to its elemental composition; the types of elements remain unchanged before and after chemical reactions... Classification View: Select objects for classification and perspectives (characteristics) for classification, classification of elements, classification of substances, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of properties of matter, classification of structures of matter, classification of variables in experimental investigation, classification of experimental principles, experimental equipment, experimental operations... Particle View: Matter is composed of microscopic particles;&gt;</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>元素观：物质由元素组成；元素可分为不同类别，不同元素具有不同的性质，相似元素具有相似的性质；物质的性质与其元素组成有关，物质可按其元素组成进行分类；化学反应前后元素种类保持不变... 分类观：选择分类对象和分类角度（特征），元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究变量的分类，实验原理的分类，实验仪器的分类，实验操作的分类... 微粒观：物质由微观粒子组成；</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F76" t="n">
         <v>0.6813708831233667</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G76" t="n">
+        <v>0.5444726745137297</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.7792207792207793</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I76" t="n">
         <v>0.03575253359008941</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J76" t="n">
         <v>0.3743306621734355</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was founded in 1980 and is sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal in biology that is publicly distributed both domestically and internationally. It is a core Chinese scientific and technological journal that has been included in international and domestic databases such as Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Scientific and Technical Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net. In 2015, it was selected as a premium journal by the China Association for Science and Technology. It features sections including research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>《生命的化学》创立于1980年，由中国生物化学与分子生物学会主办，是一本国内外公开发行的生物学综合性学术期刊。它是被Chemical Abstracts (CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)和中国期刊网等国内外数据库收录的中文核心科技期刊。2015年，它被中国科学技术协会评选为精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法以及中药生化学等栏目。</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F77" t="n">
         <v>0.6924180424409746</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G77" t="n">
+        <v>0.5801027918293991</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I77" t="n">
         <v>0.04143968134792317</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J77" t="n">
         <v>0.3576849391071911</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B78" t="n">
         <v>3</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was founded in 1980 and is a comprehensive academic journal in biology sponsored by the Chinese Society of Biochemistry and Molecular Biology, distributed publicly both domestically and internationally. It is a core Chinese scientific journal that has been indexed by international and domestic databases including American Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Scientific and Technical Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net. In 2015, it was selected as a premium journal by the China Association for Science and Technology. The journal features sections including research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>《生命的化学》创立于1980年，是中国生物化学与分子生物学会主办的生物学综合性学术期刊，面向国内外公开发行。该期刊是中国核心科技期刊，已被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等国内外数据库收录。2015年，该期刊被中国科学技术协会评选为精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法以及中药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F78" t="n">
         <v>0.6259604796644526</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G78" t="n">
+        <v>0.4798779127734455</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I78" t="n">
         <v>0.03980118606840261</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J78" t="n">
         <v>0.4029822089739611</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="inlineStr">
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>&lt;Name&gt; Chemical Reagent Journal
 1. Free reading and downloading of "Chemical Reagent" electronic journal through WeChat official account, convenient and fast;
@@ -2717,7 +3578,7 @@
 3. Timely view of domestic chemical field conference information and content. "Chemical Reagent" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>&lt;Name&gt;化学试剂期刊
 1. 通过微信公众号免费阅读和下载《化学试剂》电子期刊，方便快捷；
@@ -2725,34 +3586,37 @@
 3. 及时查看国内化学领域会议信息和内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F79" t="n">
         <v>0.6211640273377456</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G79" t="n">
+        <v>0.50014716542871</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.8461538461538461</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I79" t="n">
         <v>0.06840941148865846</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J79" t="n">
         <v>0.384315296602074</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B80" t="n">
         <v>2</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>&lt;Title&gt; Name: Chemical Reagents Journal
 1. Free to read and download "Chemical Reagents" e-journal on WeChat official account, convenient and fast;
@@ -2761,7 +3625,7 @@
 "Chemical Reagents" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>&lt;Title&gt; 名称：《化学试剂》期刊
 1. 在微信公众号上免费阅读和下载《化学试剂》电子期刊，方便快捷；
@@ -2770,34 +3634,37 @@
 《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F80" t="n">
         <v>0.5299662230094143</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G80" t="n">
+        <v>0.3971840800025886</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.8589743589743589</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I80" t="n">
         <v>0.05846947542325447</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J80" t="n">
         <v>0.4737747211907098</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t># Objective
 This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, especially its application effectiveness in early tumor screening.
@@ -2809,7 +3676,7 @@
 Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies across different tumor types. Clinicians should select appropriate markers for combined detection based on tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t># 目标
 本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，尤其是其在早期肿瘤筛查中的应用效果。
@@ -2821,34 +3688,37 @@
 化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同肿瘤类型中的表现各异。临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F81" t="n">
         <v>0.650894936583473</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G81" t="n">
+        <v>0.5082076120906934</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.93125</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I81" t="n">
         <v>0.01596240653081778</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J81" t="n">
         <v>0.4173721616251504</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B82" t="n">
         <v>2</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t># Objective
 This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in clinical tumor marker detection, especially its application effectiveness in early tumor screening.
@@ -2860,7 +3730,7 @@
 Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection, providing important support for early tumor diagnosis. Different markers perform differently across various tumor types; clinicians should select appropriate markers for combined testing based on tumor type to improve early diagnostic accuracy.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t># 目标
 本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用效果。
@@ -2872,34 +3742,37 @@
 化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供重要支持。不同标志物在各种肿瘤类型中表现不同；临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断准确性。</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F82" t="n">
         <v>0.6531620202566111</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G82" t="n">
+        <v>0.5032432492387164</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.91875</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I82" t="n">
         <v>0.01619503360046616</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J82" t="n">
         <v>0.400783756782752</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B83" t="n">
         <v>3</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Objective
 This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, especially its application effectiveness in early tumor screening.
@@ -2911,7 +3784,7 @@
 Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. Different markers show varying performance across different tumor types. Clinicians should select appropriate markers for combined detection according to tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>目标
 本研究旨在评估化学发光免疫分析法(CLIA)在临床肿瘤标志物检测中的敏感性和特异性，尤其是其在早期肿瘤筛查中的应用效果。
@@ -2923,219 +3796,237 @@
 化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供重要支持。不同标志物在不同肿瘤类型中表现各异。临床医生应根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="F83" t="n">
         <v>0.664424453203371</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G83" t="n">
+        <v>0.5109893363945323</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.93125</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I83" t="n">
         <v>0.01610500748442579</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J83" t="n">
         <v>0.3960622193340329</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>&lt;正&gt;化学产品在工业设计领域具有十分广泛的应用,涵盖了从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计提供了可能,有效改善了产品的物理强度、耐久性、可塑性、透明度等特性,从而满足不同场景的应用需求。因此,深入研究化学产品的特性、应用和创新有助于拓宽工业设计领域的发展空间并满足不断变化的市场需求,为工业领域的发展注入新的活力。</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>&lt;Title&gt; Chemical products have a very wide range of applications in the field of industrial design, covering various aspects from material selection to product manufacturing. The application of chemical products enables the optimized design of adhesives, coatings, plastics, rubber, cellulosic materials, and surface treatment agents, effectively improving the physical strength, durability, plasticity, transparency, and other characteristics of products to meet the application requirements of different scenarios. Therefore, in-depth research on the characteristics, applications, and innovations of chemical products helps to expand the development space of industrial design and meet the ever-changing market demands, injecting new vitality into the development of the industrial field.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>&lt;标题&gt; 化学产品在工业设计领域有着非常广泛的应用范围，涵盖了从材料选择到产品制造的各个方面。化学产品的应用使得粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计成为可能，有效提高了产品的物理强度、耐久性、可塑性、透明度等特性，以满足不同场景的应用需求。因此，深入研究化学产品的特性、应用和创新有助于拓展工业设计的发展空间，满足不断变化的市场需求，为工业领域的发展注入新的活力。</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="F84" t="n">
         <v>0.7908745952947442</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G84" t="n">
+        <v>0.6841657661461229</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.8962264150943396</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I84" t="n">
         <v>0.04823867572265036</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J84" t="n">
         <v>0.4211358913281958</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>&lt;正&gt;化学产品在工业设计领域具有十分广泛的应用,涵盖了从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计提供了可能,有效改善了产品的物理强度、耐久性、可塑性、透明度等特性,从而满足不同场景的应用需求。因此,深入研究化学产品的特性、应用和创新有助于拓宽工业设计领域的发展空间并满足不断变化的市场需求,为工业领域的发展注入新的活力。</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B85" t="n">
         <v>2</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>&lt;Article&gt; Chemical products have a wide range of applications in the field of industrial design, covering various aspects from material selection to product manufacturing. The application of chemical products enables the optimized design of adhesives, coatings, plastics, rubber, cellulose materials, and surface treatment agents, effectively improving product characteristics such as physical strength, durability, plasticity, and transparency, thereby meeting application requirements in different scenarios. Therefore, in-depth research on the characteristics, applications, and innovations of chemical products helps to expand the development space in the field of industrial design and meet constantly changing market demands, injecting new vitality into the development of the industrial sector.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>&lt;Article&gt; 化学产品在工业设计领域有着广泛的应用，涵盖了从材料选择到产品制造的各个方面。化学产品的应用使得粘合剂、涂料、塑料、橡胶、纤维素材料以及表面处理剂等设计得到优化，有效提高产品的物理强度、耐久性、可塑性和透明度等特性，从而满足不同场景的应用需求。因此，深入研究化学产品的特性、应用和创新，有助于拓展工业设计领域的发展空间，满足不断变化的市场需求，为工业领域的发展注入新的活力。</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Claude-Sonnet-3.7</t>
         </is>
       </c>
-      <c r="F68" t="n">
+      <c r="F85" t="n">
         <v>0.7528637258301598</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G85" t="n">
+        <v>0.6243626674968979</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.8962264150943396</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I85" t="n">
         <v>0.05087834853176271</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J85" t="n">
         <v>0.3640206433529664</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="inlineStr">
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was established in 1980 and is an academic journal in the field of biological sciences, sponsored by the Chinese Society of Biochemistry and Molecular Biology, and publicly distributed both domestically and internationally. It is a core journal of Chinese science and technology and has been included in databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，是中国生物化学与分子生物学会主办的生物科学类学术期刊，国内外公开发行，是中国科技核心期刊，并被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等收录。2015年被中国科协评为精品期刊。该刊设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="F86" t="n">
         <v>0.6724705768590268</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G86" t="n">
+        <v>0.5186429534859515</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.8787878787878788</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I86" t="n">
         <v>0.03783812115063663</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J86" t="n">
         <v>0.4513472433157689</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B87" t="n">
         <v>2</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was established in 1980 and is a comprehensive academic journal in the field of biology, sponsored by the Chinese Society of Biochemistry and Molecular Biology, and publicly distributed both domestically and internationally. It is a core journal of Chinese science and technology and has been included in various domestic and international databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry in traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，是由中国生物化学与分子生物学会主办的生物学领域综合性学术期刊，国内外公开发行，是中国科技核心期刊，并被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外多个数据库收录。2015年入选中国科协精品期刊。该刊设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="F87" t="n">
         <v>0.705771356423006</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G87" t="n">
+        <v>0.56986913542816</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I87" t="n">
         <v>0.03549267054177634</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J87" t="n">
         <v>0.5031026124151314</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B88" t="n">
         <v>3</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was established in 1980 and is an academic journal in the field of biological sciences, publicly distributed both domestically and internationally, sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a core journal of Chinese science and technology and has been included in various domestic and international databases such as the American Chemical Abstracts (CA), the Japan Science and Technology Agency Database (JST), the Chinese Science and Technology Paper and Citation Database (CSTPCD), the Chinese Biological Abstracts Database (CBA), and the China Journal Net. In 2015, it was selected as a high-quality journal by the China Association for Science and Technology. The journal features sections such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，是中国生物科学领域的学术期刊，国内外公开发行，由中国生物化学与分子生物学会主办。该刊是中国科技核心期刊，被美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外多种数据库收录。2015年入选中国科协精品期刊。期刊设有研究论文、综述、教学、研究前沿、技术与方法、中药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="F88" t="n">
         <v>0.693827485104605</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G88" t="n">
+        <v>0.5563332564308475</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.8686868686868687</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I88" t="n">
         <v>0.03543835415856143</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J88" t="n">
         <v>0.4861438647008596</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="inlineStr">
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>&lt;Positive&gt; Name: Chemical Reagents Journal  
 1. Free access to read and download the electronic version of "Chemical Reagents" on the WeChat official account, convenient and fast;  
@@ -3144,7 +4035,7 @@
 "Chemical Reagents" journal is your window to understanding the reagents industry and a platform for mastering knowledge!</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>&lt;正面&gt; 名称：化学试剂期刊  
 1. 免费在微信公众号上阅读和下载《化学试剂》电子版，方便快捷；  
@@ -3153,817 +4044,883 @@
 《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F72" t="n">
+      <c r="F89" t="n">
         <v>0.4428074427700476</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G89" t="n">
+        <v>0.3049051665603076</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.8461538461538461</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I89" t="n">
         <v>0.06668283457073523</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J89" t="n">
         <v>0.3665130715780152</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>人教版《义务教育教科书化学九年级上册》为落实《义务教育化学课程标准(2022年版)》要求,完善课题结构,更新教材内容,改进呈现方式,聚焦核心素养培育,发挥课程育人功能。介绍了教材各单元在以上方面的具体做法,并提出相关教学建议。</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="inlineStr">
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>The People's Education Press "Compulsory Education Textbook Chemistry Grade 9 Volume 1" aims to implement the requirements of the "Compulsory Education Chemistry Curriculum Standards (2022 Edition)," improve the topic structure, update the textbook content, enhance the presentation methods, focus on cultivating core competencies, and leverage the educational function of the curriculum. It introduces specific practices of each unit in the textbook regarding the above aspects and provides relevant teaching suggestions.</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>人民教育出版社《义务教育教科书 化学 九年级 上册》旨在落实《义务教育化学课程标准（2022年版）》要求，完善课题结构，更新教材内容，改进呈现方式，注重核心素养培养，发挥课程育人功能，介绍教材各单元在上述方面的具体做法并提供相关教学建议。</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="F90" t="n">
         <v>0.5697281491504753</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G90" t="n">
+        <v>0.2802155143530864</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.9</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I90" t="n">
         <v>0.06308391994464982</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J90" t="n">
         <v>0.3376188405811771</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>人教版《义务教育教科书化学九年级上册》为落实《义务教育化学课程标准(2022年版)》要求,完善课题结构,更新教材内容,改进呈现方式,聚焦核心素养培育,发挥课程育人功能。介绍了教材各单元在以上方面的具体做法,并提出相关教学建议。</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B91" t="n">
         <v>2</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>The People's Education Press edition of "Compulsory Education Textbook Chemistry Grade 9 Volume 1" aims to implement the requirements of the "Compulsory Education Chemistry Curriculum Standards (2022 Edition)," improve the topic structure, update the textbook content, enhance the presentation methods, focus on cultivating core competencies, and leverage the educational function of the curriculum. It details the specific approaches taken by each unit of the textbook in these aspects and provides relevant teaching suggestions.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>人民教育出版社版《义务教育教科书化学九年级上册》旨在落实《义务教育化学课程标准（2022年版）》要求，完善课题结构，更新教材内容，改进呈现方式，注重核心素养培养，发挥课程育人功能。详细阐述了教材各单元在这些方面的具体做法，并提供了相关教学建议。</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F74" t="n">
+      <c r="F91" t="n">
         <v>0.6071767407189163</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G91" t="n">
+        <v>0.3943120983421001</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.8875</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I91" t="n">
         <v>0.0613876814214067</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J91" t="n">
         <v>0.44751086720734</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="inlineStr">
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above designated size nationwide was 75.1%, a decrease of 0.5 percentage points compared to the same period last year, but an increase of 0.2 percentage points from the second quarter. By major categories, the capacity utilization rate for mining was 74.6%; for manufacturing, it was 75.2%; and for the production and supply of electricity, heat, gas, and water, it was 74.3%. By key industries, the capacity utilization rate for coal mining and washing was 72.7%, for food manufacturing it was 70.7%, for the textile industry it was 77.9%, for non-metallic mineral products it was 61.7%, for ferrous metal smelting and rolling processing it was 77.4%, for non-ferrous metal smelting and rolling processing it was 78.4%, for general equipment manufacturing it was 78.7%, for special equipment manufacturing it was 75.8%, for automobile manufacturing it was 73.2%, and for electrical machinery and equipment manufacturing it was 75.6%.</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，比上年同期下降0.5个百分点，比二季度上升0.2个百分点。分三大门类看，采矿业产能利用率为74.6%；制造业产能利用率为75.2%；电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F75" t="n">
+      <c r="F92" t="n">
         <v>0.713330723323117</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G92" t="n">
+        <v>0.5776686496078888</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.9411764705882353</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I92" t="n">
         <v>0.02731503225680207</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J92" t="n">
         <v>0.6585620967899739</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B93" t="n">
         <v>2</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above the designated size nationwide was 75.1%, a decrease of 0.5 percentage points compared to the same period last year, but an increase of 0.2 percentage points from the second quarter. By major sectors, the capacity utilization rate in the mining industry was 74.6%; in the manufacturing sector, it was 75.2%; and in the production and supply of electricity, heat, gas, and water, it was 74.3%. By key industries, the capacity utilization rate in coal mining and washing was 72.7%, in food manufacturing 70.7%, in the textile industry 77.9%, in non-metallic mineral products 61.7%, in ferrous metal smelting and rolling 77.4%, in non-ferrous metal smelting and rolling 78.4%, in general equipment manufacturing 78.7%, in special equipment manufacturing 75.8%, in automobile manufacturing 73.2%, and in electrical machinery and equipment manufacturing 75.6%.</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，同比下降0.5个百分点，但环比第二季度上升0.2个百分点。分三大门类看，采矿业产能利用率为74.6%；制造业为75.2%；电力、热力、燃气及水生产和供应业为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="F93" t="n">
         <v>0.6236535256554326</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G93" t="n">
+        <v>0.4765487319936687</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.9313725490196079</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I93" t="n">
         <v>0.03630224706673</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J93" t="n">
         <v>0.4736174175324145</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B94" t="n">
         <v>3</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above designated size nationwide was 75.1%, a decrease of 0.5 percentage points from the same period last year and an increase of 0.2 percentage points from the second quarter. By major categories, the capacity utilization rate in the mining industry was 74.6%; in the manufacturing industry, it was 75.2%; and in the production and supply of electricity, heat, gas, and water, it was 74.3%. By major sectors, the capacity utilization rate in coal mining and washing was 72.7%, in food manufacturing it was 70.7%, in the textile industry it was 77.9%, in non-metallic mineral products it was 61.7%, in ferrous metal smelting and rolling processing it was 77.4%, in non-ferrous metal smelting and rolling processing it was 78.4%, in general equipment manufacturing it was 78.7%, in special equipment manufacturing it was 75.8%, in automobile manufacturing it was 73.2%, and in electrical machinery and equipment manufacturing it was 75.6%.</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，比上年同期下降0.5个百分点，比二季度上升0.2个百分点。分大类看，采矿业产能利用率为74.6%；制造业产能利用率为75.2%；电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F77" t="n">
+      <c r="F94" t="n">
         <v>0.6946915278533565</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G94" t="n">
+        <v>0.5564611797604927</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.9313725490196079</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I94" t="n">
         <v>0.03014937682370795</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J94" t="n">
         <v>0.6080581012917967</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B95" t="n">
         <v>2</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>"Chemical Engineering and Equipment" is an academic journal in the field of chemical engineering approved for publication by the National Press and Publication Administration and publicly distributed. It has been included in the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Group Co., Ltd. and sponsored by the Fujian Institute of Chemical Industry Science and Technology. It was established in 1972, is published monthly, and is released on the 25th of each month.</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>《化学工程与装备》是国家新闻出版总署批准公开发行的化工类学术期刊，已被中国学术期刊综合评价数据库（CAJCED）、中国期刊全文数据库（CJFD）收录。本刊由福建石油化工集团有限责任公司主管，福建省化工科学技术研究所主办，创刊于1972年，月刊，每月25日出版。</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F78" t="n">
+      <c r="F95" t="n">
         <v>0.6344227351197625</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G95" t="n">
+        <v>0.4721296905122648</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.9222222222222223</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I95" t="n">
         <v>0.06182431831262534</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J95" t="n">
         <v>0.4744932943426848</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B96" t="n">
         <v>3</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>"Chemical Engineering and Equipment" is a publicly available academic journal in the field of chemical engineering, approved for publication by the National Press and Publication Administration. It has been included in the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Group Co., Ltd. and sponsored by the Fujian Institute of Chemical Industry Science and Technology. It was established in 1972, is published monthly, and is released on the 25th of each month.</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>《化学工程与装备》是经国家新闻出版总署批准公开发行的化学工程类学术期刊，已被中国学术期刊综合评价数据库（CAJCED）、中国期刊全文数据库（CJFD）收录。该刊由福建省石油化工集团有限责任公司主管，福建省化工科学技术研究所主办，创刊于1972年，月刊，每月25日出版。</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F79" t="n">
+      <c r="F96" t="n">
         <v>0.5511756994656354</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G96" t="n">
+        <v>0.3516147532665101</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.9111111111111111</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I96" t="n">
         <v>0.06750637787452177</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J96" t="n">
         <v>0.3924425991293043</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B97" t="n">
         <v>2</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>The School of Chemistry and Chemical Engineering at Southeast University traces its origins to one of the key departments of the former Central University. The Department of Chemistry was first established in 1920, followed by the Department of Chemical Engineering in 1928. The Department of Chemistry and Chemical Engineering was re-established in 1988, and the School of Chemistry and Chemical Engineering was formally established in 2006. The school currently offers doctoral programs in "Chemical Engineering and Technology" and "Chemistry," as well as master's programs in "Chemistry" and "Chemical Engineering and Technology." Additionally, it has secondary doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are recognized as key disciplines in Jiangsu Province. The school also hosts a postdoctoral research station in "Chemical Engineering and Technology." The school comprises three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Chemical Biology and Pharmaceutical Engineering. It has established research institutes for Fine Chemical Engineering and Pharmaceutical Engineering. The school is home to several key laboratories, including the Jiangsu Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Key Laboratory of High-Tech Research for Biopharmaceuticals, the Jiangsu Engineering Laboratory for Optoelectronic Functional Materials, and the Jiangsu Engineering Laboratory for Carbon-Rich Materials and Devices. The school also operates a teaching experiment center and shares university-level analytical testing center resources within the building, providing excellent experimental conditions for teaching and research. The school currently has 136 faculty and staff members (including full-time postdoctoral researchers and dedicated research personnel), with 103 full-time faculty members, 98% of whom hold doctoral degrees.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>东南大学化学化工学院起源于原中央大学重要的院系之一。1920年，化学系成立；1928年，化工系成立。1988年，化学化工系重新建立；2006年，化学化工学院正式成立。学院现拥有“化学工程与技术”一级学科博士点和“化学”一级学科博士点，以及“化学”和“化学工程与技术”两个一级学科硕士点，另有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”为江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院下设化学系、化工系、化学生物与制药工程系三个系，设有精细化工研究所和制药工程研究所。学院拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等多个重点实验室。学院设有教学实验中心，并共享校级分析测试中心资源，为教学科研提供了良好的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，98%具有博士学位。</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F80" t="n">
+      <c r="F97" t="n">
         <v>0.7253707953162123</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G97" t="n">
+        <v>0.5728340475413556</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.8592592592592593</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I97" t="n">
         <v>0.02073212555373681</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J97" t="n">
         <v>0.3365719822804217</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B98" t="n">
         <v>3</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>The School of Chemistry and Chemical Engineering at Southeast University traces its origins to one of the key departments of the former Central University. The Department of Chemistry was first established in 1920, followed by the Department of Chemical Engineering in 1928. The Department of Chemistry and Chemical Engineering was reinstated in 1988, and the School of Chemistry and Chemical Engineering was formally established in 2006. The school currently offers doctoral programs in "Chemical Engineering and Technology" and "Chemistry," as well as master's programs in "Chemistry" and "Chemical Engineering and Technology." Additionally, it has secondary doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are recognized as key disciplines in Jiangsu Province. The school also hosts a postdoctoral research station in "Chemical Engineering and Technology." The school comprises three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Chemical Biology and Pharmaceutical Engineering. It has established research institutes for fine chemicals and pharmaceutical engineering, and houses key laboratories such as the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High-Tech Research in Biopharmaceuticals, the Jiangsu Provincial Engineering Laboratory for Optoelectronic Functional Materials, and the Jiangsu Provincial Engineering Laboratory for Carbon-Rich Materials and Devices. The school operates a teaching and experimental center and shares university-level analytical testing equipment resources, providing excellent experimental conditions for teaching and research. The school currently has 136 faculty and staff members (including full-time postdoctoral researchers and dedicated research personnel), of whom 103 are full-time faculty, with 98% holding advanced degrees.</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>东南大学化学化工学院起源于原中央大学重要的院系之一，最早于1920年成立化学系，1928年成立化学工程系，1988年恢复化学化工系，2006年正式成立化学化工学院。学院现拥有“化学工程与技术”一级学科博士点和“化学”一级学科博士点，以及“化学”和“化学工程与技术”两个一级学科硕士点，另有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”为江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院下设三个系：化学系、化学工程系、化学生物与制药工程系；建有精细化工研究所和制药工程研究所；拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等科研基地。学院设有教学实验中心，共享校级分析测试中心的大型仪器设备资源，为教学科研提供了良好的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，具有高级职称的教师占专任教师比例98%。</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="F98" t="n">
         <v>0.7595545253127499</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G98" t="n">
+        <v>0.630819771496484</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I98" t="n">
         <v>0.02150169768303846</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J98" t="n">
         <v>0.354949069508846</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="inlineStr">
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected to analyze the results of CLIA for tumor markers such as AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. Significant differences (P &lt; 0.05) were observed in the sensitivity of different tumor markers for liver cancer, ovarian cancer, gastric cancer, and colorectal cancer. Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for the early diagnosis of tumors. The performance of different markers varies across tumor types, and clinical practice should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在肿瘤早期筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，分析CLIA对AFP、CEA、CA-125和CA-199等肿瘤标志物的检测结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物对肝癌、卵巢癌、胃癌和结直肠癌的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为肿瘤的早期诊断提供了重要支持。不同标志物在肿瘤类型中的表现存在差异，临床实践中应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F82" t="n">
+      <c r="F99" t="n">
         <v>0.7645937175535713</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G99" t="n">
+        <v>0.6376013566209743</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.94375</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I99" t="n">
         <v>0.01490425732695388</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J99" t="n">
         <v>0.5007073795470449</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B100" t="n">
         <v>2</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the health examination center of Hospital A between March and June 2024 were selected to analyze the results of tumor markers such as AFP, CEA, CA-125, and CA-199 using CLIA. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. Significant differences in sensitivity were observed among different tumor markers for liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt; 0.05). Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. The performance of different markers varies across tumor types, and clinicians should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，采用CLIA分析AFP、CEA、CA-125和CA-199等肿瘤标志物的结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在肿瘤类型中的表现各异，临床医生应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="F100" t="n">
         <v>0.7628553098891114</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G100" t="n">
+        <v>0.6393210906741502</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.94375</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I100" t="n">
         <v>0.01454335612096523</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J100" t="n">
         <v>0.5200692480081476</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B101" t="n">
         <v>3</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its effectiveness in early tumor screening. Methods: A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected to analyze the CLIA results of tumor markers such as AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with intergroup comparisons conducted using chi-square tests and t-tests. Results: The CLIA results showed that CA-125 had the highest sensitivity (89.5%), while AFP and CA-199 had sensitivities of 80.3% and 85.7%, respectively, and CEA had the lowest sensitivity (68.5%). In terms of specificity, CEA performed the best (95.8%), with AFP, CA-199, and CA-125 having specificities of 92.4%, 90.3%, and 88.2%, respectively. There were significant differences in the sensitivity of different tumor markers in liver cancer, ovarian cancer, gastric cancer, and colorectal cancer (P &lt; 0.05). Conclusion: CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. The performance of different markers varies across tumor types, and clinical practice should select appropriate markers for combined testing based on tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的有效性。方法：选取2024年3月至6月期间A医院体检中心的1246份血清样本，分析AFP、CEA、CA-125和CA-199等肿瘤标志物的CLIA检测结果。通过与临床诊断结果对比，评估其敏感性、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，组间比较采用卡方检验和t检验。结果：CLIA检测结果显示，CA-125的敏感性最高（89.5%），AFP和CA-199的敏感性分别为80.3%和85.7%，而CEA的敏感性最低（68.5%）。在特异性方面，CEA表现最佳（95.8%），AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的敏感性存在显著差异（P &lt; 0.05）。结论：CLIA在肿瘤标志物检测中表现出较高的敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在肿瘤类型中的表现各异，临床实践中应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F101" t="n">
         <v>0.7629002631653615</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G101" t="n">
+        <v>0.6450971824734639</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.94375</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I101" t="n">
         <v>0.01415601153895482</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J101" t="n">
         <v>0.5399296249839686</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="inlineStr">
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>On September 21st, the "Future of Chemistry: 2024 Youth Forum of Acta Chimica Sinica" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was hosted by the School of Chemistry and Environment of Yunnan Minzu University, the Key Laboratory of Chiral Functional Substance Research and Utilization of Yunnan Province, the National-Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences. The Yunnan Chemical and Chemical Industry Association provided support for the event. Nearly 180 experts and scholars from 87 universities and research institutions across the country attended the conference. Academician Tang Yong from the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry of the Chinese Academy of Sciences, and Ruan Chaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>9月21日，“化学的未来：2024年《化学学报》青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所联合编辑部承办，云南省化工行业协会协办。来自全国87所高校和科研院所的近180名专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="F102" t="n">
         <v>0.8168465724954004</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G102" t="n">
+        <v>0.7248359969894165</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.9453125</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I102" t="n">
         <v>0.04773585778428791</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J102" t="n">
         <v>0.4033017776964011</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B103" t="n">
         <v>3</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>On September 21, the "Future of Chemistry: 2024 Youth Forum of Acta Chimica Sinica" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was hosted by the School of Chemistry and Environment of Yunnan Minzu University, the Key Laboratory of Chiral Functional Substance Research and Utilization of Yunnan Province, the National-Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences. The Yunnan Chemical and Chemical Industry Association provided support. Nearly 180 experts and scholars from 87 universities and research institutions across the country attended the meeting. Academician Tang Yong from the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry, Chinese Academy of Sciences, and Ruan Zhaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>9月21日，“化学的未来：2024年《化学学报》青年论坛”在云南民族大学雨花校区召开。本次论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所联合编辑部承办，云南省化工行业协会协办。来自全国87所高校和科研院所的近180位专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>DeepSeek-V3</t>
         </is>
       </c>
-      <c r="F86" t="n">
+      <c r="F103" t="n">
         <v>0.8248520790911256</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G103" t="n">
+        <v>0.7281007441438411</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.953125</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I103" t="n">
         <v>0.05005967149680286</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J103" t="n">
         <v>0.349224270541563</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>“天然药物化学”是高等学校药学及相关专业的必修课程。课程章节内容多、理论性强,学生学习面临较多难题。因此,基于超星学习通,建立线上和线下深度融合的天然药物化学混合教学模式,通过任务驱动、线上自主学习、小组讨论、课后巩固、延伸拓展知识等方式,全面激发学生的积极性和主动性,提升教学效果。</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B104" t="n">
         <v>3</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>"Natural Medicinal Chemistry" is a required course for pharmacy and related majors in higher education institutions. The content of course chapters is extensive and highly theoretical, and students face many difficulties in learning. Therefore, based on the Chaoxing Learning Platform, a deeply blended online and offline blended teaching mode of Natural Medicinal Chemistry was established. Through task-driven approaches, online self-directed learning, group discussions, post-class reinforcement, knowledge extension and expansion, and other methods, it comprehensively stimulates students' initiative and enthusiasm and enhances teaching effectiveness.</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>“天然药物化学”是高等院校药学及相关专业的一门必修课程。课程章节内容广泛且高度理论化，学生在学习中面临诸多困难。因此，基于超星学习平台，构建了“天然药物化学”深度融合线上线下的混合式教学模式。通过任务驱动、线上自主学习、小组讨论、课后巩固、知识拓展延伸等多种方法，全面激发学生的积极性和主动性，提升教学效果。</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F87" t="n">
+      <c r="F104" t="n">
         <v>0.5641352711653373</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G104" t="n">
+        <v>0.415864835041075</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.945054945054945</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I104" t="n">
         <v>0.05576238733756375</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J104" t="n">
         <v>0.3866137392867989</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>为实现“立德树人”的教育目标，各高校开始大力发展将“课程思政”融入专业课程的举措。分析化学实验作为一门基础性极强、学科地位较高的实验课程，蕴含着非常丰富的思政元素。本文通过分析该课程目前的教学现状，在课程的前中后期深入挖掘和糅合思政元素，以达到培养学生实事求是的科学精神、大胆创新的意识以及“绿水青山就是金山银山”的可持续发展理念等思政目标，在学习知识的同时，帮助学生树立正确的世界观、人生观、价值观，为国家培养更多的高素质、高质量的化学人才。</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B105" t="n">
         <v>2</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>To achieve the educational goal of "cultivating virtue and nurturing talent," universities have begun to vigorously develop measures to integrate "curriculum ideology and politics" into professional courses. Analytical chemistry experiment, as a highly fundamental and academically important experimental course, contains very rich ideological and political elements. This article, by analyzing the current teaching situation of this course, deeply explores and integrates ideological and political elements in the pre-course, mid-course, and post-course stages, in order to achieve ideological and political goals such as cultivating students' scientific spirit of seeking truth from facts, a bold sense of innovation, and the sustainable development concept of "lucid waters and lush mountains are invaluable assets." While learning knowledge, it helps students establish correct worldviews, perspectives on life, and values, and cultivates more high-caliber and high-quality chemistry talents for the country.</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>为实现“立德树人”的教育目标，高校开始大力开展将“课程思政”融入专业课程的举措。分析化学实验作为一门高度基础且学术性重要的实验课程，蕴含着非常丰富的思政元素。本文通过分析该课程目前的教学现状，深入挖掘和融入课前、课中和课后环节的思政元素，旨在实现诸如培养学生实事求是的科学精神、勇于创新的胆识以及“绿水青山就是金山银山”的可持续发展理念等思政目标。在学习知识的同时，帮助学生树立正确的世界观、人生观和价值观，为国家培养更多高素质、高水平的化学人才。</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F88" t="n">
+      <c r="F105" t="n">
         <v>0.7739373576288943</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G105" t="n">
+        <v>0.6748064193986825</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.9</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I105" t="n">
         <v>0.04201619773779906</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J105" t="n">
         <v>0.3697570339330143</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>Core Elemental Perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same category have similar properties; the properties of matter are related to elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after chemical reactions...
 Classification Perspective: Select the object of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations...
 Particulate Perspective: Matter is composed of microscopic particles;</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>核心要素观：物质是由元素组成的；元素可以分为不同的类别，不同的元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，物质可以根据元素组成进行分类；化学反应前后，元素的种类不变……
 分类观：选择分类的对象和分类的视角（特征），元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理的分类，实验仪器和实验操作……
 微粒观：物质是由微观粒子组成的；</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F89" t="n">
+      <c r="F106" t="n">
         <v>0.8119166932693763</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G106" t="n">
+        <v>0.7132738833309761</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I106" t="n">
         <v>0.03287126289274955</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J106" t="n">
         <v>0.4576241622696328</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B107" t="n">
         <v>3</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Element Perspective: Matter is composed of elements; elements can be divided into different categories, different elements have different properties, elements of the same kind have similar properties; the properties of matter are related to the elemental composition, matter can be classified according to elemental composition; the types of elements remain unchanged before and after a chemical reaction... Classification Perspective: Select the object of classification and the perspective (characteristics) of classification, classification of elements, classification of matter, classification of changes, classification of chemical reactions, classification of chemical reaction conditions, classification of properties of matter, classification of structures of matter, classification of influencing variables in experimental investigations, classification of experimental principles, experimental instruments, and experimental operations... Particle Perspective: Matter is composed of microscopic particles;</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>元素观：物质是由元素组成的；元素可以分为不同类别，不同元素性质不同，同种元素性质相似；物质的性质与元素组成有关，物质可以根据元素组成进行分类；化学反应前后元素种类不变……
 分类观：选择分类对象和分类角度（特征），元素的分类、物质的分类、变化的分类、化学反应的分类、化学反应条件的分类、物质性质的分类、物质结构的分类、实验探究中影响变量的分类、实验原理的分类、实验仪器和实验操作的分类……
 粒子观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F90" t="n">
+      <c r="F107" t="n">
         <v>0.6777882718387883</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G107" t="n">
+        <v>0.485324176475748</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.8441558441558441</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I107" t="n">
         <v>0.03469873261889771</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J107" t="n">
         <v>0.427470911788188</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="inlineStr">
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>Life's Chemistry, founded in 1980, is a comprehensive biology academic journal sponsored by the Chinese Society of Biochemistry and Molecular Biology and publicly distributed both domestically and internationally. It is a Chinese core science and technology journal, and has been indexed by international and domestic databases such as Chemical Abstracts (CA) of the United States, Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China National Knowledge Infrastructure (CNKI). In 2015, it was selected as a China Association for Science and Technology (CAST) Excellent Journal. It features sections including research papers, reviews, teaching, research frontiers, techniques and methods, and Traditional Chinese Medicine Biochemistry.</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>《生命化学》创刊于1980年，是一本综合性生物学学术期刊，由中国生物化学与分子生物学会主办，国内外公开发行。它是中国科技核心期刊，并被国内外数据库收录，如美国《化学文摘》(CA)、日本科学技术振兴机构数据库 (JST)、中国科学技术论文与引文数据库 (CSTPCD)、中国生物学文摘数据库 (CBA) 和中国知网 (CNKI)。2015年，入选为中国科学技术协会 (CAST) 优秀科技期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="F108" t="n">
         <v>0.6001032968932506</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G108" t="n">
+        <v>0.4555993382717659</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I108" t="n">
         <v>0.03605324112779008</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J108" t="n">
         <v>0.3330150391358835</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B109" t="n">
         <v>2</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>《生命的化学》was founded in 1980, sponsored by the Chinese Society of Biochemistry and Molecular Biology, and is a comprehensive academic journal of biology openly published both domestically and internationally. It is a Chinese Science and Technology Core Journal, and has been indexed by domestic and international databases such as Chemical Abstracts (CA, USA), Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China National Knowledge Infrastructure (CNKI). In 2015, it was selected as a High-Quality Journal of CAST. It features columns such as Research Papers, Reviews, Teaching, Research Frontiers, Techniques and Methods, and Biochemistry of Traditional Chinese Medicine, etc.</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于一九八〇年，由中国生物化学与分子生物学会主办，并是一本国内外公开发行的综合性生物学学术期刊。是中国科技核心期刊，并被国内外数据库收录，如《化学文摘》(CA，美国)、日本科学技术振兴机构数据库 (JST)、中国科学技术论文与引文数据库 (CSTPCD)、中国生物学文摘数据库 (CBA) 和中国知网 (CNKI) 等。二〇一五年入选中国科协高质量科技期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F92" t="n">
+      <c r="F109" t="n">
         <v>0.602292058852363</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G109" t="n">
+        <v>0.452129654051452</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.8282828282828283</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I109" t="n">
         <v>0.03830162371175062</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J109" t="n">
         <v>0.368023208756115</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B110" t="n">
         <v>3</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was founded in 1980. It is sponsored by the Chinese Society of Biochemistry and Molecular Biology and is a comprehensive biological academic journal openly published both domestically and internationally. It is a Chinese core science and technology journal, and has been indexed by databases both domestically and internationally such as Chemical Abstracts (CA) of the United States, Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China National Knowledge Infrastructure (CNKI). In 2015, it was selected as a China Association for Science and Technology (CAST) Excellent Journal. It features columns such as research papers, reviews, teaching, research frontiers, techniques and methods, and biochemistry of traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年。它由中国生物化学与分子生物学会主办，是一本国内外公开发行的综合性生物学学术期刊。它是中国科技核心期刊，并被国内外数据库收录，如美国化学文摘（CA）、日本科学技术振兴机构数据库（JST）、中国科学技术论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国知网（CNKI）。2015年，它被评为中国科学技术协会（CAST）优秀期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F93" t="n">
+      <c r="F110" t="n">
         <v>0.5735943642964283</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G110" t="n">
+        <v>0.429550423416533</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.8484848484848485</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I110" t="n">
         <v>0.035912808933179</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J110" t="n">
         <v>0.3894822481359571</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="inlineStr">
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>Name: Chemical Reagent Journal
 1.  You can freely read and download the electronic journal "Chemical Reagent" on the WeChat official account, which is convenient and fast;
@@ -3972,7 +4929,7 @@
 "Chemical Reagent" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>化学试剂期刊
 1. 您可以在微信公众号上免费阅读和下载电子期刊《化学试剂》，方便快捷；
@@ -3981,34 +4938,37 @@
 《化学试剂》期刊是您了解试剂行业的窗口，更是您掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F94" t="n">
+      <c r="F111" t="n">
         <v>0.5362778990061087</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G111" t="n">
+        <v>0.355434338747989</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.8589743589743589</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I111" t="n">
         <v>0.07566699233714512</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J111" t="n">
         <v>0.3568305651342666</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B112" t="n">
         <v>2</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Name: Chemical Reagent Journal
 1. You can freely read and download the e-journal of "Chemical Reagent" on the WeChat official account, conveniently and quickly.
@@ -4017,7 +4977,7 @@
 "Chemical Reagent" Journal is your window to understand the reagent industry and a platform to master knowledge!</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>化学试剂期刊
 1. 您可以在微信公众号方便快捷地免费阅读和下载《化学试剂》电子期刊。
@@ -4026,34 +4986,37 @@
 《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="F112" t="n">
         <v>0.5589565568382148</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G112" t="n">
+        <v>0.3946301196272117</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.8461538461538461</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I112" t="n">
         <v>0.07875339793736785</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J112" t="n">
         <v>0.2912194185636897</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B113" t="n">
         <v>3</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Name: Chemical Reagents Journal
 1.  You can read and download the electronic journal "Chemical Reagents" for free on the WeChat official account, conveniently and quickly;
@@ -4062,7 +5025,7 @@
 "Chemical Reagents" journal is your window to understand the reagent industry and a platform to master knowledge!</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>名称：化学试剂期刊
 1. 您可以在微信公众号上免费便捷地阅读和下载《化学试剂》电子期刊；
@@ -4071,145 +5034,157 @@
 《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台！</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F96" t="n">
+      <c r="F113" t="n">
         <v>0.5315284776213994</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G113" t="n">
+        <v>0.395676848852237</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.8205128205128205</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I113" t="n">
         <v>0.07359790660209146</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J113" t="n">
         <v>0.3376188405811771</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B114" t="n">
         <v>2</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, the national capacity utilization rate of industrial enterprises above a designated size was 75.1%, a decrease of 0.5 percentage points compared with the same period last year, and an increase of 0.2 percentage points compared with the second quarter.  Looking at the three major categories, in the third quarter of 2024, the capacity utilization rate of the mining industry was 74.6%; the manufacturing industry was 75.2%; and the production and supply of electricity, heat, gas and water was 74.3%. Looking at major industries, in the third quarter of 2024, the capacity utilization rate of coal mining and washing industry was 72.7%, food manufacturing was 70.7%, textile industry was 77.9%, non-metallic mineral products industry was 61.7%, ferrous metal smelting and rolling processing industry was 77.4%, non-ferrous metal smelting and rolling processing industry was 78.4%, general equipment manufacturing was 78.7%, special equipment manufacturing was 75.8%, automobile manufacturing was 73.2%, and electrical machinery and equipment manufacturing was 75.6%.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，比上年同期下降0.5个百分点，比上季度上升0.2个百分点。分三大门类看，2024年第三季度，采矿业产能利用率为74.6%；制造业为75.2%；电力、热力、燃气及水生产和供应业为74.3%。分主要行业看，2024年第三季度，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F97" t="n">
+      <c r="F114" t="n">
         <v>0.6702841884934208</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G114" t="n">
+        <v>0.5101704775701743</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.9313725490196079</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I114" t="n">
         <v>0.04199326111784332</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J114" t="n">
         <v>0.4120943443501935</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B115" t="n">
         <v>2</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>&lt;正&gt;The predecessor of the School of Chemistry and Chemical Engineering of Southeast University was one of the important departments of the former National Central University. The Department of Chemistry was first established in 1920, the Department of Chemical Engineering was established in 1928, the Department of Chemistry and Chemical Engineering was re-established in 1988, and the School of Chemistry and Chemical Engineering was established in 2006. The school currently has doctoral programs in the first-level disciplines of "Chemical Engineering and Technology" and "Chemistry," master's programs in the first-level disciplines of "Chemistry" and "Chemical Engineering and Technology," and also doctoral and master's programs in the second-level discipline of "Materials Physics and Chemistry." Among them, "Applied Chemistry" and "New Materials" are advantageous disciplines in Jiangsu Province, and a postdoctoral research station for "Chemical Engineering and Technology" is established. The school currently has three departments: Department of Chemistry, Department of Chemical Engineering, and Department of Chemical Biology and Pharmaceutical Engineering. It has successively established the Institute of Fine Chemical Engineering and the Institute of Pharmaceutical Engineering. It has the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High-Tech Research for Bio-pharmaceuticals, the Jiangsu Provincial Engineering Laboratory for Photoelectric Functional Materials, and the Jiangsu Provincial Engineering Laboratory for Rich-Carbon Materials and Devices, etc. The school has a teaching experimental center and shares equipment resources of the university-level Analysis and Testing Center in the same building, providing excellent experimental conditions for teaching and research. The school currently has 136 faculty and staff members (including full-time postdoctoral fellows and full-time researchers), of whom 103 are full-time teachers, and 98%</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院的前身是原国立中央大学的重要系科之一。化学系始建于1920年，化学工程系始建于1928年，化学与化学工程系于1988年重建，化学化工学院于2006年成立。学院现有“化学工程与技术”和“化学”一级学科博士学位授权点、“化学”和“化学工程与技术”一级学科硕士学位授权点，以及“材料物理与化学”二级学科博士和硕士学位授权点。其中“应用化学”和“新材料”为江苏省优势学科，并设有“化学工程与技术”博士后科研流动站。学院现有化学系、化学工程系、化学生物与制药工程系三个系。先后成立了精细化工研究所和制药工程研究所。拥有江苏省分子铁电科学与应用重点实验室、江苏省生物医药高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并在同一楼宇内共享校级分析测试中心的设备资源，为教学和科研提供了优良的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，98%</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F98" t="n">
+      <c r="F115" t="n">
         <v>0.6997614855970284</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G115" t="n">
+        <v>0.5429216347807289</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.9407407407407408</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I115" t="n">
         <v>0.02238014949544435</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J115" t="n">
         <v>0.3509756646321138</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B116" t="n">
         <v>3</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>&lt;正&gt;The predecessor of the School of Chemistry and Chemical Engineering of Southeast University was one of the important departments of the former National Central University. The Department of Chemistry was established as early as 1920, the Department of Chemical Engineering was established in 1928, the Department of Chemistry and Chemical Engineering was re-established in 1988, and the School of Chemistry and Chemical Engineering was established in 2006. The School currently has doctoral programs in first-level disciplines of "Chemical Engineering and Technology" and "Chemistry," master's programs in first-level disciplines of "Chemistry" and "Chemical Engineering and Technology," and also doctoral and master's programs in the second-level discipline of "Materials Physics and Chemistry." Among them, "Applied Chemistry" and "New Materials" are advantageous disciplines in Jiangsu Province, and a postdoctoral research station for "Chemical Engineering and Technology" is established. The School currently has three departments: Department of Chemistry, Department of Chemical Engineering, and Department of Chemical Biology and Pharmaceutical Engineering. It has successively established the Institute of Fine Chemical Engineering and the Institute of Pharmaceutical Engineering. It also has the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High-Tech Research on Biopharmaceuticals, the Jiangsu Provincial Engineering Laboratory of Photoelectric Functional Materials, and the Jiangsu Provincial Engineering Laboratory of Rich-Carbon Materials and Devices, etc. The School has a teaching experimental center and shares equipment resources of the university-level Analysis and Testing Center in the same building, providing excellent experimental conditions for teaching and research. The School currently has 136 faculty and staff members (including full-time postdoctoral fellows and full-time researchers), of which 103 are full-time teachers, 98%</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>东南大学化学化工学院的前身是原国立中央大学的重要系科之一。化学系早在1920年建立，化学工程系于1928年建立，化学与化学工程系于1988年重建，化学化工学院于2006年建立。学院现有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，以及“材料物理与化学”二级学科博士和硕士点。其中，“应用化学”和“新型材料”为江苏省优势学科，并设有“化学工程与技术”博士后科研流动站。学院现设化学系、化学工程系、化学生物与制药工程系三个系。先后成立了精细化工研究所和制药工程研究所。还拥有江苏省分子铁电科学与应用重点实验室、江苏省生物医药高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并与校级分析测试中心在同一楼内共享仪器设备资源，为教学和科研提供优良的实验条件。学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，98%</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F99" t="n">
+      <c r="F116" t="n">
         <v>0.6917330580909907</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G116" t="n">
+        <v>0.5360236860762756</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.9185185185185185</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I116" t="n">
         <v>0.02238014949544435</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J116" t="n">
         <v>0.3509756646321138</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="inlineStr">
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>Objective: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its application in early tumor screening.
 Methods: 1246 serum samples were collected from the health examination center of Hospital A between March and June 2024. Chemiluminescence immunoassay results for tumor markers such as AFP, CEA, CA-125, and CA-199 were analyzed. Sensitivity, specificity, and predictive values (PPV and NPV) were evaluated by comparing with clinical diagnostic results. Data were statistically analyzed using SPSS 26.0 software, and inter-group comparisons were conducted using methods such as chi-square test and t-test.
@@ -4217,7 +5192,7 @@
 Conclusion: Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection, providing significant support for early tumor diagnosis. The performance of different markers varies across different tumor types. Clinically, appropriate markers should be selected for combined detection based on tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析法(CLIA)在检测临床肿瘤标志物中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用。
 方法：于2024年3月至6月期间，从A医院体检中心收集了1246份血清样本。分析了甲胎蛋白(AFP)、癌胚抗原(CEA)、糖类抗原125 (CA-125)和糖类抗原199 (CA-199)等肿瘤标志物的化学发光免疫分析结果。通过与临床诊断结果进行比较，评估了敏感性、特异性以及预测值（PPV和NPV）。使用SPSS 26.0软件对数据进行统计分析，组间比较采用卡方检验和t检验等方法。
@@ -4225,34 +5200,37 @@
 结论：化学发光免疫分析法在肿瘤标志物检测中表现出较高的敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同肿瘤类型中的表现有所不同。临床上，应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F100" t="n">
+      <c r="F117" t="n">
         <v>0.6201757333202708</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G117" t="n">
+        <v>0.4675122541363153</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.93125</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I117" t="n">
         <v>0.01500767018255231</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J117" t="n">
         <v>0.4071970277891837</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B118" t="n">
         <v>2</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Purpose: This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, especially its application effect in early tumor screening.
 Methods: 1246 serum samples from the health examination center of Hospital A from March to June 2024 were selected to analyze the chemiluminescence immunoassay detection results of tumor markers such as AFP, CEA, CA-125, and CA-199. By comparing with clinical diagnostic results, its sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. Data were statistically analyzed using SPSS 26.0 software, and inter-group comparisons were performed using chi-square tests, t-tests, and other methods.
@@ -4260,7 +5238,7 @@
 Conclusion: Chemiluminescence immunoassay has high sensitivity and high specificity in the detection of tumor markers, and can provide important support for the early diagnosis of tumors. The performance of different markers varies in different tumor types. Clinically, appropriate markers should be selected for combined detection according to the tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析法 (CLIA) 在检测临床肿瘤标志物中的灵敏度和特异性，特别是其在早期肿瘤筛查中的应用效果。
 方法：选取2024年3月至6月期间A医院体检中心1246例血清样本，分析AFP、CEA、CA-125和CA-199等肿瘤标志物的化学发光免疫分析检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。采用SPSS 26.0软件对数据进行统计分析，组间比较采用卡方检验、t检验等方法。
@@ -4268,34 +5246,37 @@
 结论：化学发光免疫分析法在肿瘤标志物检测中具有较高的灵敏度和特异性，可为肿瘤的早期诊断提供重要支持。不同标志物在不同肿瘤类型中的表现存在差异。临床上应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F101" t="n">
+      <c r="F118" t="n">
         <v>0.7929277200839021</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G118" t="n">
+        <v>0.6832847827652202</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.96875</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I118" t="n">
         <v>0.01333899756748783</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J118" t="n">
         <v>0.573152077840389</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B119" t="n">
         <v>3</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Objective This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in clinical tumor marker detection, especially its application effect in early tumor screening.
 Methods 1246 serum samples were collected from the health examination center of Hospital A from March to June 2024. The chemiluminescence immunoassay detection results of tumor markers such as AFP, CEA, CA-125, and CA-199 were analyzed. By comparing with clinical diagnostic results, its sensitivity, specificity, and predictive values (PPV and NPV) were evaluated. Data were statistically analyzed using SPSS 26.0 software, and inter-group comparisons were performed using methods such as chi-square test and t-test.
@@ -4303,7 +5284,7 @@
 Conclusion Chemiluminescence immunoassay has high sensitivity and specificity in the detection of tumor markers, and can provide important support for the early diagnosis of tumors. The performance of different markers varies in different tumor types. Clinically, appropriate markers should be selected for combined detection according to the tumor type to improve the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的灵敏度和特异度，尤其是在早期肿瘤筛查中的应用效果。
 方法 收集了A医院体检中心2024年3月至6月的1246份血清样本。分析了AFP、CEA、CA-125和CA-199等肿瘤标志物的化学发光免疫分析检测结果。通过与临床诊断结果对比，评估了其灵敏度、特异度及预测值（PPV和NPV）。采用SPSS 26.0软件进行数据统计分析，组间比较采用卡方检验、t检验等方法。
@@ -4311,408 +5292,441 @@
 结论 化学发光免疫分析法在肿瘤标志物检测中具有较高的灵敏度和特异度，可为肿瘤的早期诊断提供重要支持。不同标志物在不同肿瘤类型中的表现存在差异。临床上应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F102" t="n">
+      <c r="F119" t="n">
         <v>0.7684161565564183</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G119" t="n">
+        <v>0.6367563693852486</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.9625</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I119" t="n">
         <v>0.0148789864119981</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J119" t="n">
         <v>0.4941144619920645</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>&lt;正&gt;化学产品在工业设计领域具有十分广泛的应用,涵盖了从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料和表面处理剂等的优化设计提供了可能,有效改善了产品的物理强度、耐久性、可塑性、透明度等特性,从而满足不同场景的应用需求。因此,深入研究化学产品的特性、应用和创新有助于拓宽工业设计领域的发展空间并满足不断变化的市场需求,为工业领域的发展注入新的活力。</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B120" t="n">
         <v>2</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Chemical products are widely used in the field of industrial design, covering all aspects from material selection to product manufacturing. The application of chemical products provides possibilities for the optimized design of adhesives, coatings, plastics, rubber, cellulose materials, surface treatment agents, and the like, effectively improving the physical strength, durability, plasticity, transparency, and other properties of products, thereby meeting the application needs of different scenarios. Therefore, in-depth research on the properties, applications, and innovations of chemical products helps to broaden the development space of the industrial design field and meet constantly changing market demands, injecting new vitality into the development of the industrial field.</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>化学产品广泛应用于工业设计领域，覆盖从材料选择到产品制造的各个方面。化学产品的应用为粘合剂、涂料、塑料、橡胶、纤维素材料、表面处理剂等的优化设计提供了可能性，有效地提升产品的物理强度、耐久性、可塑性、透明度和其他性能，从而满足不同场景的应用需求。因此，对化学产品的性能、应用和创新的深入研究，有助于拓展工业设计领域的发展空间，并满足不断变化的市场需求，为工业领域的发展注入新的活力。</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F103" t="n">
+      <c r="F120" t="n">
         <v>0.731743593352536</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G120" t="n">
+        <v>0.6214906922614877</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.8773584905660378</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I120" t="n">
         <v>0.04990044581695834</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J120" t="n">
         <v>0.3512942043795418</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B121" t="n">
         <v>2</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>On September 21st, the "Chemistry Future: Acta Chimica Sinica 2024 Youth Forum" was held at Yunnan Minzu University Yuhua Campus. The forum was jointly hosted by the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University, and organized by the School of Chemistry and Environment of Yunnan Minzu University, Yunnan Provincial Key Laboratory of Chiral Functional Substances Research and Utilization, National and Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of Acta Chimica Sinica of the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, and co-organized by the Yunnan Chemical Society. Nearly 180 experts and scholars from 87 universities and research institutes across the country attended the meeting. Academician Tang Yong of the Shanghai Institute of Organic Chemistry of the Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry of the Chinese Academy of Sciences, and Ruan Chaoqi, Secretary of the Party Committee of Yunnan Minzu University delivered opening speeches respectively.</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>九月二十一日，“化学未来：化学学报2024年青年论坛”在云南民族大学雨花校区举行。论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所《化学学报》编辑部承办，云南省化学会协办。来自全国87所高校及科研院所的近180位专家学者出席会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F104" t="n">
+      <c r="F121" t="n">
         <v>0.7777586075519903</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G121" t="n">
+        <v>0.6889365539237058</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.9140625</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I121" t="n">
         <v>0.05005967149680287</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J121" t="n">
         <v>0.349224270541563</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B122" t="n">
         <v>3</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>September 21st, the "Chemistry Future: Acta Chimica Sinica 2024 Youth Forum" was held at the Yuhua Campus of Yunnan Minzu University. The forum was jointly hosted by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University. It was organized by the School of Chemistry and Environment of Yunnan Minzu University, the Yunnan Provincial Key Laboratory of Chiral Functional Substances Research and Utilization, the National and Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of Acta Chimica Sinica of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, and co-organized by the Yunnan Chemical Society. Nearly 180 experts and scholars from 87 universities and research institutes across the country attended the meeting. Academician Tang Yong of the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Researcher Fan Qinghua, Secretary of the Party Committee of the Institute of Chemistry, Chinese Academy of Sciences, and Ruan Chaoqi, Secretary of the Party Committee of Yunnan Minzu University, delivered opening speeches respectively.</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>9月21日，“化学未来——《化学学报》2024青年论坛”在云南民族大学雨花校区举行。论坛由中国科学院上海有机化学研究所、云南民族大学、曲靖师范学院联合主办，云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所《化学学报》编辑部联合编辑部承办，云南省化学学会协办。来自全国87所高校和科研院所的近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>Gemini-2FTE</t>
         </is>
       </c>
-      <c r="F105" t="n">
+      <c r="F122" t="n">
         <v>0.8290078027424554</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G122" t="n">
+        <v>0.7489070621125404</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.9453125</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I122" t="n">
         <v>0.04367794318631463</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J122" t="n">
         <v>0.4758646817642245</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="inlineStr">
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>As the new curriculum reform continues to deepen, the interdisciplinary integration of high school chemistry and biology courses has become an important way to improve students' overall quality. In the daily teaching process, teachers should further enhance their attention to interdisciplinary teaching strategies, thereby helping students to gain a deeper understanding of related knowledge. Based on this, this paper takes "Proteins, the main bearers of life activities" as an example, to explore the strategies of interdisciplinary teaching of chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative abilities.</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>随着新课程改革的不断深入，高中化学与生物课程的跨学科整合已成为提高学生整体素质的重要途径。在日常教学过程中，教师应进一步加强对跨学科教学策略的关注，从而帮助学生更深入地理解相关知识。基于此，本文以“蛋白质，生命活动的主要承担者”为例，探讨化学在生物课堂中的跨学科教学策略，旨在提升学生的科学素养和创新能力。</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F106" t="n">
+      <c r="F123" t="n">
         <v>0.6086884054825042</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G123" t="n">
+        <v>0.3937659843822643</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.875</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I123" t="n">
         <v>0.07376700808041584</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J123" t="n">
         <v>0.3360969272762575</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B124" t="n">
         <v>2</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>As the new curriculum reform continues to deepen, the integrated teaching of high school chemistry and biology has become an important approach to enhancing students' overall quality. In the daily teaching process, teachers should further increase their attention to strategies for integrated teaching, thereby helping students gain a deeper understanding of related knowledge. Based on this, this paper takes "the main carrier of life activities - proteins" as an example to explore strategies for the integrated teaching of high school chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative capabilities.</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>随着新课程改革的不断深入，高中化学与生物的融合教学已成为提升学生整体素质的重要途径。在日常教学过程中，教师应进一步加强对融合教学策略的关注，从而帮助学生更深入地理解相关知识。基于此，本文以“生命活动的主要载体——蛋白质”为例，探讨高中化学在生物课堂中的融合教学策略，旨在提升学生的科学素养和创新能力。</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F107" t="n">
+      <c r="F124" t="n">
         <v>0.6636689067563107</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G124" t="n">
+        <v>0.4772468989862396</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.8645833333333334</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I124" t="n">
         <v>0.07730826870358362</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J124" t="n">
         <v>0.2655714473159557</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B125" t="n">
         <v>3</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>As the new curriculum reform continues to deepen, the integrated teaching of high school chemistry and biology has become an important way to enhance students' comprehensive qualities. In the daily teaching process, teachers should further increase their emphasis on strategies for integrated teaching, thereby helping students gain a deeper understanding of related knowledge. Based on this, this paper takes "Proteins, the main bearers of life activities" as an example to explore the strategies of integrated teaching of chemistry in biology classrooms, aiming to enhance students' scientific literacy and innovative abilities.</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>随着新课程改革的不断深入，高中化学与生物的综合教学已成为提升学生综合素质的重要途径。在日常教学过程中，教师应进一步加强对综合教学策略的重视，从而帮助学生更深入地理解相关知识。基于此，本文以“蛋白质，生命活动的主要承担者”为例，探讨化学在生物课堂中的综合教学策略，旨在提升学生的科学素养和创新能力。</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F108" t="n">
+      <c r="F125" t="n">
         <v>0.6318708634924939</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G125" t="n">
+        <v>0.4174569142759438</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.8958333333333334</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I125" t="n">
         <v>0.07376700808041584</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J125" t="n">
         <v>0.3360969272762575</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B126" t="n">
         <v>2</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>**Element View:** Matter is composed of elements; elements can be categorized into different types, with different elements having different properties and similar elements sharing similar properties; the properties of matter are related to the composition of elements, allowing for classification of matter based on elemental composition; the types of elements remain unchanged before and after chemical reactions...
 **Classification View:** Choose the objects and perspectives (features) for classification, including the classification of elements, matter, changes, chemical reactions, conditions of chemical reactions, properties of matter, structure of matter, classification of variables affecting experiments, classification of experimental principles, equipment, and operations...
 **Particle View:** Matter is made up of microscopic particles...</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>**元素观：** 物质由元素组成；元素可以分为不同类型，不同的元素具有不同的性质，相似元素具有相似的性质；物质的性质与元素的组成有关，可以根据元素组成对物质进行分类；化学反应前后的元素类型保持不变……
 **分类观：** 选择对象和视角（特征）进行分类，包括元素的分类、物质的分类、变化的分类、化学反应的分类、化学反应条件的分类、物质性质的分类、物质结构的分类、影响实验的变量分类、实验原理的分类、设备和操作的分类……
 **微粒观：** 物质由微观粒子构成……</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F109" t="n">
+      <c r="F126" t="n">
         <v>0.5623605689784842</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G126" t="n">
+        <v>0.3245017907910672</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.7662337662337663</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I126" t="n">
         <v>0.03865413435179182</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J126" t="n">
         <v>0.2655714473159559</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="inlineStr">
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>"Journal of Life Chemistry" was founded in 1980 and is published by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal of biology distributed both domestically and internationally. As a core journal of Chinese science and technology, it has been indexed by databases such as Chemical Abstracts (CA) in the US, the Japan Science and Technology Agency (JST), the Chinese Science and Technology Papers and Citations Database (CSTPCD), the Chinese Biological Abstracts (CBA), and China Journal Net, among others. In 2015, it was selected as an exemplary journal by the China Association for Science and Technology. The journal features sections on research papers, reviews, education, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>《生命化学杂志》创刊于1980年，由中国生物化学与分子生物学会出版，是一份涵盖生物学领域的综合性学术期刊，国内外发行。作为中国科技核心期刊，该刊已被美国的《化学文摘》（CA）、日本科学技术振兴机构（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘（CBA）和中国期刊网等数据库收录。2015年被中国科协评为优秀期刊。杂志设有研究论文、综述、教育、研究前沿、技术与方法、中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F110" t="n">
+      <c r="F127" t="n">
         <v>0.5718804339343632</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G127" t="n">
+        <v>0.3903275255076495</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.8282828282828283</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I127" t="n">
         <v>0.04228898861521332</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J127" t="n">
         <v>0.2599426992337673</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B128" t="n">
         <v>2</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was first published in 1980, sponsored by the Chinese Society of Biochemistry and Molecular Biology. It is a comprehensive academic journal in the field of biology, open to both domestic and international readers. It is a core Chinese science and technology journal, indexed by databases such as the American Chemical Abstracts (CA), Japan Science and Technology Agency (JST), China Science and Technology Papers and Citations Database (CSTPCD), China Biological Abstracts Database (CBA), and China Journal Net among others. In 2015, it was selected as an exemplary journal by the China Association for Science and Technology. It features sections like research papers, reviews, teaching, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>《生命化学》首次出版于1980年，由中国生物化学与分子生物学会赞助。它是生物学领域的综合性学术期刊，面向国内外读者。它是中国核心科技期刊，被美国化学文摘（CA）、日本科学技术振兴机构（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等数据库收录。2015年，它被中国科学技术协会评选为示范期刊。其特色栏目包括研究论文、综述、教学、研究前沿、技术与方法、中医药生物化学等。</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F111" t="n">
+      <c r="F128" t="n">
         <v>0.5398650741944994</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G128" t="n">
+        <v>0.3844367851842735</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.797979797979798</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I128" t="n">
         <v>0.04134048818601394</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J128" t="n">
         <v>0.2972117008377632</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B129" t="n">
         <v>3</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>"Chemistry of Life" was founded in 1980, hosted by the Chinese Society of Biochemistry and Molecular Biology, and is a comprehensive academic journal on biology open to both domestic and international audiences. It is a core journal in Chinese science and technology, indexed by databases such as the American Chemical Abstracts (CA), Japan Science and Technology Agency Database (JST), Chinese Science and Technology Papers and Citations Database (CSTPCD), Chinese Biology Abstracts Database (CBA), and China Journal Net, among other domestic and international databases. In 2015, it was selected as a premium journal by the China Association for Science and Technology. It features sections such as research papers, reviews, education, research frontiers, techniques and methods, and traditional Chinese medicine biochemistry.</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>《生命化学》创刊于1980年，由中国生物化学与分子生物学学会主办，是一份面向国内外读者的综合性生物学学术期刊。它是中国科技核心期刊，被美国化学文摘（CA）、日本科学技术情报机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）、中国期刊网等国内外数据库收录。2015年被中国科学技术协会评选为精品期刊。其内容包括研究论文、综述、教育、研究前沿、技术与方法、中医药生物化学等版块。</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F112" t="n">
+      <c r="F129" t="n">
         <v>0.5958828493678181</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G129" t="n">
+        <v>0.429437179824536</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.8080808080808081</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I129" t="n">
         <v>0.04143968134792317</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J129" t="n">
         <v>0.3576849391071911</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="inlineStr">
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>**Journal Name: Chemical Reagents**
 1. Free reading and downloading of the electronic journal "Chemical Reagents" available on WeChat public account, convenient and fast;
@@ -4721,7 +5735,7 @@
 "Chemical Reagents" journal is your window to understanding the reagent industry and a platform for acquiring knowledge!</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>**期刊名称：化学试剂**
 1. 微信公众号免费提供《化学试剂》电子期刊的阅读与下载，方便快捷；
@@ -4730,182 +5744,197 @@
 《化学试剂》期刊是您了解试剂行业的窗口和获取知识的平台！</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F113" t="n">
+      <c r="F130" t="n">
         <v>0.4320043035356105</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G130" t="n">
+        <v>0.273713440836599</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I130" t="n">
         <v>0.0749228456715839</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J130" t="n">
         <v>0.2882329661199533</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>&lt;正&gt;大学生思想政治教育对化学专业就业的影响是一个重要的研究课题。在现代教育中，思想政治教育不仅关乎学生的品德发展，还能在就业竞争中发挥潜在的优势。特别是化学专业，学生除了需要具备扎实的专业知识，还需要具备强烈的社会责任感、创新精神和职业道德。这些正是思想政治教育能够影响的关键因素。通过加强思想政治教育，学生能够更好地理解国家战略需求、环境保护的重要性以及创新驱动发展的必要性，从而在未来的就业市场中拥有更为突出的竞争力。</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B131" t="n">
         <v>3</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>The impact of ideological and political education on the employment of chemistry majors is an important research topic. In modern education, ideological and political education not only concerns the moral development of students but also provides a potential advantage in the job market. Particularly for chemistry majors, in addition to possessing solid professional knowledge, students need a strong sense of social responsibility, an innovative spirit, and professional ethics. These are key factors that ideological and political education can influence. By enhancing ideological and political education, students can better understand national strategic needs, the importance of environmental protection, and the necessity of innovation-driven development, thereby gaining a more prominent competitive edge in the future job market.</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>意识形态和政治教育对化学专业学生就业的影响是一个重要的研究课题。在现代教育中，思想政治教育不仅关系到学生的道德发展，而且在就业市场上提供潜在的优势。特别是对于化学专业的学生，除了拥有扎实的专业知识外，还需要有强烈的社会责任感、创新精神和职业道德。这些都是思想政治教育可以影响的关键因素。通过加强思想政治教育，学生能够更好地理解国家战略需求、环境保护的重要性以及创新驱动发展的必要性，从而在未来的就业市场中获得更突出的竞争优势。</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F131" t="n">
         <v>0.7552388197988299</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G131" t="n">
+        <v>0.6430276408972193</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.9067796610169492</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I131" t="n">
         <v>0.07234724682725428</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J131" t="n">
         <v>0.2403539083138301</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B132" t="n">
         <v>2</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, the national capacity utilization rate of industrial enterprises above designated size was 75.1%, a decrease of 0.5 percentage points from the same period last year, and an increase of 0.2 percentage points from the second quarter. Looking at the three major sectors, in the third quarter of 2024, the capacity utilization rate for the mining industry was 74.6%; for manufacturing, it was 75.2%; and for the production and supply of electricity, heat, gas, and water, it was 74.3%. By major industries, in the third quarter of 2024, the capacity utilization rate for coal mining and washing was 72.7%; food manufacturing was 70.7%; textiles was 77.9%; non-metallic mineral products was 61.7%; ferrous metal smelting and rolling processing was 77.4%; non-ferrous metal smelting and rolling processing was 78.4%; general equipment manufacturing was 78.7%; specialized equipment manufacturing was 75.8%; automobile manufacturing was 73.2%; and electrical machinery and equipment manufacturing was 75.6%.</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>2024年第三季度，全国规模以上工业企业产能利用率为75.1%，较去年同期下降0.5个百分点，较第二季度上升0.2个百分点。从三大门类看，2024年第三季度，采矿业产能利用率为74.6%；制造业为75.2%；电力、热力、燃气及水生产和供应业为74.3%。按主要行业分，2024年第三季度，煤炭开采和洗选业产能利用率为72.7%；食品制造业为70.7%；纺织业为77.9%；非金属矿物制品业为61.7%；黑色金属冶炼及压延加工业为77.4%；有色金属冶炼及压延加工业为78.4%；通用设备制造业为78.7%；专用设备制造业为75.8%；汽车制造业为73.2%；电气机械及器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F115" t="n">
+      <c r="F132" t="n">
         <v>0.5880340619170165</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G132" t="n">
+        <v>0.3857694868830071</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.9313725490196079</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I132" t="n">
         <v>0.04457229447809327</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J132" t="n">
         <v>0.2422709938724145</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>&lt;正&gt;《化学工程与装备》是国家新闻出版署批准出版,公开发行的化工类学术期刊,已被中国学术期刊综合评价数据库(CAJCED)、中国期刊全文数据库(CJFD)收录。本刊由福建石油化工集团有限责任公司主管、福建省化学工业科学技术研究所主办,于1972年创刊,月刊,每月25日出刊。</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B133" t="n">
         <v>2</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>"Chemical Engineering and Equipment" is an academic journal in the field of chemical engineering, approved for publication by the National Press and Publication Administration of China. It is publicly distributed and has been indexed by the China Academic Journal Comprehensive Evaluation Database (CAJCED) and the China Journal Full-text Database (CJFD). The journal is supervised by Fujian Petrochemical Corporation Limited and sponsored by the Fujian Province Institute of Chemical Industry Science and Technology. It was first published in 1972, is a monthly publication, and issues are released on the 25th of each month.</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>《化工与设备》是中国国家新闻出版广电总局批准出版的化工领域学术期刊。该期刊公开发行，已被中国学术期刊综合评价数据库（CAJCED）和中国期刊全文数据库（CJFD）收录。由福建石油化工集团有限责任公司监督，福建省化工科学研究院主办。首次出版于1972年，月刊，每月25日发行。</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F116" t="n">
+      <c r="F133" t="n">
         <v>0.4437690235827193</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G133" t="n">
+        <v>0.2608748078611585</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.8111111111111111</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I133" t="n">
         <v>0.07234724682725428</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J133" t="n">
         <v>0.2403539083138301</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B134" t="n">
         <v>3</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>The School of Chemistry and Chemical Engineering at Southeast University was originally one of the key departments of the former Central University. The Department of Chemistry was established in 1920, the Department of Chemical Engineering in 1928, the Department of Chemistry and Chemical Engineering was reestablished in 1988, and the School of Chemistry and Chemical Engineering was founded in 2006. The school currently has doctoral programs in the first-level disciplines of "Chemical Engineering and Technology" and "Chemistry," and master's programs in "Chemistry" and "Chemical Engineering and Technology." It also offers second-level doctoral and master's programs in "Materials Physics and Chemistry." Among these, "Applied Chemistry" and "New Materials" are key disciplines in Jiangsu Province. Additionally, there is a postdoctoral research station for "Chemical Engineering and Technology." The school consists of three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Biochemical and Pharmaceutical Engineering. It has established the Institute of Fine Chemicals and the Institute of Pharmaceutical Engineering, and houses key laboratories such as the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Applications, the Jiangsu Provincial Key Laboratory for High Technology of Biomedicine, the Jiangsu Provincial Optoelectronic Functional Materials Engineering Laboratory, and the Jiangsu Provincial Rich-Carbon Materials and Devices Engineering Laboratory. The school has a teaching experiment center and shares equipment resources with the university-level analysis and testing center in the same building, providing excellent experimental conditions for teaching and research. The school currently employs 136 staff members (including full-time postdoctoral researchers and dedicated research staff), of which 103 are full-time faculty members, with 98%</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>东南大学化学与化工学院最初是原中央大学的重点院系之一。化学系成立于1920年，化工系成立于1928年，化学与化工系于1988年重建，化学与化工学院于2006年成立。学院目前拥有“化学工程与技术”和“化学”一级学科博士点，以及“化学”和“化学工程与技术”硕士点。此外，还设有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”是江苏省重点学科。学院还设有“化学工程与技术”博士后科研流动站。学院由化学系、化工系和生物化工与药物工程系组成，并设立了精细化工研究所和药物工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物医学高技术重点实验室、江苏省光电功能材料工程实验室和江苏省富碳材料与器件工程实验室。学院拥有一个教学实验中心，并与校级分析测试中心共享同一大楼的设备资源，为教学和科研提供了优越的实验条件。目前，学院共有员工136名（包括专职博士后和专职科研人员），其中专任教师103名，98%的教师拥有博士学位。</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F117" t="n">
+      <c r="F134" t="n">
         <v>0.6211640273377456</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G134" t="n">
+        <v>0.44666204211448</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I134" t="n">
         <v>0.02265590593719599</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J134" t="n">
         <v>0.2863389629783258</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="inlineStr">
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>**Objective** This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in clinical tumor marker detection, particularly its application in early tumor screening.
 **Methods** Serum samples from 1,246 individuals at Hospital A's physical examination center from March to June 2024 were selected to analyze the CLIA detection results of tumor markers such as AFP, CEA, CA-125, and CA-199. The sensitivity, specificity, and predictive values (PPV and NPV) were assessed by comparing the results with clinical diagnoses. Data were statistically analyzed using SPSS 26.0 software, with group comparisons made using chi-square tests, t-tests, etc.
@@ -4913,7 +5942,7 @@
 **Conclusion** CLIA demonstrates high sensitivity and specificity in the detection of tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies across different types of tumors, suggesting that clinical practice should select appropriate markers for combined detection based on tumor type to enhance the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>**目标** 本研究旨在评估化学发光免疫分析法（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用。
 **方法** 选取2024年3月至6月期间，医院A体检中心的1,246名个体血清样本，分析AFP、CEA、CA-125和CA-199等肿瘤标志物的CLIA检测结果。通过与临床诊断结果对比，评估其敏感性、特异性以及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，组间比较采用卡方检验、t检验等。
@@ -4921,34 +5950,37 @@
 **结论** CLIA在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同类型的肿瘤中的表现各有不同，建议临床实践根据肿瘤类型选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F118" t="n">
+      <c r="F135" t="n">
         <v>0.6833973301115077</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G135" t="n">
+        <v>0.5580100926434801</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.94375</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I135" t="n">
         <v>0.01531771203528287</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J135" t="n">
         <v>0.4409035107121747</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B136" t="n">
         <v>2</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>**Objective** This study aims to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the detection of clinical tumor markers, particularly its application in early tumor screening.
 **Methods** Serum samples from 1,246 individuals at Hospital A’s health examination center from March to June 2024 were selected. The detection results of tumor markers like AFP, CEA, CA-125, and CA-199 were analyzed using CLIA. By comparing with clinical diagnostic results, the sensitivity, specificity, and predictive values (PPV and NPV) were assessed. Data were statistically analyzed using SPSS 26.0 software, with inter-group comparisons performed using chi-square tests, t-tests, and other methods.
@@ -4956,7 +5988,7 @@
 **Conclusion** Chemiluminescence immunoassay shows high sensitivity and specificity in detecting tumor markers, providing important support for early tumor diagnosis. The performance of different markers varies with tumor types, and clinical practice should select appropriate markers for combined detection to enhance the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>**目标** 本研究旨在评估化学发光免疫分析（CLIA）在检测临床肿瘤标志物中的敏感性和特异性，特别是其在早期肿瘤筛查中的应用。
 **方法** 选取2024年3月至6月期间A医院健康体检中心的1,246名个体的血清样本。使用CLIA分析AFP、CEA、CA-125和CA-199等肿瘤标志物的检测结果。通过与临床诊断结果对比，评估敏感性、特异性及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，组间比较使用卡方检验、t检验等方法。
@@ -4964,34 +5996,37 @@
 **结论** 化学发光免疫分析在检测肿瘤标志物方面表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物的表现因肿瘤类型而异，临床实践中应选择适当的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F119" t="n">
+      <c r="F136" t="n">
         <v>0.6375046330446916</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G136" t="n">
+        <v>0.4934248659317806</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.925</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I136" t="n">
         <v>0.01731635618378151</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J136" t="n">
         <v>0.3246621088325209</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B137" t="n">
         <v>3</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>**Objective** This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the clinical detection of tumor markers, particularly its application in early tumor screening.
 **Methods** A total of 1246 serum samples from the physical examination center of Hospital A between March and June 2024 were selected. The chemiluminescence assay results for tumor markers such as AFP, CEA, CA-125, and CA-199 were analyzed. The sensitivity, specificity, and predictive values (PPV and NPV) were assessed by comparing with clinical diagnoses. Data were statistically analyzed using SPSS 26.0 software, with comparisons between groups conducted using chi-square and t-tests.
@@ -4999,7 +6034,7 @@
 **Conclusion** Chemiluminescence immunoassay demonstrates high sensitivity and specificity in the detection of tumor markers, providing significant support for early tumor diagnosis. Different markers show varied performance across different types of tumors, suggesting that clinical selection of appropriate markers for combined detection should be based on tumor type to enhance the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>**目标** 本研究旨在评估化学发光免疫分析法（CLIA）在肿瘤标志物临床检测中的敏感性和特异性，特别是在早期肿瘤筛查中的应用。
 **方法** 选取了2024年3月至6月期间在A医院体检中心的1246例血清样本。分析了肿瘤标志物如AFP、CEA、CA-125和CA-199的化学发光检测结果。通过与临床诊断比较，评估了敏感性、特异性以及预测值（PPV和NPV）。数据使用SPSS 26.0软件进行统计分析，采用卡方检验和t检验进行组间比较。
@@ -5007,223 +6042,241 @@
 **结论** 化学发光免疫分析法在肿瘤标志物检测中表现出高敏感性和特异性，为早期肿瘤诊断提供了重要支持。不同标志物在不同类型肿瘤中的表现各异，建议根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>Grok-Beta</t>
         </is>
       </c>
-      <c r="F120" t="n">
+      <c r="F137" t="n">
         <v>0.6784661133375397</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G137" t="n">
+        <v>0.5246853835695271</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.93125</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I137" t="n">
         <v>0.01628278679262552</v>
       </c>
-      <c r="I120" t="n">
+      <c r="J137" t="n">
         <v>0.4056782820691686</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>随着新课程改革持续深化，高中化学与生物学课程的交叉融合教学已成为提高学生综合素质的重要途径，在日常教学过程中，教师应进一步提升对交叉融合教学策略的重视程度，从而帮助学生对相关知识形成更为深入地理解。基于此，本文以“生命活动的主要承担者——蛋白质”为例，探讨高中化学在生物学课堂中的交叉融合教学策略，以期增强学生的科学素养和创新能力。</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B138" t="n">
         <v>3</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>With the deepening of the new curriculum reform, interdisciplinary integrated teaching of chemistry and biology in high school has become an important way to enhance students' comprehensive qualities. In daily teaching practice, teachers should further emphasize interdisciplinary integration teaching strategies, thereby helping students develop deeper understanding of relevant knowledge. Based on this, taking "Protein—the main participant in life activities" as an example, this paper discusses strategies for the interdisciplinary integration of high school chemistry in biology classes, aiming to enhance students' scientific literacy and innovative abilities.</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>随着新课程改革的深入，高中化学与生物学科的跨学科融合教学已成为提高学生综合素质的重要途径。在日常教学实践中，教师应进一步突出跨学科融合的教学策略，帮助学生更深入地理解相关知识。基于此，本文以“蛋白质——生命活动的主要承担者”为例，探讨在高中生物课堂中融合化学知识的跨学科整合策略，旨在提高学生的科学素养与创新能力。</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F121" t="n">
+      <c r="F138" t="n">
         <v>0.5891695811597972</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G138" t="n">
+        <v>0.3653028533205935</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I138" t="n">
         <v>0.07730826870358362</v>
       </c>
-      <c r="I121" t="n">
+      <c r="J138" t="n">
         <v>0.2655714473159557</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>&lt;正&gt;元素观：物质是由元素组成的；元素可以分为不同的类别，不同元素具有不同的性质，同类元素具有相似的性质；物质的性质与元素组成有关，可以按照元素组成来分类物质；化学反应前后元素的种类不变……分类观：选择分类的对象及分类的视角(特征),元素的分类，物质的分类，变化的分类，化学反应的分类，化学反应条件的分类，物质性质的分类，物质结构的分类，实验探究中影响变量的分类，实验原理、实验仪器、实验操作的分类……微粒观：物质是由微观粒子构成的；</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B139" t="n">
         <v>3</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Element perspective: substances are composed of elements; elements can be divided into different categories, different elements have different properties, and similar elements have similar properties; the properties of a substance relate to its elemental composition, and substances can be classified according to their elemental makeup; the types of elements remain unchanged before and after chemical reactions...
 Classification perspective: choosing the objects and perspectives (characteristics) for classification; classification of elements, classification of substances, classification of changes, classification of chemical reactions, classification of reaction conditions, classification of substance properties, classification of substance structures, classification of variables influencing experimental investigations, classification of experimental principles, instruments, and operations...
 Particulate perspective: substances are composed of microscopic particles;</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>元素观：物质由元素组成；元素可以划分为不同类别，不同元素具有不同的性质，相似元素具有相似的性质；物质的性质与其元素组成相关，可以根据元素组成分类物质；元素的种类在化学反应前后保持不变……
 分类观：选择分类的对象与角度（特征）；元素的分类、物质的分类、变化的分类、化学反应的分类、反应条件的分类、物质性质的分类、物质结构的分类、影响实验探究的变量分类、实验原理、仪器与操作的分类……
 微粒观：物质由微观粒子构成；</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F122" t="n">
+      <c r="F139" t="n">
         <v>0.6230600678728938</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G139" t="n">
+        <v>0.3794296644314657</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.8311688311688312</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I139" t="n">
         <v>0.03738292990555386</v>
       </c>
-      <c r="I122" t="n">
+      <c r="J139" t="n">
         <v>0.3457987266528076</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>1</v>
-      </c>
-      <c r="C123" t="inlineStr">
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>Chemistry of Life, founded in 1980, is a comprehensive biological academic journal sponsored by the Chinese Society of Biochemistry and Molecular Biology and openly published domestically and internationally. It is recognized as a core journal of Chinese science and technology and has been indexed by national and international databases, including Chemical Abstracts (CA) of the USA, Japan Science and Technology Agency Database (JST), Chinese Science and Technology Papers and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China Journal Network. It was selected as an Excellent Journal by the China Association for Science and Technology in 2015. The journal includes sections such as research papers, reviews, education, research frontiers, techniques and methodologies, and biochemical studies in traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，由中国生物化学与分子生物学会主办，是国内外公开发行的综合性生物学学术期刊。该刊被评为中国科技核心期刊，并被国内外多个数据库收录，包括美国《化学文摘》(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)及中国期刊网。2015年，该刊被中国科学技术协会评为“优秀期刊”。该期刊设有研究论文、综述、教学园地、研究前沿、技术与方法及中医药生物化学研究等栏目。</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F123" t="n">
+      <c r="F140" t="n">
         <v>0.6546062509353093</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G140" t="n">
+        <v>0.5339262178997422</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.8787878787878788</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I140" t="n">
         <v>0.0395577261568985</v>
       </c>
-      <c r="I123" t="n">
+      <c r="J140" t="n">
         <v>0.3275186553327257</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B141" t="n">
         <v>2</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Chemistry of Life was founded in 1980. Sponsored by the Chinese Society of Biochemistry and Molecular Biology, it is a multidisciplinary academic journal in biology published openly both domestically and internationally. It is a Chinese core science and technology journal indexed by domestic and international databases including Chemical Abstracts (CA, USA), Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China Journal Network. It was selected by the China Association for Science and Technology as a high-quality journal in 2015. The columns include research articles, reviews, education, research frontiers, technologies and methods, and biochemistry in traditional Chinese medicine.</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，由中国生物化学与分子生物学会主办，是一本面向国内外公开发行的多学科生物学术期刊。本刊为中国科技核心期刊，被美国《化学文摘》（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等国内外数据库收录，2015年被中国科学技术协会评选为精品科技期刊。期刊栏目包括研究论文、综述、教学研究、研究前沿、技术与方法以及中医药生物化学等。</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F124" t="n">
+      <c r="F141" t="n">
         <v>0.6040404496926219</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G141" t="n">
+        <v>0.439152904295075</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.8787878787878788</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I141" t="n">
         <v>0.04143968134792317</v>
       </c>
-      <c r="I124" t="n">
+      <c r="J141" t="n">
         <v>0.3576849391071911</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>&lt;正&gt;《生命的化学》创刊于1980年,为中国生物化学与分子生物学会主办,面向国内外公开发行的生物综合类学术期刊。中国科技核心期刊,已被美国化学文摘(CA)、日本科学技术振兴机构数据库(JST)、中国科技论文与引文数据库(CSTPCD)、中国生物学文摘数据库(CBA)、中国期刊网等国内外数据库收录。2015年入选中国科协精品期刊。设有研究论文、综述、教学、研究前沿、技术与方法、中医药生化等栏目。</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B142" t="n">
         <v>3</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Chemistry of Life, founded in 1980, is a comprehensive biological academic journal sponsored by the Chinese Society of Biochemistry and Molecular Biology and openly distributed both domestically and internationally. It is recognized as a core Chinese science and technology journal and has been indexed by domestic and international databases such as Chemical Abstracts (CA) from the United States, Japan Science and Technology Agency Database (JST), Chinese Science and Technology Paper and Citation Database (CSTPCD), Chinese Biological Abstracts Database (CBA), and China Journal Net. In 2015, it was selected as a Best-quality Journal by the China Association for Science and Technology. The journal includes sections for Research Articles, Reviews, Teaching, Research Frontiers, Techniques and Methods, and Biochemistry of Traditional Chinese Medicine.</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>《生命的化学》创刊于1980年，是由中国生物化学与分子生物学会主办、国内外公开发行的综合性生物学学术期刊。该刊被认定为中国科技核心期刊，并已被美国《化学文摘》（CA）、日本科学技术振兴机构数据库（JST）、中国科技论文与引文数据库（CSTPCD）、中国生物学文摘数据库（CBA）和中国期刊网等国内外数据库收录。2015年，该刊入选中国科协精品科技期刊。期刊设有研究论文、综述、教学园地、研究前沿、技术与方法和中医药生物化学等栏目。</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F125" t="n">
+      <c r="F142" t="n">
         <v>0.6542914833105681</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G142" t="n">
+        <v>0.4865202389770626</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I142" t="n">
         <v>0.0408298151824439</v>
       </c>
-      <c r="I125" t="n">
+      <c r="J142" t="n">
         <v>0.3467229570808978</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" t="inlineStr">
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>Name: Chemical Reagents Journal  
 1. Read and download Chemical Reagents e-journals conveniently and freely via our WeChat public account.  
@@ -5232,7 +6285,7 @@
 The Chemical Reagents journal is your window into the reagents industry and a platform to acquire expertise!</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>名称：《化学试剂》期刊  
 1. 通过我们的微信公众号，便捷且免费地阅读和下载《化学试剂》电子期刊。  
@@ -5241,34 +6294,37 @@
 《化学试剂》期刊是您了解试剂行业动态及获取专业知识的重要窗口与平台！</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F126" t="n">
+      <c r="F143" t="n">
         <v>0.3232916774176482</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G143" t="n">
+        <v>0.1789151922168411</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.782051282051282</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I143" t="n">
         <v>0.07230195737296644</v>
       </c>
-      <c r="I126" t="n">
+      <c r="J143" t="n">
         <v>0.2769804262703359</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B144" t="n">
         <v>2</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Name: Chemical Reagents Journal  
 1. Free reading and downloading of the electronic edition of "Chemical Reagents" via the WeChat public account, convenient and fast;  
@@ -5277,7 +6333,7 @@
 The journal "Chemical Reagents" is your window into the reagent industry and your platform for gaining knowledge!</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>刊名：《化学试剂》杂志  
 1. 通过微信公众号免费阅读和下载《化学试剂》电子版，方便快捷；  
@@ -5286,34 +6342,37 @@
 《化学试剂》杂志是您观察试剂行业的窗口，是您获取知识的平台！</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F127" t="n">
+      <c r="F144" t="n">
         <v>0.3925068466280047</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G144" t="n">
+        <v>0.1919722454509341</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.7948717948717948</v>
       </c>
-      <c r="H127" t="n">
+      <c r="I144" t="n">
         <v>0.06981422911554105</v>
       </c>
-      <c r="I127" t="n">
+      <c r="J144" t="n">
         <v>0.2669505942868189</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>&lt;正&gt;名称:化学试剂期刊1．可在微信公众号免费阅读、下载《化学试剂》电子刊，方便快捷;2．了解化学试剂行业资讯及热点报道，获取试剂领域科普知识;3．及时查看国内化学领域会议资讯及内容。《化学试剂》期刊是您了解试剂行业的窗口，掌握知识的平台!</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B145" t="n">
         <v>3</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Name: Chemical Reagents Journal  
 1. Free reading and downloading of Chemical Reagents e-journal via WeChat official account, convenient and fast;  
@@ -5322,7 +6381,7 @@
 Chemical Reagents journal is your window to understanding the reagent industry and your platform for gaining knowledge!</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>名称：《化学试剂》期刊  
 1. 通过微信公众号免费阅读和下载《化学试剂》电子期刊，方便快捷；  
@@ -5331,190 +6390,205 @@
 《化学试剂》期刊是您了解试剂行业的窗口，是您获取知识的平台！</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F128" t="n">
+      <c r="F145" t="n">
         <v>0.483817293860203</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G145" t="n">
+        <v>0.3245963370216277</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="H128" t="n">
+      <c r="I145" t="n">
         <v>0.06622525692407773</v>
       </c>
-      <c r="I128" t="n">
+      <c r="J145" t="n">
         <v>0.370860059221262</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="inlineStr">
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, the capacity utilization rate of industrial enterprises above designated size nationwide was 75.1%, down by 0.5 percentage points year-on-year and up by 0.2 percentage points quarter-on-quarter. Broken down by three main industries, in the third quarter of 2024, capacity utilization was 74.6% in mining, 75.2% in manufacturing, and 74.3% in the production and supply of electricity, heat, gas, and water. By key industry, in the third quarter of 2024, capacity utilization was 72.7% in coal mining and washing, 70.7% in food manufacturing, 77.9% in textiles, 61.7% in non-metallic mineral products, 77.4% in smelting and pressing of ferrous metals, 78.4% in smelting and pressing of non-ferrous metals, 78.7% in general equipment manufacturing, 75.8% in special equipment manufacturing, 73.2% in automobile manufacturing, and 75.6% in electrical machinery and equipment manufacturing.</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>2024年三季度，全国规模以上工业产能利用率为75.1%，同比下降0.5个百分点，环比上升0.2个百分点。分三大门类看，2024年三季度采矿业产能利用率为74.6%，制造业为75.2%，电力、热力、燃气及水生产和供应业为74.3%。分主要行业看，2024年三季度煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F146" t="n">
         <v>0.6714603807520579</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G146" t="n">
+        <v>0.5137424258719716</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.9215686274509803</v>
       </c>
-      <c r="H129" t="n">
+      <c r="I146" t="n">
         <v>0.0287802186754319</v>
       </c>
-      <c r="I129" t="n">
+      <c r="J146" t="n">
         <v>0.5826868292062373</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B147" t="n">
         <v>2</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, China's industrial capacity utilization rate for enterprises above designated size was 75.1%, down by 0.5 percentage points year-on-year but up by 0.2 percentage points compared to the second quarter. By the three major categories, in the third quarter of 2024, capacity utilization rates were: 74.6% for mining; 75.2% for manufacturing; and 74.3% for electricity, heat, gas, and water production and supply. Among major sectors, the utilization rate for coal mining and washing was 72.7%; food manufacturing was 70.7%; textiles was 77.9%; non-metallic mineral products was 61.7%; ferrous metal smelting and rolling processing was 77.4%; non-ferrous metal smelting and rolling processing was 78.4%; general equipment manufacturing was 78.7%; special equipment manufacturing was 75.8%; automotive manufacturing was 73.2%; electrical machinery and equipment manufacturing was 75.6%.</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>2024年三季度，中国规模以上工业企业产能利用率为75.1%，同比下降0.5个百分点，比二季度上升0.2个百分点。分三大门类看，2024年三季度，采矿业产能利用率为74.6%，制造业为75.2%，电力、热力、燃气及水生产和供应业为74.3%。主要行业中，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F130" t="n">
+      <c r="F147" t="n">
         <v>0.638395087768349</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G147" t="n">
+        <v>0.474889593780313</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.9215686274509803</v>
       </c>
-      <c r="H130" t="n">
+      <c r="I147" t="n">
         <v>0.02206817613551578</v>
       </c>
-      <c r="I130" t="n">
+      <c r="J147" t="n">
         <v>0.6910455341027794</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>&lt;正&gt;2024年三季度,全国规模以上工业产能利用率为75.1%,比上年同期下降0.5个百分点,比二季度上升0.2个百分点。分三大门类看, 2024年三季度,采矿业产能利用率为74.6%;制造业产能利用率为75.2%;电力、热力、燃气及水生产和供应业产能利用率为74.3%。分主要行业看, 2024年三季度,煤炭开采和洗选业产能利用率为72.7%,食品制造业为70.7%,纺织业为77.9%,非金属矿物制品业为61.7%,黑色金属冶炼和压延加工业为77.4%,有色金属冶炼和压延加工业为78.4%,通用设备制造业为78.7%,专用设备制造业为75.8%,汽车制造业为73.2%,电气机械和器材制造业为75.6%,</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B148" t="n">
         <v>3</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>In the third quarter of 2024, China's industrial capacity utilization rate reached 75.1%, decreasing by 0.5 percentage points year-on-year, yet increasing by 0.2 percentage points compared to the second quarter.  
 By the three main categories, in the third quarter of 2024, the capacity utilization rate stood at 74.6% for mining industry, 75.2% for manufacturing industry, and 74.3% for electricity, heat, gas, and water production and supply industries.  
 By major industry sectors, coal mining and washing industry's capacity utilization rate was 72.7%, food manufacturing industry 70.7%, textile industry 77.9%, non-metallic mineral products industry 61.7%, ferrous metal smelting and processing industry 77.4%, non-ferrous metal smelting and processing industry 78.4%, general equipment manufacturing industry 78.7%, special equipment manufacturing industry 75.8%, automobile manufacturing industry 73.2%, and electrical machinery and equipment manufacturing industry 75.6%.</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>2024年三季度，中国工业产能利用率达到75.1%，同比下降0.5个百分点，比二季度提高0.2个百分点。
 分三大门类看，2024年三季度采矿业产能利用率为74.6%，制造业为75.2%，电力、热力、燃气及水生产和供应业为74.3%。
 分主要行业看，煤炭开采和洗选业产能利用率为72.7%，食品制造业为70.7%，纺织业为77.9%，非金属矿物制品业为61.7%，黑色金属冶炼和压延加工业为77.4%，有色金属冶炼和压延加工业为78.4%，通用设备制造业为78.7%，专用设备制造业为75.8%，汽车制造业为73.2%，电气机械和器材制造业为75.6%。</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F148" t="n">
         <v>0.61668699945189</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G148" t="n">
+        <v>0.4390007744553185</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.8725490196078431</v>
       </c>
-      <c r="H131" t="n">
+      <c r="I148" t="n">
         <v>0.0287802186754319</v>
       </c>
-      <c r="I131" t="n">
+      <c r="J148" t="n">
         <v>0.5826868292062373</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>&lt;正&gt;东南大学化学化工学院前身是原中央大学重要的院系之一，最早于1920年成立了化学系，1928年成立了化学工程系，1988年恢复建立化学化工系，2006年成立化学化工学院。学院现拥有“化学工程与技术”和“化学”一级学科博士点，“化学”和“化学工程与技术”一级学科硕士点，另有“材料物理和化学”二级博士点和硕士点，其中“应用化学”和“新材料”学科为江苏省优势学科，并建有“化学工程与技术”博士后科研流动站。学院现设有化学系、化学工程系、化学生物与制药工程系三个系，先后设立了精细化工研究所、制药工程研究所，拥有江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室等。学院设有教学实验中心，并同楼宇共享校级分析测试中心设备资源，为教学科研提供了优越的实验条件。学院现有教职工（含全职博士后、专职科研）136名，其中专任教师103名，98%</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B149" t="n">
         <v>3</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>The School of Chemistry and Chemical Engineering at Southeast University traces back to one of the major faculties of the former National Central University. The Department of Chemistry was initially established in 1920, followed by the Department of Chemical Engineering in 1928. In 1988, the Department of Chemistry and Chemical Engineering was reinstated, and in 2006, it became the School of Chemistry and Chemical Engineering. The school currently offers doctoral programs in two primary disciplines—"Chemical Engineering and Technology" and "Chemistry"—and master's programs in the same disciplines. It also includes PhD and master's programs in the secondary discipline of "Material Physics and Chemistry." Among these, the disciplines of "Applied Chemistry" and "New Materials" have been recognized as advantageous disciplines in Jiangsu Province. Furthermore, the school has established a postdoctoral research station in "Chemical Engineering and Technology."
 The school comprises three departments: the Department of Chemistry, the Department of Chemical Engineering, and the Department of Chemical Biology and Pharmaceutical Engineering. It has also successively set up the Institute of Fine Chemicals and the Institute of Pharmaceutical Engineering, as well as the Jiangsu Provincial Key Laboratory of Molecular Ferroelectric Science and Application, the Jiangsu Provincial Key Laboratory of High Technology Research on Biological Pharmaceuticals, the Jiangsu Provincial Engineering Laboratory for Optoelectronic Functional Materials, and the Jiangsu Provincial Engineering Laboratory for Carbon-Rich Materials and Devices. The school is equipped with a teaching experiment center and shares equipment resources with the university-level Analytical and Testing Center located in the same building, providing excellent experimental conditions for teaching and research.
 Currently, the school employs 136 faculty and staff members (including full-time postdoctoral researchers and dedicated researchers), among whom 103 are teaching staff, 98% of whom</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>东南大学化学化工学院的前身可追溯到原国立中央大学的重要院系之一。化学系最初创建于1920年，化学工程系创建于1928年。1988年恢复建立化学化工系，2006年改建为化学化工学院。目前该学院拥有“化学工程与技术”和“化学”两个一级学科博士点及硕士点，同时设有“材料物理与化学”二级学科博士点和硕士点。其中，“应用化学”和“新材料”专业被评为江苏省优势学科。此外，学院还设立了“化学工程与技术”博士后科研流动站。
 学院下设化学系、化工系、化学生物与制药工程系三个系，并先后成立了精细化工研究所、制药工程研究所，以及江苏省分子铁电科学与应用重点实验室、江苏省生物药物高技术研究重点实验室、江苏省光电功能材料工程实验室、江苏省富碳材料与器件工程实验室。学院配备了教学实验中心，并与位于同一大楼的校级分析测试中心共用仪器设备资源，为教学科研提供了优良的实验条件。
 学院现有教职工136人（含专职博士后和专职科研人员），其中专任教师103人，专任教师中98%</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="F149" t="n">
         <v>0.6626610776449648</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G149" t="n">
+        <v>0.4888701035422817</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.9111111111111111</v>
       </c>
-      <c r="H132" t="n">
+      <c r="I149" t="n">
         <v>0.02448243133478785</v>
       </c>
-      <c r="I132" t="n">
+      <c r="J149" t="n">
         <v>0.2532858442889705</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B133" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" t="inlineStr">
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>Objective  
 This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the clinical detection of tumor markers, especially its application and effectiveness in early tumor screening.
@@ -5526,7 +6600,7 @@
 Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection, providing important support for early cancer diagnosis. The performance of tumor markers varies across different cancer types, suggesting that appropriate combinational use of markers should be selected clinically based on cancer type to improve accuracy in early diagnosis.</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>目的  
 本研究旨在评估化学发光免疫分析（CLIA）在肿瘤标志物临床检测中的敏感性和特异性，尤其关注其在肿瘤早期筛查中的应用及效果。
@@ -5538,34 +6612,37 @@
 化学发光免疫分析在肿瘤标志物检测中具有较高的敏感性和特异性，为癌症早期诊断提供了重要支持。不同肿瘤标志物在不同癌症类型中的检测效果存在差异，因此在临床实践中应根据癌种合理选择联合应用，以提升癌症早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F150" t="n">
         <v>0.5760485928174943</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G150" t="n">
+        <v>0.3542318964392168</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.93125</v>
       </c>
-      <c r="H133" t="n">
+      <c r="I150" t="n">
         <v>0.01778644410502027</v>
       </c>
-      <c r="I133" t="n">
+      <c r="J150" t="n">
         <v>0.2974354578516994</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B151" t="n">
         <v>2</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Objective: This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) for clinical tumor marker testing, especially its effectiveness in early cancer screening.
 Methods: A total of 1,246 serum samples collected between March and June 2024 at the health examination center of Hospital A were analyzed by CLIA for tumor markers including AFP, CEA, CA-125, and CA-199. Sensitivity, specificity, and predictive values (PPV and NPV) were evaluated by comparison with clinical diagnosis results. Statistical analysis was performed using SPSS 26.0 software, and comparisons between groups were conducted by chi-square test and t-test.
@@ -5573,7 +6650,7 @@
 Conclusion: Chemiluminescence immunoassay demonstrates high sensitivity and specificity in tumor marker detection and can provide important support for the early diagnosis of tumors. Because the performance of markers varies across different tumor types, marker combinations should be selected based on specific tumor types to enhance the accuracy of early diagnosis.</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>目的：本研究旨在评估化学发光免疫分析（CLIA）在临床肿瘤标志物检测中的敏感性和特异性，尤其是在肿瘤早期筛查中的有效性。
 方法：收集2024年3月至2024年6月期间在A医院健康体检中心的血清样本共计1,246份，采用CLIA法检测其中的肿瘤标志物AFP、CEA、CA-125及CA-199，以临床诊断结果为对照，评价其敏感性、特异性以及预测价值（阳性预测值PPV和阴性预测值NPV）。使用SPSS 26.0进行统计学分析，组间比较采用卡方检验和t检验。
@@ -5581,34 +6658,37 @@
 结论：化学发光免疫分析在肿瘤标志物检测方面具有较高的敏感性及特异性，可为肿瘤早期诊断提供重要支持。由于不同类型肿瘤标志物检测表现存在差异，应根据具体肿瘤类型选择合适的标志物组合，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="F151" t="n">
         <v>0.5681308453605356</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G151" t="n">
+        <v>0.3696621374225844</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.90625</v>
       </c>
-      <c r="H134" t="n">
+      <c r="I151" t="n">
         <v>0.01634060096121112</v>
       </c>
-      <c r="I134" t="n">
+      <c r="J151" t="n">
         <v>0.3708868629933713</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>目的 本研究旨在评估化学发光法（CLIA）在临床肿瘤标志物检测中的灵敏度与特异性，尤其是在早期肿瘤筛查中的应用效果。方法 选取2024年3月至6月期间A医院体检中心的1246例血清样本，分析AFP、CEA、CA-125、CA-199等肿瘤标志物的化学发光法检测结果。通过与临床诊断结果对比，评估其灵敏度、特异性及预测值（PPV和NPV）。数据采用SPSS 26.0软件进行统计分析，用卡方检验、t检验等方法进行组间比较。结果 化学发光法检测结果表明，CA-125的灵敏度最高（89.5%）,AFP和CA-199的灵敏度分别为80.3%和85.7%,CEA灵敏度最低（68.5%）。在特异性方面，CEA表现最佳（95.8%）,AFP、CA-199和CA-125的特异性分别为92.4%、90.3%和88.2%。不同肿瘤标志物在肝癌、卵巢癌、胃癌和结直肠癌中的灵敏度表现存在显著差异（P &lt;0.05）。结论 化学发光法在肿瘤标志物的检测中具有高灵敏度和高特异性，能够为肿瘤的早期诊断提供重要的支持。不同标志物在不同肿瘤类型中的表现存在差异，临床应根据肿瘤类型选择合适的标志物进行联合检测，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B152" t="n">
         <v>3</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>Objective   
 This study aimed to evaluate the sensitivity and specificity of chemiluminescence immunoassay (CLIA) in the clinical detection of tumor markers, particularly its effectiveness in early tumor screening.
@@ -5620,7 +6700,7 @@
 Chemiluminescence immunoassay demonstrates high sensitivity and specificity in detecting tumor markers, offering strong support in early tumor diagnosis. Due to variations in performance among tumor markers for different cancer types, clinical practice should select appropriate combinations of markers according to tumor type to improve early diagnostic accuracy.</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>目的  
 本研究旨在评估化学发光免疫分析（CLIA）在肿瘤标志物临床检测中的敏感性和特异性，尤其是在肿瘤早期筛查中的应用效果。
@@ -5632,58 +6712,64 @@
 化学发光免疫分析在肿瘤标志物检测中具有较高的敏感性和特异性，对于肿瘤早期诊断具有较强的支持作用。鉴于不同标志物对不同癌种的检测效能存在差异，临床实践中需根据肿瘤类型选择合适的肿瘤标志物组合，以提高早期诊断的准确性。</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F135" t="n">
+      <c r="F152" t="n">
         <v>0.593046449074024</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G152" t="n">
+        <v>0.3975448441853331</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.88125</v>
       </c>
-      <c r="H135" t="n">
+      <c r="I152" t="n">
         <v>0.01768342049582686</v>
       </c>
-      <c r="I135" t="n">
+      <c r="J152" t="n">
         <v>0.3368717314064923</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>&lt;正&gt;9月21日,“化学未来:《化学学报》2024青年论坛”在云南民族大学雨花校区召开。论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院联合主办,云南民族大学化学与环境学院、云南省手性功能物质研究与利用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、中国科学院上海有机化学研究所学报联合编辑室承办,云南省化学化工协会协办。来自全国87个高校、科研院所近180位专家学者参加会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记范青华研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="inlineStr">
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>On September 21, the "Chemistry Future: Acta Chimica Sinica 2024 Youth Forum" was held at the Yuhua campus of Yunnan Minzu University. The forum was jointly organized by the Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences, Yunnan Minzu University, and Qujing Normal University, and hosted by the School of Chemistry and Environment at Yunnan Minzu University, the Yunnan Provincial Key Laboratory of Chiral Functional Materials Research and Application, the National and Local Joint Engineering Research Center for Green Preparation Technology of Bio-based Materials, and the Joint Editorial Office of Acta Chimica Sinica (Shanghai Institute of Organic Chemistry, Chinese Academy of Sciences), with co-organization from the Yunnan Chemical Society. Nearly 180 experts and scholars from 87 universities and research institutions nationwide attended the meeting. Academician Tang Yong of the Shanghai Institute of Organic Chemistry, CAS; Researcher Fan Qinghua, Party Secretary of the Institute of Chemistry, CAS; and Ruan Chaoqi, Party Secretary of Yunnan Minzu University, delivered opening speeches respectively.</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>9月21日，“化学未来：2024中国化学青年论坛”在云南民族大学雨花校区举办。本次论坛由中国科学院上海有机化学研究所、云南民族大学和曲靖师范学院共同主办，云南民族大学化学与环境学院、云南省手性功能材料研究与应用重点实验室、生物基材料绿色制备技术国家地方联合工程研究中心、《化学学报》联合编辑部（中国科学院上海有机化学研究所）承办，云南省化学会协办。来自全国87所高校和科研院所的近180名专家学者参加了会议。中国科学院上海有机化学研究所唐勇院士、中国科学院化学研究所党委书记樊春海研究员、云南民族大学党委书记阮朝奇分别致开幕辞。</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>OpenAI-GPT-4.5</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="F153" t="n">
         <v>0.7479877862281287</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G153" t="n">
+        <v>0.6188916546883816</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.9140625</v>
       </c>
-      <c r="H136" t="n">
+      <c r="I153" t="n">
         <v>0.05339326564858937</v>
       </c>
-      <c r="I136" t="n">
+      <c r="J153" t="n">
         <v>0.2524942809197491</v>
       </c>
     </row>
